--- a/tradept/Excel/Localization/english/J技能页_SkillPages_hotfix.xlsx
+++ b/tradept/Excel/Localization/english/J技能页_SkillPages_hotfix.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="f:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\tradept\Excel\Localization\english\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57BF8EFE-1001-424E-B396-4BA0EE633F3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{048CC290-CC74-47C9-A6D7-0EA3DAC6B664}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3555" yWindow="660" windowWidth="15375" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="4" r:id="rId1"/>
@@ -1937,55 +1937,18 @@
 英雄火炎乱舞#6,3#英雄火炎新星,1#[$tagrole:statu_int=magic_level_火$][&gt;=]3#需要掌握大师级（3级）火焰巫术知识</t>
   </si>
   <si>
-    <t>火炎连弹#1,3##[$tagrole:statu_int=magic_level_火$][&gt;=]1#Requires knowledge of Basic Fire Arcana (Lv. 1)
-火炎弹雨#2,3#火炎连弹,1#[$tagrole:statu_int=magic_level_火$][&gt;=]2#Requires knowledge of Advanced Fire Arcana (Lv. 2)
-烈火燎原#3,3#火炎弹雨,1#[$tagrole:statu_int=magic_level_火$][&gt;=]2#Requires knowledge of Advanced Fire Arcana (Lv. 2)
-英雄炎爆术#4,3#烈火燎原,1#[$tagrole:statu_int=magic_level_火$][&gt;=]2#Requires knowledge of Advanced Fire Arcana (Lv. 2)
-英雄火炎新星#5,3#英雄炎爆术,1#[$tagrole:statu_int=magic_level_火$][&gt;=]3#Requires knowledge of Master Fire Arcana (Lv. 3)
-英雄火炎乱舞#6,3#英雄火炎新星,1#[$tagrole:statu_int=magic_level_火$][&gt;=]3#Requires knowledge of Master Fire Arcana (Lv. 3)</t>
-  </si>
-  <si>
     <t>Arcana • Gelo</t>
   </si>
   <si>
-    <t>冰霜连弹#1,3##[$tagrole:statu_int=magic_level_冰$][&gt;=]1#Requires knowledge of Basic Ice Arcana (Lv. 1)
-冰霜弹雨#2,3#冰霜连弹,1#[$tagrole:statu_int=magic_level_冰$][&gt;=]2#Requires knowledge of Advanced Ice Arcana (Lv. 2)
-冰霜风暴#3,3#冰霜弹雨,1#[$tagrole:statu_int=magic_level_冰$][&gt;=]3#Requires knowledge of Master Ice Arcana (Lv. 3)
-水灵之愈#4,3#冰霜风暴,1#[$tagrole:statu_int=magic_level_冰$][&gt;=]3#Requires knowledge of Master Ice Arcana (Lv. 3)</t>
-  </si>
-  <si>
     <t>Arcana • Ar</t>
   </si>
   <si>
-    <t>风灵冲击#1,3##[$tagrole:statu_int=magic_level_风$][&gt;=]1#Requires knowledge of Basic Air Arcana (Lv. 1)
-连环闪电#2,3#风灵冲击,1#[$tagrole:statu_int=magic_level_风$][&gt;=]2#Requires knowledge of Advanced Air Arcana (Lv. 2)
-黑色沙暴#3,3#连环闪电,1#[$tagrole:statu_int=magic_level_风$][&gt;=]3#Requires knowledge of Master Air Arcana (Lv. 3)
-雷雨云#4,3#黑色沙暴,1#[$tagrole:statu_int=magic_level_风$][&gt;=]3#Requires knowledge of Master Air Arcana (Lv. 3)</t>
-  </si>
-  <si>
     <t>Arcana • Luz</t>
   </si>
   <si>
-    <t>炫光连弹#1,3##[$tagrole:statu_int=magic_level_光$][&gt;=]1#Requires knowledge of Basic Light Arcana (Lv. 1)
-群星闪耀#2,3#炫光连弹,1#[$tagrole:statu_int=magic_level_光$][&gt;=]2#Requires knowledge of Advanced Light Arcana (Lv. 2)
-潜能觉醒#3,3#群星闪耀,1#[$tagrole:statu_int=magic_level_光$][&gt;=]2#Requires knowledge of Advanced Light Arcana (Lv. 2)
-回生#4,3#潜能觉醒,1#[$tagrole:statu_int=magic_level_光$][&gt;=]3#Requires knowledge of Master Light Arcana (Lv. 3)
-英雄圣光审判#5,3#回生,1#[$tagrole:statu_int=magic_level_光$][&gt;=]3#Requires knowledge of Master Light Arcana (Lv. 3)</t>
-  </si>
-  <si>
     <t>Arcana • Escuridão</t>
   </si>
   <si>
-    <t>剧毒连弹#1,3##[$tagrole:statu_int=magic_level_暗$][&gt;=]1#Requires knowledge of Basic Dark Arcana (Lv. 1)
-剧毒弹雨#2,3#剧毒连弹,1#[$tagrole:statu_int=magic_level_暗$][&gt;=]2#Requires knowledge of Advanced Dark Arcana (Lv. 2)
-恐惧连弹#3,3#剧毒弹雨,1#[$tagrole:statu_int=magic_level_暗$][&gt;=]2#Requires knowledge of Advanced Dark Arcana (Lv. 2)
-黑暗之爪#4,3#恐惧连弹,1#[$tagrole:statu_int=magic_level_暗$][&gt;=]2#Requires knowledge of Advanced Dark Arcana (Lv. 2)
-魔力狂暴#5,3#黑暗之爪,1#[$tagrole:statu_int=magic_level_暗$][&gt;=]3#Requires knowledge of Master Dark Arcana (Lv. 3)
-深渊束缚#6,3#魔力狂暴,1#[$tagrole:statu_int=magic_level_暗$][&gt;=]3#Requires knowledge of Master Dark Arcana (Lv. 3)
-黑暗旋涡#7,3#深渊束缚,1#[$tagrole:statu_int=magic_level_暗$][&gt;=]3#Requires knowledge of Master Dark Arcana (Lv. 3)
-迷惑之月#8,3#黑暗旋涡,1#[$tagrole:statu_int=magic_level_暗$][&gt;=]3#Requires knowledge of Master Dark Arcana (Lv. 3)</t>
-  </si>
-  <si>
     <t>Arcana de Luz</t>
   </si>
   <si>
@@ -1995,50 +1958,10 @@
     <t>Dançarino de Espada</t>
   </si>
   <si>
-    <t>幻光秘刃闪烁秘刃#1,3
-幻光秘刃闪烁秘刃提升1#1,2#幻光秘刃闪烁秘刃,1#[$tagrole:level$][&gt;=]8#Requires character Lv. 8
-幻光秘刃闪烁秘刃提升2#1,4#幻光秘刃闪烁秘刃,1#[$tagrole:level$][&gt;=]3#3
-幻光秘刃鬼爪#2,3#幻光秘刃闪烁秘刃,1
-幻光秘刃鬼爪提升1#2,2#幻光秘刃鬼爪,1#[$tagrole:level$][&gt;=]8#8
-幻光秘刃鬼爪提升2#2,4#幻光秘刃鬼爪,1
-幻光秘刃鬼爪提升3#2,5#幻光秘刃鬼爪提升2,1
-幻光秘刃幻光位移#3,4#幻光秘刃鬼爪提升2,1#[$tagrole:level$][&gt;=]5#Requires character Lv. 5
-幻光秘刃幻光位移提升1#3,3#幻光秘刃幻光位移,1
-幻光秘刃幻光位移提升2#3,5#幻光秘刃幻光位移,1
-幻光秘刃幻光位移提升3#4,4#幻光秘刃幻光位移,1
-幻光秘刃闪身斩#5,3#幻光秘刃幻光位移提升3,1#[$tagrole:level$][&gt;=]9#Requires character Lv. 9
-幻光秘刃闪身斩提升1#5,4#幻光秘刃闪身斩,1
-幻光秘刃闪身斩提升2#5,5#幻光秘刃闪身斩提升1,1
-幻光秘刃幻光三闪#6,5#幻光秘刃闪身斩提升2,1#[$tagrole:level$][&gt;=]12#Requires character Lv. 12
-幻光秘刃幻光三闪提升1#6,4#幻光秘刃幻光三闪,1
-幻光秘刃幻光三闪提升2#6,3#幻光秘刃幻光三闪提升1,1</t>
-  </si>
-  <si>
     <t>Espadachim</t>
   </si>
   <si>
     <t>Caçador de Recompensas</t>
-  </si>
-  <si>
-    <t>赏金猎人赏金契约#1,2
-赏金猎人赏金契约升级1#1,1#赏金猎人赏金契约,1#[$tagrole:level$][&gt;=]3#Requires character Lv. 3
-赏金猎人赏金契约升级2#2,1#赏金猎人赏金契约升级1,1#[$tagrole:level$][&gt;=]6#Requires character Lv. 6
-赏金猎人赏金契约升级3#3,1#赏金猎人赏金契约升级2,1#[$tagrole:level$][&gt;=]9#Requires character Lv. 9
-赏金猎人赏金契约升级4#4,1#赏金猎人赏金契约升级3,1#[$tagrole:level$][&gt;=]12#Requires character Lv. 12
-赏金猎人传奇赏金契约#5,1#赏金猎人赏金契约升级4,1#[$tagrole:level$][&gt;=]15#Requires character Lv. 15
-赏金猎人赏金狂热#2,2##[$tagrole:level$][&gt;=]5#Requires character Lv. 5
-赏金猎人赏金狂热强化1#3,2#赏金猎人赏金狂热,1#[$tagrole:level$][&gt;=]8#Requires character Lv. 8
-赏金猎人赏金狂热强化2#4,2#赏金猎人赏金狂热强化1,1#[$tagrole:level$][&gt;=]10#Requires character Lv. 10
-巨人重剑震击#1,4
-巨人重剑震击提升#1,5#巨人重剑震击,1
-巨人重剑力量提升#2,4#巨人重剑震击,1
-巨人重剑生命提升#2,5#巨人重剑力量提升,1
-巨人重剑生命提升2#2,6#巨人重剑生命提升,1
-巨人重剑巨人怒吼#3,4#巨人重剑力量提升,1#[$tagrole:level$][&gt;=]8#Requires character Lv. 8
-巨人重剑巨人怒吼提升#3,5#巨人重剑巨人怒吼,1
-巨人重剑巨人降临#4,5#巨人重剑巨人怒吼,1#[$tagrole:level$][&gt;=]12#Requires character Lv. 12
-巨人重剑巨人降临提升1#4,6#巨人重剑巨人降临,1
-巨人重剑巨人降临提升2#5,5#巨人重剑巨人降临,1</t>
   </si>
   <si>
     <t>Magia Espiritual</t>
@@ -2068,30 +1991,6 @@
 心灵巫术法术强度强化3#5,5#心灵巫术法术强度强化2,1#[$tagrole:level$][&gt;=]14#人物等级到达14</t>
   </si>
   <si>
-    <t>心灵巫术心灵魔弹#1,3
-心灵巫术心灵魔弹提升#1,2#心灵巫术心灵魔弹,1#[$tagrole:level$][&gt;=]2#Requires character Lv. 2
-心灵巫术心灵魔弹强化#1,4#心灵巫术心灵魔弹,1#[$tagrole:level$][&gt;=]3#Requires character Lv. 3
-心灵巫术精神提升#1,5#心灵巫术心灵魔弹强化,1#[$tagrole:level$][&gt;=]3#Requires character Lv. 3
-心灵巫术气力提升#1,1#心灵巫术心灵魔弹提升,1#[$tagrole:level$][&gt;=]3#Requires character Lv. 3
-心灵巫术魔影召唤#2,3##[$tagrole:level$][&gt;=]5#Requires character Lv. 5
-心灵巫术魔影召唤强化#2,4#心灵巫术魔影召唤,1#[$tagrole:level$][&gt;=]8#Requires character Lv. 8
-心灵巫术魔影召唤提升#2,5#心灵巫术魔影召唤强化,1
-心灵巫术法术强度强化4#2,2#心灵巫术魔影召唤,1
-心灵巫术时空裂隙#3,3##[$tagrole:level$][&gt;=]8#Requires character Lv. 8
-心灵巫术时空裂隙强化1#3,2#心灵巫术时空裂隙,1
-心灵巫术时空裂隙强化2#3,1#心灵巫术时空裂隙强化1,1
-心灵巫术气力回复提升#3,4#心灵巫术时空裂隙,1
-心灵巫术冷却缩减#3,5#心灵巫术气力回复提升,1#[$tagrole:level$][&gt;=]12#Requires character Lv. 12
-心灵巫师心灵之雷#5,3##[$tagrole:level$][&gt;=]15#Requires character Lv. 15
-心灵巫术心灵之雷强化1#5,2#心灵巫师心灵之雷,1
-心灵巫术心灵之雷强化2#5,1#心灵巫术心灵之雷强化1,1
-心灵巫术心灵震爆#4,3##[$tagrole:level$][&gt;=]10#Requires character Lv. 10
-心灵巫术心灵震爆强化#4,2#心灵巫术心灵震爆,1
-心灵巫术法术强度强化1#4,4#心灵巫术心灵震爆,1#[$tagrole:level$][&gt;=]10#Requires character Lv. 10
-心灵巫术法术强度强化2#4,5#心灵巫术法术强度强化1,1#[$tagrole:level$][&gt;=]12#Requires character Lv. 12
-心灵巫术法术强度强化3#5,5#心灵巫术法术强度强化2,1#[$tagrole:level$][&gt;=]14#Requires character Lv. 14</t>
-  </si>
-  <si>
     <t>Lâmina Sanguinária</t>
   </si>
   <si>
@@ -2107,292 +2006,48 @@
 嗜血刀术闪避提升#4,3#嗜血刀术月夜魔刃,1</t>
   </si>
   <si>
-    <t>嗜血刀术狂暴斩#1,3
-嗜血刀术狂暴斩提升#1,2#嗜血刀术狂暴斩,1
-嗜血刀术暴击光环#2,3#嗜血刀术狂暴斩,1#[$tagrole:level$][&gt;=]4#RequirescharacterLv.4
-嗜血刀术暴击光环提升#2,2#嗜血刀术暴击光环,1
-嗜血刀术吸血光环#1,4#嗜血刀术狂暴斩,1#[$tagrole:level$][&gt;=]6#RequirescharacterLv.6
-嗜血刀术吸血光环提升#1,5#嗜血刀术吸血光环,1
-嗜血刀术吸血刃#2,4#嗜血刀术吸血光环,1#[$tagrole:level$][&gt;=]8#RequirescharacterLv.8
-嗜血刀术吸血刃提升#3,5#嗜血刀术吸血刃,1
-嗜血刀术月夜魔刃#3,4#嗜血刀术吸血刃,1#[$tagrole:level$][&gt;=]12#RequirescharacterLv.12
-嗜血刀术闪避提升#4,3#嗜血刀术月夜魔刃,1</t>
-  </si>
-  <si>
     <t>Corte de Katara</t>
   </si>
   <si>
-    <t>卡塔拉秘刃幻刃#1,1
-卡塔拉秘刃冷刃#1,2#卡塔拉秘刃幻刃,1
-卡塔拉秘刃恶魔之刃#2,2#卡塔拉秘刃冷刃,1#[$tagrole:level$][&gt;=]5#Requires character Lv. 5
-卡塔拉秘刃恶魔之刃提升#2,3#卡塔拉秘刃恶魔之刃,1
-卡塔拉秘刃威压#3,2#卡塔拉秘刃恶魔之刃,1#[$tagrole:level$][&gt;=]8#Requires character Lv. 8
-卡塔拉秘刃威压提升#3,1#卡塔拉秘刃威压,1
-卡塔拉秘刃飞雨#4,2#卡塔拉秘刃威压,1#[$tagrole:level$][&gt;=]12#Requires character Lv. 12
-卡塔拉秘刃幻刃提升#4,3#卡塔拉秘刃飞雨,1
-卡塔拉秘刃飞雨提升1#4,1#卡塔拉秘刃飞雨,1
-卡塔拉秘刃飞雨提升2#5,2#卡塔拉秘刃飞雨,1</t>
-  </si>
-  <si>
     <t>Lâmina de Fogo Selvagem</t>
   </si>
   <si>
-    <t>野火刀术火刃#1,2
-野火刀术火刃提升#2,1#野火刀术火刃,1
-野火刀术攻击提升#2,2#野火刀术火刃,1
-野火刀术暴击提升#3,3#野火刀术攻击提升,1
-野火刀术烈火之誓#3,2#野火刀术攻击提升,1#[$tagrole:level$][&gt;=]5#Requires character Lv. 5
-野火刀术烈火之誓提升#4,3#野火刀术烈火之誓,1
-野火刀术灰烬#4,1#野火刀术烈火之誓,1#[$tagrole:level$][&gt;=]12#Requires character Lv. 12
-野火刀术灰烬提升#5,1#野火刀术灰烬,1
-野火刀术浴火#4,2#野火刀术烈火之誓,1#[$tagrole:level$][&gt;=]10#Requires character Lv. 10
-野火刀术浴火提升#5,2#野火刀术浴火,1</t>
-  </si>
-  <si>
     <t>Espada Ascendente</t>
   </si>
   <si>
-    <t>翱翔之剑雷电#1,2
-翱翔之剑雷电提升#1,3#翱翔之剑雷电,1
-翱翔之剑比翼#2,2#翱翔之剑雷电,1#[$tagrole:level$][&gt;=]5#Requires character Lv. 5
-翱翔之剑比翼提升#2,3#翱翔之剑比翼,1
-翱翔之剑风速#2,1#翱翔之剑比翼,1
-翱翔之剑气力提升#3,2#翱翔之剑比翼,1
-翱翔之剑暴击提升#3,3#翱翔之剑气力提升,1
-翱翔之剑逆风#3,1#翱翔之剑比翼,1#[$tagrole:level$][&gt;=]10#Requires character Lv. 10
-翱翔之剑逆风提升#4,1#翱翔之剑逆风,1
-翱翔之剑翱翔#4,2#翱翔之剑气力提升,1#[$tagrole:level$][&gt;=]15#Requires character Lv. 15
-翱翔之剑翱翔提升#5,2#翱翔之剑翱翔,1</t>
-  </si>
-  <si>
     <t>Chacal</t>
   </si>
   <si>
-    <t>赏金猎人赏金契约#1,1
-赏金猎人赏金契约升级1#2,1#赏金猎人赏金契约,1#[$tagrole:level$][&gt;=]3#Requires character Lv. 3
-赏金猎人赏金契约升级2#3,1#赏金猎人赏金契约升级1,1#[$tagrole:level$][&gt;=]6#Requires character Lv. 6
-赏金猎人赏金契约升级3#4,1#赏金猎人赏金契约升级2,1#[$tagrole:level$][&gt;=]9#Requires character Lv. 9
-赏金猎人赏金契约升级4#5,1#赏金猎人赏金契约升级3,1#[$tagrole:level$][&gt;=]12#Requires character Lv. 12
-赏金猎人传奇赏金契约#5,2#赏金猎人赏金契约升级4,1#[$tagrole:level$][&gt;=]15#Requires character Lv. 15
-赏金猎人赏金狂热#1,4
-赏金猎人强化1#1,5#赏金猎人赏金狂热,1
-赏金猎人赏金狂热强化1#1,6#赏金猎人强化1,1#[$tagrole:level$][&gt;=]5#Requires character Lv. 5
-赏金猎人强化2#1,3#赏金猎人赏金狂热,1
-赏金猎人赏金狂热强化2#1,2#赏金猎人强化2,1#[$tagrole:level$][&gt;=]8#Requires character Lv. 8
-赏金猎人烟雾弹#2,4#赏金猎人赏金狂热,1
-赏金猎人烟雾弹强化1#2,5#赏金猎人烟雾弹,1
-赏金猎人烟雾弹强化2#2,6#赏金猎人烟雾弹强化1,1
-赏金猎人强化3#2,3#赏金猎人烟雾弹,1
-赏金猎人赏金标记新#3,4#赏金猎人烟雾弹,1
-赏金猎人赏金标记新强化1#3,5#赏金猎人赏金标记新,1#[$tagrole:level$][&gt;=]15#Requires character Lv. 15
-赏金猎人钩镰#4,4#赏金猎人赏金标记新,1#[$tagrole:level$][&gt;=]8#Requires character Lv. 8
-赏金猎人强化4#4,5#赏金猎人钩镰,1
-赏金猎人钩镰强化1#4,6#赏金猎人强化4,1
-赏金猎人钩镰强化2#4,3#赏金猎人钩镰,1
-赏金猎人快刃#5,4#赏金猎人钩镰,1#[$tagrole:level$][&gt;=]12#Requires character Lv. 12
-赏金猎人快刃强化1#5,5#赏金猎人快刃,1
-赏金猎人快刃强化2#5,6#赏金猎人快刃强化1,1
-赏金猎人钩锁#9,9#赏金猎人赏金狂热,1
-赏金猎人钩锁强化1#9,10#赏金猎人钩锁,1
-赏金猎人钩锁强化2#9,11#赏金猎人钩锁强化1,1
-箭术火箭雨#9,12</t>
-  </si>
-  <si>
-    <t>暗月幽影暗月之刺#1,3
-暗月幽影暗月之刺强化1#1,2#暗月幽影暗月之刺,1#[$tagrole:level$][&gt;=]5#Requires character Lv. 5
-暗月幽影暗月之刺强化2#1,4#暗月幽影暗月之刺,1#[$tagrole:level$][&gt;=]3#Requires character Lv. 3
-暗月幽影暗月之刺强化3#1,5#暗月幽影暗月之刺强化2,1
-暗月幽影暗月闪耀#2,3#暗月幽影暗月之刺,1
-暗月幽影暗月闪耀强化1#2,2#暗月幽影暗月闪耀,1#[$tagrole:level$][&gt;=]8#Requires character Lv. 8
-暗月幽影暗月闪耀强化2#2,1#暗月幽影暗月闪耀强化1,1
-暗月幽影暗月闪耀强化3#3,3#暗月幽影暗月闪耀,1
-暗月幽影幽影魔弹#4,3#暗月幽影暗月闪耀强化3,1#[$tagrole:level$][&gt;=]6#Requires character Lv. 6
-暗月幽影幽影魔弹强化1#4,4#暗月幽影幽影魔弹,1#[$tagrole:level$][&gt;=]10#Requires character Lv. 10
-暗月幽影幽影魔弹强化2#4,5#暗月幽影幽影魔弹强化1,1#[$tagrole:level$][&gt;=]10#Requires character Lv. 10
-暗月幽影暗月群星#5,3#暗月幽影幽影魔弹,1#[$tagrole:level$][&gt;=]12#Requires character Lv. 12
-暗月幽影暗月群星强化1#5,2#暗月幽影暗月群星,1
-暗月幽影暗月群星强化2#5,1#暗月幽影暗月群星强化1,1#[$tagrole:level$][&gt;=]15#Requires character Lv. 15
-暗月幽影暗月群星强化3#5,4#暗月幽影暗月群星,1
-暗月幽影暗月群星强化4#5,5#暗月幽影暗月群星强化3,1#[$tagrole:level$][&gt;=]15#Requires character Lv. 15</t>
-  </si>
-  <si>
     <t>Força Primordial</t>
   </si>
   <si>
-    <t>蛮力战士头槌#1,3
-蛮力战士头槌强化1#1,2#蛮力战士头槌,1
-蛮力战士头槌强化2#1,4#蛮力战士头槌,1
-蛮力战士头槌强化3#1,1#蛮力战士头槌强化1,1#[$tagrole:level$][&gt;=]5#Requires character Lv. 5
-蛮力战士狂暴状态#2,3#蛮力战士头槌,1
-蛮力战士狂暴状态强化1#2,4#蛮力战士狂暴状态,1#[$tagrole:level$][&gt;=]5#Requires character Lv. 5
-蛮力战士狂暴状态强化2#2,5#蛮力战士狂暴状态强化1,1#[$tagrole:level$][&gt;=]8#Requires character Lv. 8
-蛮力战士狂暴状态强化3#2,1#蛮力战士狂暴状态,1#[$tagrole:level$][&gt;=]8#Requires character Lv. 8
-蛮力战士跃斩#3,3#蛮力战士狂暴状态,1#[$tagrole:level$][&gt;=]8#Requires character Lv. 8
-蛮力战士跃斩强化1#3,4#蛮力战士跃斩,1
-蛮力战士跃斩强化2#3,5#蛮力战士跃斩强化1,1
-蛮力战士跃斩强化3#3,2#蛮力战士跃斩,1#[$tagrole:level$][&gt;=]10#Requires character Lv. 10
-蛮力战士野性之舞#4,3#蛮力战士跃斩,1#[$tagrole:level$][&gt;=]12#Requires character Lv. 12
-蛮力战士野性之舞强化3#4,2#蛮力战士野性之舞,1
-蛮力战士野性之舞强化1#4,4#蛮力战士野性之舞,1
-蛮力战士野性之舞强化2#4,5#蛮力战士野性之舞强化1,1</t>
-  </si>
-  <si>
     <t>Foco Pesado</t>
   </si>
   <si>
-    <t>蛮力战士长剑专精1#1,1
-蛮力战士长剑专精2#2,1#蛮力战士长剑专精1,1#[$tagrole:level$][&gt;=]5#Requires character Lv. 5
-蛮力战士长剑专精3#3,1#蛮力战士长剑专精2,1#[$tagrole:level$][&gt;=]10#Requires character Lv. 10
-蛮力战士弯刀专精1#1,2
-蛮力战士弯刀专精2#2,2#蛮力战士弯刀专精1,1#[$tagrole:level$][&gt;=]5#Requires character Lv. 5
-蛮力战士弯刀专精3#3,2#蛮力战士弯刀专精2,1#[$tagrole:level$][&gt;=]10#Requires character Lv. 10
-蛮力战士重锤专精1#1,3
-蛮力战士重锤专精2#2,3#蛮力战士重锤专精1,1#[$tagrole:level$][&gt;=]5#Requires character Lv. 5
-蛮力战士重锤专精3#3,3#蛮力战士重锤专精2,1#[$tagrole:level$][&gt;=]10#Requires character Lv. 10
-蛮力战士长杆专精1#1,4
-蛮力战士长杆专精2#2,4#蛮力战士长杆专精1,1#[$tagrole:level$][&gt;=]5#Requires character Lv. 5
-蛮力战士长杆专精3#3,4#蛮力战士长杆专精2,1#[$tagrole:level$][&gt;=]10#Requires character Lv. 10
-蛮力战士重武器专精1#1,5
-蛮力战士重武器专精2#2,5#蛮力战士重武器专精1,1#[$tagrole:level$][&gt;=]5#Requires character Lv. 5
-蛮力战士重武器专精3#3,5#蛮力战士重武器专精2,1#[$tagrole:level$][&gt;=]10#Requires character Lv. 10</t>
-  </si>
-  <si>
     <t>Sentinela</t>
   </si>
   <si>
-    <t>铁甲卫士钩锁#1,3
-铁甲卫士钩锁强化1#1,2#铁甲卫士钩锁,1#[$tagrole:level$][&gt;=]5#Requires character Lv. 5
-铁甲卫士钩锁强化2#1,1#铁甲卫士钩锁强化1,1#[$tagrole:level$][&gt;=]10#Requires character Lv. 10
-铁甲卫士冲击波#2,3#铁甲卫士钩锁,1
-铁甲卫士冲击波强化1#2,4#铁甲卫士冲击波,1
-铁甲卫士冲击波强化2#2,5#铁甲卫士冲击波强化1,1
-铁甲卫士冲击波强化3#2,2#铁甲卫士冲击波,1
-铁甲卫士嘲讽#3,3#铁甲卫士冲击波,1#[$tagrole:level$][&gt;=]8#Requires character Lv. 8
-铁甲卫士巨大化#4,3#铁甲卫士嘲讽,1#[$tagrole:level$][&gt;=]10#Requires character Lv. 10
-铁甲卫士巨大化强化1#4,4#铁甲卫士巨大化,1
-铁甲卫士巨大化强化2#4,5#铁甲卫士巨大化强化1,1
-铁甲卫士震地#5,3#铁甲卫士巨大化,1#[$tagrole:level$][&gt;=]12#Requires character Lv. 12
-铁甲卫士震地强化1#5,2#铁甲卫士震地,1
-铁甲卫士震地强化2#5,4#铁甲卫士震地,1#[$tagrole:level$][&gt;=]15#Requires character Lv. 15</t>
-  </si>
-  <si>
-    <t>铁甲卫士盾击#1,3
-铁甲卫士盾击强化1#1,2#铁甲卫士盾击,1
-铁甲卫士盾击强化2#1,1#铁甲卫士盾击强化1,1
-铁甲卫士盾击强化3#1,4#铁甲卫士盾击,1#[$tagrole:level$][&gt;=]5#Requires character Lv. 5
-铁甲卫士举盾冲锋#2,3#铁甲卫士盾击,1
-铁甲卫士举盾冲锋强化1#2,4#铁甲卫士举盾冲锋,1
-铁甲卫士举盾冲锋强化2#2,5#铁甲卫士举盾冲锋强化1,1
-铁甲卫士冲击波#3,3#铁甲卫士举盾冲锋,1#[$tagrole:level$][&gt;=]5#Requires character Lv. 5
-铁甲卫士冲击波强化1#3,4#铁甲卫士冲击波,1
-铁甲卫士冲击波强化2#3,5#铁甲卫士冲击波强化1,1
-铁甲卫士冲击波强化3#3,6#铁甲卫士冲击波强化2,1#[$tagrole:level$][&gt;=]10#Requires character Lv. 10
-铁甲卫士嘲讽图腾#4,2#铁甲卫士冲击波,1#[$tagrole:level$][&gt;=]8#Requires character Lv. 8
-铁甲卫士嘲讽图腾强化1#4,1#铁甲卫士嘲讽图腾,1
-铁甲卫士嘲讽图腾强化2#3,1#铁甲卫士嘲讽图腾,1
-铁甲卫士震地#4,3#铁甲卫士冲击波,1#[$tagrole:level$][&gt;=]10#Requires character Lv. 10
-铁甲卫士震地强化1#4,4#铁甲卫士震地,1
-铁甲卫士震地强化2#4,5#铁甲卫士震地强化1,1
-铁甲卫士震地强化3#4,6#铁甲卫士震地强化2,1
-铁甲卫士圣盾折返#5,3#铁甲卫士震地,1#[$tagrole:level$][&gt;=]12#Requires character Lv. 12
-铁甲卫士圣盾强化1#5,2#铁甲卫士圣盾折返,1
-铁甲卫士圣盾强化2#5,1#铁甲卫士圣盾强化1,1
-铁甲卫士圣盾强化3#5,4#铁甲卫士圣盾折返,1#[$tagrole:level$][&gt;=]15#Requires character Lv. 15</t>
-  </si>
-  <si>
     <t>Lâmina Espectral</t>
   </si>
   <si>
     <t>Espada Larga Gigante</t>
   </si>
   <si>
-    <t>巨人重剑震击#1,2
-巨人重剑震击提升#1,3#巨人重剑震击,1
-巨人重剑力量提升#2,2#巨人重剑震击,1
-巨人重剑生命提升#2,3#巨人重剑力量提升,1
-巨人重剑生命提升2#2,4#巨人重剑生命提升,1
-巨人重剑巨人怒吼#3,2#巨人重剑力量提升,1#[$tagrole:level$][&gt;=]8#Requires character Lv. 8
-巨人重剑巨人怒吼提升#3,3#巨人重剑巨人怒吼,1
-巨人重剑巨人降临#4,2#巨人重剑巨人怒吼,1#[$tagrole:level$][&gt;=]12#Requires character Lv. 12
-巨人重剑巨人降临提升1#4,3#巨人重剑巨人降临,1
-巨人重剑巨人降临提升2#4,1#巨人重剑巨人降临,1</t>
-  </si>
-  <si>
     <t>Domador de Feras</t>
   </si>
   <si>
-    <t>野兽血脉变狼#1,1
-野兽血脉强壮体魄#1,2#野兽血脉变狼,1
-野兽血脉狼嚎#2,2#野兽血脉强壮体魄,1
-野兽血脉野狼强化#3,1#野兽血脉狼嚎,1
-野兽血脉野狼光环#3,3#野兽血脉狼嚎,1
-野兽血脉敏捷步法#3,2#野兽血脉狼嚎,1
-野兽血脉闪电#4,2#野兽血脉敏捷步法,1
-野兽血脉变鹰#4,1#野兽血脉闪电,1#[$tagrole:level$][&gt;=]8#Requires character Lv. 8
-野兽血脉飞鹰强化#5,1#野兽血脉变鹰,1
-野兽血脉飞鹰光环#5,2#野兽血脉变鹰,1
-野兽血脉火龙#2,4##[$tagrole:level$][&gt;=]12#Requires character Lv. 12
-野兽血脉火龙强化#3,4#野兽血脉火龙,1
-野兽血脉火龙燃烧光环#4,4#野兽血脉火龙,1
-野兽血脉火龙暴击光环#5,4#野兽血脉火龙,1</t>
-  </si>
-  <si>
     <t>Xamã</t>
   </si>
   <si>
-    <t>巨龙血脉#1,6##[%get_es:野兽血脉主线913%][&lt;&gt;]-1#Activate Dragon Strength in campaign to unlock
-野性之魂野性扑击#1,3
-野性之魂野性扑击强化1#1,2#野性之魂野性扑击,1
-野性之魂野性扑击强化2#1,4#野性之魂野性扑击,1
-野性之魂野性扑击强化3#1,1#野性之魂野性扑击强化1,1
-野性之魂野性撕咬#2,3#野性之魂野性扑击,1
-野性之魂野性撕咬强化1#2,2#野性之魂野性撕咬,1
-野性之魂狂暴之唤#3,3#野性之魂野性撕咬,1#[$tagrole:level$][&gt;=]5#Requires character Lv. 5
-野性之魂狂暴之唤强化1#3,4#野性之魂狂暴之唤,1
-野性之魂狂暴之唤强化2#3,2#野性之魂狂暴之唤,1
-野性之魂狂暴之唤强化3#3,5#野性之魂狂暴之唤强化1,1
-野性之魂野性嚎叫#4,3#野性之魂狂暴之唤,1#[$tagrole:level$][&gt;=]8#Requires character Lv. 8
-野性之魂野性嚎叫强化1#4,2#野性之魂野性嚎叫,1
-野性之魂野性嚎叫强化2#4,1#野性之魂野性嚎叫强化1,1
-野性之魂百万野兽冲击#5,3#野性之魂野性嚎叫,1#[$tagrole:level$][&gt;=]12#Requires character Lv. 12
-野性之魂百万野兽冲击强化1#5,4#野性之魂百万野兽冲击,1
-野性之魂百万野兽冲击强化2#5,5#野性之魂百万野兽冲击强化1,1</t>
-  </si>
-  <si>
     <t>Espadachim de Lança</t>
   </si>
   <si>
-    <t>枪术刺击#1,2
-枪术刺击提升#1,1#枪术刺击,1
-枪术振奋#1,3#枪术刺击,1
-枪术三连刺#2,2#枪术刺击,1#[$tagrole:level$][&gt;=]5#Requires character Lv. 5
-枪术格挡提升#3,1#枪术三连刺,1
-枪术霸体#4,1#枪术格挡提升,1#[$tagrole:level$][&gt;=]8#Requires character Lv. 8
-枪术霸体提升#5,1#枪术霸体,1
-枪术防御提升#3,3#枪术三连刺,1
-枪术枪阵#4,3#枪术防御提升,1#[$tagrole:level$][&gt;=]12#Requires character Lv. 12
-枪术枪阵提升#5,3#枪术枪阵,1
-枪术力量提升#3,2#枪术三连刺,1
-枪术狂风#4,2#枪术力量提升,1#[$tagrole:level$][&gt;=]12#Requires character Lv. 12
-枪术狂风提升#5,2#枪术狂风,1</t>
-  </si>
-  <si>
     <t>Lanceiro Nasir</t>
   </si>
   <si>
     <t>Fúria do Ferreiro</t>
   </si>
   <si>
-    <t>铁匠之怒抡击#1,2
-铁匠之怒抡击提升#1,1#铁匠之怒抡击,1
-铁匠之怒力量提升#2,2#铁匠之怒抡击,1
-铁匠之怒力量提升2#2,3#铁匠之怒抡击,1
-铁匠之怒震击#3,2#铁匠之怒力量提升,1#[$tagrole:level$][&gt;=]8#Requires character Lv. 8
-铁匠之怒震击提升#4,3#铁匠之怒震击,1
-铁匠之怒淬火#4,2#铁匠之怒震击,1#[$tagrole:level$][&gt;=]10#Requires character Lv. 10
-铁匠之怒淬火提升#5,2#铁匠之怒淬火,1</t>
-  </si>
-  <si>
     <t>Cajado Varrido</t>
   </si>
   <si>
@@ -2402,182 +2057,34 @@
     <t>Cavaleiro Errante</t>
   </si>
   <si>
-    <t>英雄双段斩#1,1
-英雄双段斩强化1#1,2#英雄双段斩,1
-英雄双段斩强化2#1,3#英雄双段斩强化1,1#[$tagrole:level$][&gt;=]5#Requires character Lv. 5
-英雄空息斩#2,1#英雄双段斩,1#[$tagrole:level$][&gt;=]8#Requires character Lv. 8
-英雄空息斩强化1#2,2#英雄空息斩,1
-英雄空息斩强化2#2,3#英雄空息斩强化1,1
-英雄旋风斩#3,1#英雄空息斩,1#[$tagrole:level$][&gt;=]10#Requires character Lv. 10
-英雄旋风斩强化1#3,2#英雄旋风斩,1
-英雄瞬杀#4,1#英雄旋风斩,1#[$tagrole:level$][&gt;=]12#Requires character Lv. 12
-英雄瞬杀强化1#4,2#英雄瞬杀,1
-英雄瞬杀强化2#4,3#英雄瞬杀强化1,1
-英雄天煞#5,1#英雄瞬杀,1#[$tagrole:level$][&gt;=]15#Requires character Lv. 15
-英雄天煞强化1#5,2#英雄天煞,1
-英雄天煞强化2#5,3#英雄天煞强化1,1
-英雄天煞强化3#6,1#英雄天煞强化2,1
-英雄气裂扫#1,5
-英雄气裂扫强化1#2,5#英雄气裂扫,1
-英雄剑誓#3,5#英雄气裂扫,1#[$tagrole:level$][&gt;=]5#Requires character Lv. 5</t>
-  </si>
-  <si>
     <t>Arqueirismo</t>
   </si>
   <si>
-    <t>箭术连珠#1,1
-箭术穿云#1,2
-箭术五枝#1,3
-箭术专注#2,2#箭术穿云,1
-箭术灵巧#3,1#箭术专注,1
-箭术满弦#3,2#箭术专注,1
-箭术呼吸#3,3#箭术专注,1
-箭术火箭爆炸#4,1#箭术灵巧,1#[$tagrole:level$][&gt;=]10#Requires character Lv. 10
-箭术冻气五枝#4,3#箭术呼吸,1#[$tagrole:level$][&gt;=]10#Requires character Lv. 10
-箭术火箭雨#5,1#箭术火箭爆炸,1#[$tagrole:level$][&gt;=]15#Requires character Lv. 15
-箭术冰箭雨#5,3#箭术冻气五枝,1#[$tagrole:level$][&gt;=]15#Requires character Lv. 15</t>
-  </si>
-  <si>
     <t>Carga</t>
   </si>
   <si>
-    <t>近战冲锋震退#1,2
-近战冲锋震退强化#1,3#近战冲锋震退,1
-近战冲锋力量强化1#2,2#近战冲锋震退,1
-近战冲锋力量强化2#2,1#近战冲锋力量强化1,1#[$tagrole:level$][&gt;=]3#Requires character Lv. 3
-近战冲锋力量强化3#3,1#近战冲锋力量强化2,1#[$tagrole:level$][&gt;=]5#Requires character Lv. 5
-近战冲锋力量强化4#3,2#近战冲锋力量强化3,1#[$tagrole:level$][&gt;=]7#Requires character Lv. 7
-近战冲锋力量强化5#4,2#近战冲锋力量强化4,1#[$tagrole:level$][&gt;=]10#Requires character Lv. 10
-近战冲锋力量强化6#4,1#近战冲锋力量强化5,1#[$tagrole:level$][&gt;=]12#Requires character Lv. 12
-近战冲锋大地震撼#5,1#近战冲锋力量强化6,1
-近战冲锋大地震撼强化#5,2#近战冲锋大地震撼,1
-近战冲锋敏捷强化1#1,4
-近战冲锋敏捷强化2#2,4#近战冲锋敏捷强化1,1#[$tagrole:level$][&gt;=]5#Requires character Lv. 5
-近战冲锋敏捷强化3#2,5#近战冲锋敏捷强化2,1#[$tagrole:level$][&gt;=]10#Requires character Lv. 10
-近战冲锋跃击#3,5#近战冲锋敏捷强化3,1
-近战冲锋跃击强化#3,4#近战冲锋跃击,1
-近战冲锋野蛮冲撞#3,3#近战冲锋力量强化5,1|近战冲锋敏捷强化2,1
-近战冲锋野蛮冲撞强化#4,3#近战冲锋野蛮冲撞,1</t>
-  </si>
-  <si>
     <t>Guardião</t>
   </si>
   <si>
-    <t>近战护卫头槌#1,2
-近战护卫头槌强化#1,3#近战护卫头槌,1
-近战护卫耐力强化1#2,2#近战护卫头槌,1
-近战护卫耐力强化2#2,1#近战护卫耐力强化1,1#[$tagrole:level$][&gt;=]3#Requires character Lv. 3
-近战护卫耐力强化3#3,1#近战护卫耐力强化2,1#[$tagrole:level$][&gt;=]5#Requires character Lv. 5
-近战护卫耐力强化4#3,2#近战护卫耐力强化3,1#[$tagrole:level$][&gt;=]7#Requires character Lv. 7
-近战护卫耐力强化5#4,2#近战护卫耐力强化4,1#[$tagrole:level$][&gt;=]10#Requires character Lv. 10
-近战护卫耐力强化6#4,1#近战护卫耐力强化5,1#[$tagrole:level$][&gt;=]12#Requires character Lv. 12
-近战护卫霸体#5,1#近战护卫耐力强化6,1
-近战护卫霸体强化#5,2#近战护卫霸体,1
-近战护卫臂力强化1#1,4
-近战护卫臂力强化2#2,4#近战护卫臂力强化1,1#[$tagrole:level$][&gt;=]5#Requires character Lv. 5
-近战护卫臂力强化3#2,5#近战护卫臂力强化2,1#[$tagrole:level$][&gt;=]10#Requires character Lv. 10
-近战护卫咆哮#3,5#近战护卫臂力强化3,1
-近战护卫咆哮强化#3,4#近战护卫咆哮,1
-近战护卫嘲讽#3,3#近战护卫耐力强化5,1|近战护卫臂力强化2,1
-近战护卫嘲讽强化#4,3#近战护卫嘲讽,1</t>
-  </si>
-  <si>
     <t>Fúria Berserk</t>
   </si>
   <si>
-    <t>近战狂战士闪身斩#1,2
-近战狂战士闪身斩强化#1,3#近战狂战士闪身斩,1
-近战狂战士敏捷强化1#1,1#近战狂战士闪身斩,1
-近战狂战士敏捷强化2#2,1#近战狂战士敏捷强化1,1#[$tagrole:level$][&gt;=]3#Requires character Lv. 3
-近战狂战士敏捷强化3#2,2#近战狂战士敏捷强化2,1#[$tagrole:level$][&gt;=]5#Requires character Lv. 5
-近战狂战士敏捷强化4#3,2#近战狂战士敏捷强化3,1#[$tagrole:level$][&gt;=]7#Requires character Lv. 7
-近战狂战士敏捷强化5#3,1#近战狂战士敏捷强化4,1#[$tagrole:level$][&gt;=]10#Requires character Lv. 10
-近战狂战士敏捷强化6#4,1#近战狂战士敏捷强化5,1#[$tagrole:level$][&gt;=]12#Requires character Lv. 12
-近战狂战士刀舞#5,2#近战狂战士敏捷强化6,1
-近战狂战士刀舞强化#5,1#近战狂战士刀舞,1
-近战狂战士力量强化1#2,4
-近战狂战士力量强化2#3,4#近战狂战士力量强化1,1#[$tagrole:level$][&gt;=]5#Requires character Lv. 5
-近战狂战士力量强化3#4,4#近战狂战士力量强化2,1#[$tagrole:level$][&gt;=]10#Requires character Lv. 10
-近战狂战士气裂斩#5,4#近战狂战士力量强化3,1
-近战狂战士气裂斩强化#5,5#近战狂战士气裂斩,1
-近战狂战士吸血斩#4,3#近战狂战士敏捷强化5,1|近战狂战士力量强化2,1
-近战狂战士吸血斩强化#5,3#近战狂战士吸血斩,1</t>
-  </si>
-  <si>
     <t>Força</t>
   </si>
   <si>
-    <t>辅助力量提升1#1,1
-辅助力量提升2#2,1#辅助力量提升1,1
-辅助力量提升3#3,1#辅助力量提升2,1#[$tagrole:level$][&gt;=]5#Requires character Lv. 5
-辅助力量提升4#4,1#辅助力量提升3,1#[$tagrole:level$][&gt;=]7#Requires character Lv. 7
-辅助力量提升5#5,1#辅助力量提升4,1#[$tagrole:level$][&gt;=]9#Requires character Lv. 9
-辅助力量巨力#6,1#辅助力量提升5,1#[$tagrole:level$][&gt;=]12#Requires character Lv. 12</t>
-  </si>
-  <si>
     <t>Destreza</t>
   </si>
   <si>
-    <t>辅助灵巧提升1#1,1
-辅助灵巧提升2#2,1#辅助灵巧提升1,1
-辅助灵巧提升3#3,1#辅助灵巧提升2,1#[$tagrole:level$][&gt;=]5#Requires character Lv. 5
-辅助灵巧提升4#4,1#辅助灵巧提升3,1#[$tagrole:level$][&gt;=]7#Requires character Lv. 7
-辅助灵巧提升5#5,1#辅助灵巧提升4,1#[$tagrole:level$][&gt;=]9#Requires character Lv. 9
-辅助灵巧闪避#6,1#辅助灵巧提升5,1#[$tagrole:level$][&gt;=]12#Requires character Lv. 12</t>
-  </si>
-  <si>
     <t>Crítico</t>
   </si>
   <si>
-    <t>辅助暴击提升1#1,1
-辅助暴击提升2#2,1#辅助暴击提升1,1
-辅助暴击提升3#3,1#辅助暴击提升2,1#[$tagrole:level$][&gt;=]5#Requires character Lv. 5
-辅助暴击提升4#4,1#辅助暴击提升3,1#[$tagrole:level$][&gt;=]7#Requires character Lv. 7
-辅助暴击提升5#5,1#辅助暴击提升4,1#[$tagrole:level$][&gt;=]9#Requires character Lv. 9
-辅助暴击狂暴#6,1#辅助暴击提升5,1#[$tagrole:level$][&gt;=]12#Requires character Lv. 12</t>
-  </si>
-  <si>
     <t>Energia</t>
   </si>
   <si>
-    <t>辅助耐力提升1#1,1
-辅助耐力提升2#2,1#辅助耐力提升1,1
-辅助耐力提升3#3,1#辅助耐力提升2,1#[$tagrole:level$][&gt;=]5#Requires character Lv. 5
-辅助耐力提升4#4,1#辅助耐力提升3,1#[$tagrole:level$][&gt;=]7#Requires character Lv. 7
-辅助耐力提升5#5,1#辅助耐力提升4,1#[$tagrole:level$][&gt;=]9#Requires character Lv. 9
-辅助耐力坚实#6,1#辅助耐力提升5,1#[$tagrole:level$][&gt;=]12#Requires character Lv. 12</t>
-  </si>
-  <si>
     <t>Espírito</t>
   </si>
   <si>
-    <t>辅助精神提升1#1,1
-辅助精神提升2#2,1#辅助精神提升1,1
-辅助精神提升3#3,1#辅助精神提升2,1#[$tagrole:level$][&gt;=]5#Requires character Lv. 5
-辅助精神提升4#4,1#辅助精神提升3,1#[$tagrole:level$][&gt;=]7#Requires character Lv. 7
-辅助精神提升5#5,1#辅助精神提升4,1#[$tagrole:level$][&gt;=]9#Requires character Lv. 9
-辅助精神神秘#6,1#辅助精神提升5,1#[$tagrole:level$][&gt;=]12#Requires character Lv. 12</t>
-  </si>
-  <si>
     <t>Máquina Antiga</t>
-  </si>
-  <si>
-    <t>古代机械回旋镖#1,3
-古代机械回旋镖强化1#1,4#古代机械回旋镖,1#[$tagrole:level$][&gt;=]5#Requires character Lv. 5
-古代机械回旋镖强化2#1,2#古代机械回旋镖,1#[$tagrole:level$][&gt;=]5#Requires character Lv. 5
-古代机械回旋镖强化3#1,1#古代机械回旋镖强化2,1#[$tagrole:level$][&gt;=]10&amp;[$tagplace:stat=ps_古代机械:建设MOD主城$][&gt;=]1#Requires character Lv. 10 and a Lv. 1 Library in your main camp
-古代机械枪#2,3#古代机械回旋镖,1#[$tagrole:level$][&gt;=]5#Requires character Lv. 5
-古代机械枪强化1#2,4#古代机械枪,1
-古代机械枪强化2#2,5#古代机械枪,1#[$tagplace:stat=ps_古代机械:建设MOD主城$][&gt;=]1#Requires a Lv. 1 Library in your main camp
-古代机械枪强化3#2,2#古代机械枪强化1,1#[$tagrole:level$][&gt;=]12&amp;[$tagplace:stat=ps_古代机械:建设MOD主城$][&gt;=]2#Requires character Lv. 12 and a Lv. 2 Library in your main camp
-古代机械机关箭塔#3,3#古代机械枪,1#[$tagrole:level$][&gt;=]8&amp;[$tagplace:stat=ps_古代机械:建设MOD主城$][&gt;=]1#Requires character Lv. 8 and a Lv. 1 Library in your main camp
-古代机械机关箭塔强化1#4,3#古代机械机关箭塔,1
-古代机械机关箭塔强化2#4,4#古代机械机关箭塔强化1,1#[$tagplace:stat=ps_古代机械:建设MOD主城$][&gt;=]2#Requires a Lv. 2 Library in your main camp
-古代机械机关箭塔强化3#4,5#古代机械机关箭塔强化2,1#[$tagplace:stat=ps_古代机械:建设MOD主城$][&gt;=]3#Requires a Lv. 3 Library in your main camp
-古代机械攻城车#5,3#古代机械机关箭塔,1#[$tagrole:level$][&gt;=]12&amp;[$tagplace:stat=ps_古代机械:建设MOD主城$][&gt;=]2#Requires character Lv. 12 and a Lv. 2 Library in your main camp
-古代机械攻城车强化1#5,2#古代机械攻城车,1
-古代机械攻城车强化2#5,4#古代机械攻城车强化1,1#[$tagrole:level$][&gt;=]15&amp;[$tagplace:stat=ps_古代机械:建设MOD主城$][&gt;=]3#Requires character Lv. 15 and a Lv. 3 Library in your main camp
-古代机械征服#5,5#古代机械攻城车强化2,1#[$tagrole:level$][&gt;=]15&amp;[$tagplace:stat=ps_古代机械:建设MOD主城$][&gt;=]3#Requires character Lv. 15 and a Lv. 3 Library in your main camp</t>
   </si>
   <si>
     <t>Livro de Fogo</t>
@@ -2604,613 +2111,100 @@
 心灵巫术心魔震爆提升3#5,6#心灵巫术心魔震爆提升2,1</t>
   </si>
   <si>
-    <t>心灵巫术恐惧魔弹#1,3
-心灵巫术恐惧魔弹提升3#1,4#心灵巫术恐惧魔弹,1
-心灵巫术恐惧魔弹提升1#1,2#心灵巫术恐惧魔弹,1
-心灵巫术恐惧魔弹提升2#1,1#心灵巫术恐惧魔弹提升1,1
-心灵巫术蛊惑#2,3#心灵巫术恐惧魔弹,1#[$tagrole:level$][&gt;=]5#Requires character Lv. 5
-心灵巫术蛊惑提升1#2,4#心灵巫术蛊惑,1
-心灵巫术蛊惑提升2#2,2#心灵巫术蛊惑,1
-心灵巫术蛊惑提升3#2,1#心灵巫术蛊惑提升2,1
-心灵巫术魅影#3,3#心灵巫术蛊惑,1#[$tagrole:level$][&gt;=]8#Requires character Lv. 8
-心灵巫术魅影提升1#3,2#心灵巫术魅影,1
-心灵巫术魅影提升2#3,1#心灵巫术魅影提升1,1
-心灵巫师心灵扼制#4,3#心灵巫术魅影,1#[$tagrole:level$][&gt;=]10#Requires character Lv. 10
-心灵巫师心灵扼制提升1#4,2#心灵巫师心灵扼制,1
-心灵巫师心灵扼制提升2#4,1#心灵巫师心灵扼制提升1,1
-心灵巫术心魔回收#4,4#心灵巫师心灵扼制,1#[$tagrole:level$][&gt;=]10#Requires character Lv. 10
-心灵巫术心魔震爆#5,3#心灵巫师心灵扼制,1#[$tagrole:level$][&gt;=]15#Requires character Lv. 15
-心灵巫术心魔震爆提升1#5,4#心灵巫术心魔震爆,1
-心灵巫术心魔震爆提升2#5,5#心灵巫术心魔震爆提升1,1
-心灵巫术心魔震爆提升3#5,6#心灵巫术心魔震爆提升2,1</t>
-  </si>
-  <si>
     <t>Esgrima: Corsário</t>
   </si>
   <si>
-    <t>剑豪三段斩#1,1
-剑豪三段斩升华1#2,1#剑豪三段斩,1
-剑豪疾影步#3,1
-剑豪疾影步升华2#4,1#剑豪疾影步,1
-剑豪破空落刃#1,3
-剑豪破空落刃升华1#2,3#剑豪破空落刃,1
-剑豪破空落刃升华2#3,3#剑豪破空落刃升华1,1
-剑豪分影斩#4,2##[$tagrole:level$][&gt;=]3#Requires character Lv. 3
-剑豪分影斩升华1#5,2#剑豪分影斩,1
-剑豪见切#4,3##[$tagrole:level$][&gt;=]6#Requires character Lv. 6
-剑豪见切升华#5,3#剑豪见切,1
-剑豪寒牙突#5,1##[$tagrole:level$][&gt;=]9#Requires character Lv. 9
-剑豪寒牙突升华1#7,1#剑豪寒牙突,1
-剑豪真蓄斩#5,4##[$tagrole:level$][&gt;=]9#Requires character Lv. 9
-剑豪真蓄斩提升真蓄闪#6,4#剑豪真蓄斩,1
-剑豪心眼#1,2
-剑豪心眼提升#3,2#剑豪心眼,1
-剑豪行云流水#2,4
-剑豪行云流水提升#4,4#剑豪行云流水,1
-剑豪天霸摧星#6,2##[$tagrole:level$][&gt;=]12#Requires character Lv. 12
-剑豪天霸摧星升华1#7,2#剑豪天霸摧星,1
-剑豪极我流#7,3##[$tagrole:level$][&gt;=]15#Requires character Lv. 15</t>
-  </si>
-  <si>
     <t>Briga</t>
   </si>
   <si>
-    <t>NEW心灵魔弹#1,1
-NEW心灵魔弹提升#2,1#NEW心灵魔弹,3
-NEW心灵魔弹强化#4,1#NEW心灵魔弹提升,1
-NEW心灵魔弹升华#5,1#NEW心灵魔弹强化,1
-NEW心灵巫术穿透#6,1##[$tagrole:level$][&gt;=]9#Requires character Lv. 9
-NEW心灵时空裂隙#2,2##[$tagrole:level$][&gt;=]6#Requires character Lv. 6
-NEW心灵时空裂隙提升#3,2#NEW心灵时空裂隙,1
-NEW心灵时空裂隙强化#5,2#NEW心灵时空裂隙提升,1
-NEW心灵超导#6,2##[$tagrole:level$][&gt;=]12#Requires character Lv. 12
-NEW心灵魔影召唤#1,3##[$tagrole:level$][&gt;=]3#Requires character Lv. 3
-NEW心灵魔影强化#3,3#NEW心灵魔影召唤,3
-NEW心灵狂热魔影#4,3#NEW心灵魔影强化,1
-NEW心灵震爆#5,3##[$tagrole:level$][&gt;=]9#Requires character Lv. 9
-NEW心灵震爆提升#6,3#NEW心灵震爆,3
-NEW心灵冷却缩减#1,4##[$tagrole:level$][&gt;=]3#Requires character Lv. 3
-NEW心灵气力提升#2,4##[$tagrole:level$][&gt;=]6#Requires character Lv. 6
-NEW心灵导师#3,4##[$tagrole:level$][&gt;=]8#Requires character Lv. 8
-NEW心灵之雷#4,4##[$tagrole:level$][&gt;=]9#Requires character Lv. 9
-NEW心灵之雷提升#5,4#NEW心灵之雷,3
-NEW心灵之雷强化#6,4#NEW心灵之雷提升,1
-NEW心灵大师#7,2##[$tagrole:level$][&gt;=]12#Requires character Lv. 12
-NEW心灵魔甲#7,4##[$tagrole:level$][&gt;=]20#Requires character Lv. 20</t>
-  </si>
-  <si>
-    <t>NEW赏金猎人赏金狂热#1,1
-NEW赏金猎人赏金狂热提升#2,1#NEW赏金猎人赏金狂热,3
-NEW赏金猎人赏金狂热强化#4,1#NEW赏金猎人赏金狂热提升,1
-NEW赏金猎人识破弱点#5,1#NEW赏金猎人赏金狂热强化,1
-NEW赏金猎人绝命谈判#1,4##[$tagrole:level$][&gt;=]3#Requires character Lv. 3
-NEW赏金猎人开火#3,4#NEW赏金猎人绝命谈判,3
-NEW赏金猎人残忍无情#5,4#NEW赏金猎人开火,1
-NEW赏金猎人烟雾弹#2,2##[$tagrole:level$][&gt;=]6#Requires character Lv. 6
-NEW赏金猎人烟雾弹治疗烟雾#3,2#NEW赏金猎人烟雾弹,3
-NEW赏金猎人烟雾弹延迟火药#5,2#NEW赏金猎人烟雾弹治疗烟雾,1
-NEW赏金猎人狩猎快感#6,2#NEW赏金猎人烟雾弹延迟火药,1
-NEW赏金指挥#2,3##[$tagrole:level$][&gt;=]8#Requires character Lv. 8
-NEW赏金猎人赏金标记#3,3##[$tagrole:level$][&gt;=]9#Requires character Lv. 9
-NEW赏金猎人撕裂伤口#4,3#NEW赏金猎人赏金标记,1
-NEW赏金快刃#5,3##[$tagrole:level$][&gt;=]12#Requires character Lv. 12
-NEW赏金精心准备#6,3#NEW赏金快刃,3
-NEW赏金巫术回刃#7,3#NEW赏金精心准备,1</t>
-  </si>
-  <si>
-    <t>NEW圣灵破邪斩#1,1
-NEW圣灵强力破邪斩#2,1#NEW圣灵破邪斩,3
-NEW圣灵驱魔之剑#4,1#NEW圣灵强力破邪斩,1
-NEW圣灵圣灵铠甲#5,1#NEW圣灵驱魔之剑,1
-NEW圣灵刀刃之环#1,3
-NEW圣灵圣甲之环#2,3##[$tagrole:level$][&gt;=]3#Requires character Lv. 3
-NEW圣灵冷静之环#3,3##[$tagrole:level$][&gt;=]6#Requires character Lv. 6
-NEW圣灵之盾#3,4##[$tagrole:level$][&gt;=]6#Requires character Lv. 8
-NEW圣灵激战之环#4,3##[$tagrole:level$][&gt;=]12#Requires character Lv. 12
-NEW圣灵审判#3,2##[$tagrole:level$][&gt;=]9#Requires character Lv. 9
-NEW圣灵先祖审判#5,2#NEW圣灵审判,3
-NEW圣灵光环大师#6,2##[$tagrole:level$][&gt;=]12#Requires character Lv. 12
-NEW圣灵圣灵护佑#5,3##[$tagrole:level$][&gt;=]12#Requires character Lv. 12
-NEW圣灵虔诚之辉#5,4##[$tagrole:level$][&gt;=]12#Requires character Lv. 12
-NEW圣灵圣剑加持#6,3##[$tagrole:level$][&gt;=]15#Requires character Lv. 15
-NEW圣剑光辉#7,3#NEW圣灵圣剑加持,1</t>
-  </si>
-  <si>
-    <t>NEW野性之魂扑击#1,1
-NEW野性之魂撕咬#1,2
-NEW野性之魂狂野生长#1,3##[$tagrole:level$][&gt;=]5#Requires character Lv. 5
-NEW野性之魂魔狼形态#2,1##[$tagrole:level$][&gt;=]3#Requires character Lv. 3
-NEW野性之魂魔狼之啮#3,1#NEW野性之魂魔狼形态,1
-NEW野性之魂狼性之魂#4,1#NEW野性之魂魔狼之啮,1
-NEW野性之魂魔狼形态极#6,1#NEW野性之魂狼性之魂,3#[%get_es:野兽血脉选择魔狼极成功%][&lt;&gt;]-1#Unlock and choose to study the Canis Form in story mode, then beat its challenge
-NEW野性之魂蜘蛛形态#2,2##[$tagrole:level$][&gt;=]6#Requires character Lv. 6
-NEW野性之魂吸血蜘蛛#3,2#NEW野性之魂蜘蛛形态,1
-NEW野性之魂蜘蛛之魂#4,2#NEW野性之魂吸血蜘蛛,1
-NEW野性之魂蜘蛛形态极#6,2#NEW野性之魂蜘蛛之魂,3#[%get_es:野兽血脉选择蜘蛛极成功%][&lt;&gt;]-1#Unlock and choose to study the Spider Form in story mode, then beat its challenge
-NEW野性之魂变形精通#1,4##[$tagrole:level$][&gt;=]6#Requires character Lv. 6
-NEW野性之魂巨鹰形态#2,3##[$tagrole:level$][&gt;=]9#Requires character Lv. 9
-NEW野性之巨鹰优雅#3,3#NEW野性之魂巨鹰形态,1
-NEW野性之魂巨鹰之魂#4,3#NEW野性之巨鹰优雅,1
-NEW野性之魂巨鹰形态极#6,3#NEW野性之魂巨鹰之魂,3#[%get_es:野兽血脉选择巨鹰极成功%][&lt;&gt;]-1#Unlock and choose to study the Great Eagle Form in story mode, then beat its challenge
-NEW野性之自然魔晶#2,4##[$tagrole:level$][&gt;=]10#Requires character Lv. 10
-NEW野性之魂变形大师#7,2##[$tagrole:level$][&gt;=]20#Requires character Lv. 20
-NEW野性之魂巨龙形态#3,4##[%get_es:野兽血脉主线913%][&lt;&gt;]-1#Unlock and choose to study the Drake Form in story mode, then beat its challenge
-NEW野性之巨龙威严#4,4#NEW野性之魂巨龙形态,1
-NEW野性之魂巨龙之魂#5,4#NEW野性之巨龙威严,1
-NEW野性之魂巨龙形态极#6,4#NEW野性之魂巨龙之魂,3#[%get_es:野兽血脉选择巨龙极成功%][&lt;&gt;]-1#Unlock and choose to study the Drake Form in story mode, then beat its challenge
-NEW野性之魂野性杀戮#7,4##[$tagrole:level$][&gt;=]12#Requires character Lv. 12</t>
-  </si>
-  <si>
-    <t>NEW野性之魂扑击#1,1
-NEW野性之魂撕咬#1,2
-NEW野性之魂狂野生长#1,3##[$tagrole:level$][&gt;=]5#Requires character Lv. 5
-NEW野性之魂魔狼形态#2,1##[$tagrole:level$][&gt;=]3#Requires character Lv. 3
-NEW野性之魂魔狼之啮#3,1#NEW野性之魂魔狼形态,1
-NEW野性之魂狼性之魂#4,1#NEW野性之魂魔狼之啮,1
-NEW野性之魂蜘蛛形态#2,2##[$tagrole:level$][&gt;=]6#Requires character Lv. 6
-NEW野性之魂吸血蜘蛛#3,2#NEW野性之魂蜘蛛形态,1
-NEW野性之魂蜘蛛之魂#4,2#NEW野性之魂吸血蜘蛛,1
-NEW野性之魂变形精通#1,4##[$tagrole:level$][&gt;=]6#Requires character Lv. 6
-NEW野性之魂巨鹰形态#2,3##[$tagrole:level$][&gt;=]9#Requires character Lv. 9
-NEW野性之巨鹰优雅#3,3#NEW野性之魂巨鹰形态,1
-NEW野性之魂巨鹰之魂#4,3#NEW野性之巨鹰优雅,1
-NEW野性之魂变形大师#7,2##[$tagrole:level$][&gt;=]20#Requires character Lv. 20
-NEW野性之魂巨龙形态#3,4##[$tagrole:level$][&gt;=]20#Requires character Lv. 20
-NEW野性之巨龙威严#4,4#NEW野性之魂巨龙形态,1
-NEW野性之魂巨龙之魂#5,4#NEW野性之巨龙威严,1
-NEW野性之魂野性杀戮#7,4##[$tagrole:level$][&gt;=]12#Requires character Lv. 12</t>
-  </si>
-  <si>
-    <t>NEW心灵女巫恐惧魔弹#1,1
-NEW心灵女巫恐惧魔弹提升#3,1#NEW心灵女巫恐惧魔弹,3
-NEW心灵女巫恐惧魔弹强化#4,1#NEW心灵女巫恐惧魔弹提升,1
-NEW心灵女巫蛊惑#1,3##[$tagrole:level$][&gt;=]3#Requires character Lv. 3
-NEW心灵女巫蛊惑提升#3,3#NEW心灵女巫蛊惑,3
-NEW心灵女巫蛊惑强化#4,3#NEW心灵女巫蛊惑提升,1
-NEW心灵女巫魅影#5,2##[$tagrole:level$][&gt;=]12#Requires character Lv. 12
-NEW心灵女巫魅影提升#6,2#NEW心灵女巫魅影,3
-NEW心灵女巫魅影强化#7,2#NEW心灵女巫魅影提升,1
-NEW心灵女巫心灵扼制#2,2##[$tagrole:level$][&gt;=]6#Requires character Lv. 6
-NEW心灵女巫心灵扼制提升#4,2#NEW心灵女巫心灵扼制,3
-NEW心灵女巫心魔震爆#5,1##[$tagrole:level$][&gt;=]9#Requires character Lv. 9
-NEW心灵女巫心灵冷却#5,4##[$tagrole:level$][&gt;=]9#Requires character Lv. 9
-NEW心灵女巫心灵气力#2,4##[$tagrole:level$][&gt;=]6#Requires character Lv. 6
-NEW女巫秘术#3,4##[$tagrole:level$][&gt;=]8#Requires character Lv. 8
-NEW心灵女巫心魔回收#5,3##[$tagrole:level$][&gt;=]9#Requires character Lv. 9
-NEW心灵女巫终场演出#7,3#NEW心灵女巫心魔回收,3#[$tagrole:level$][&gt;=]15#Requires character Lv. 15</t>
-  </si>
-  <si>
-    <t>NEW蛮力战士狂暴状态#1,1
-NEW蛮力战士狂暴状态强化1#1,2#NEW蛮力战士狂暴状态,1
-NEW蛮力战士狂暴状态强化2#1,3#NEW蛮力战士狂暴状态强化1,1#[$tagrole:level$][&gt;=]4#Requires character Lv. 4
-NEW蛮力战士狂暴状态强化3#1,4#NEW蛮力战士狂暴状态强化2,1#[$tagrole:level$][&gt;=]8#Requires character Lv. 8
-NEW蛮力战士狂暴状态强化4#2,4#NEW蛮力战士狂暴状态强化3,1#[$tagrole:level$][&gt;=]12#Requires character Lv. 12
-NEW蛮力征服#2,1
-NEW蛮力战士斗殴专精#4,1
-NEW蛮力战士斗殴大师#5,1#NEW蛮力战士斗殴专精,1#[$tagrole:level$][&gt;=]3#Requires character Lv. 3
-NEW蛮力战士气震波#7,1#NEW蛮力战士斗殴大师,1#[$tagrole:level$][&gt;=]9#Requires character Lv. 9
-NEW蛮力战士劈砍专精#4,2
-NEW蛮力战士劈砍大师#5,2#NEW蛮力战士劈砍专精,1#[$tagrole:level$][&gt;=]3#Requires character Lv. 3
-NEW蛮力战士锋刃#7,2#NEW蛮力战士劈砍大师,1#[$tagrole:level$][&gt;=]9#Requires character Lv. 9
-NEW蛮力战士钝击专精#4,3
-NEW蛮力战士钝击大师#5,3#NEW蛮力战士钝击专精,1#[$tagrole:level$][&gt;=]3#Requires character Lv. 3
-NEW蛮力战士锤击#7,3#NEW蛮力战士钝击大师,1#[$tagrole:level$][&gt;=]9#Requires character Lv. 9
-NEW蛮力战士穿刺专精#4,4
-NEW蛮力战士穿刺大师#5,4#NEW蛮力战士穿刺专精,1#[$tagrole:level$][&gt;=]3#Requires character Lv. 3
-NEW蛮力战士穿甲精通#7,4#NEW蛮力战士穿刺大师,1#[$tagrole:level$][&gt;=]9#Requires character Lv. 9</t>
-  </si>
-  <si>
-    <t>NEW古代机械枪#1,1
-NEW古代机械枪强化1#3,1#NEW古代机械枪,3#[$tagplace:stat=ps_古代机械:建设MOD主城$][&gt;=]1#Requires a Lv. 1 Library in your main camp
-NEW古代机械枪强化2#4,1#NEW古代机械枪强化1,1#[$tagplace:stat=ps_古代机械:建设MOD主城$][&gt;=]2#Requires a Lv. 2 Library in your main camp
-NEW古代机械机关箭塔#3,3##[$tagrole:level$][&gt;=]8#Requires character Lv. 8
-NEW古代机械机关箭塔强化1#5,3#NEW古代机械机关箭塔,3#[$tagplace:stat=ps_古代机械:建设MOD主城$][&gt;=]1#Requires a Lv. 1 Library in your main camp
-NEW古代机械机关箭塔强化2#6,3#NEW古代机械机关箭塔强化1,1#[$tagplace:stat=ps_古代机械:建设MOD主城$][&gt;=]2#Requires a Lv. 2 Library in your main camp
-NEW古代机械机关箭塔强化3#7,3#NEW古代机械机关箭塔强化2,1#[$tagplace:stat=ps_古代机械:建设MOD主城$][&gt;=]3#Requires a Lv. 3 Library in your main camp
-NEW古代机械回旋镖#1,4
-NEW古代机械回旋镖强化1#2,4#NEW古代机械回旋镖,3#[$tagplace:stat=ps_古代机械:建设MOD主城$][&gt;=]1#Requires a Lv. 1 Library in your main camp
-NEW古代机械回旋镖强化2#3,4#NEW古代机械回旋镖强化1,1#[$tagplace:stat=ps_古代机械:建设MOD主城$][&gt;=]2#Requires a Lv. 2 Library in your main camp
-NEW古代机械攻城车#4,4##[$tagrole:level$][&gt;=]10&amp;[$tagplace:stat=ps_古代机械:建设MOD主城$][&gt;=]2#Requires character Lv. 10 and a Lv. 2 Library in your main camp
-NEW古代机械攻城车强化1#5,4#NEW古代机械攻城车,3#[$tagplace:stat=ps_古代机械:建设MOD主城$][&gt;=]2#Requires a Lv. 2 Library in your main camp
-NEW古代机械攻城车强化2#6,4#NEW古代机械攻城车强化1,1#[$tagplace:stat=ps_古代机械:建设MOD主城$][&gt;=]3#Requires a Lv. 3 Library in your main camp
-NEW古代机械攻城车强化3#7,4#NEW古代机械攻城车强化2,1#[$tagplace:stat=ps_古代机械:建设MOD主城$][&gt;=]3#Requires a Lv. 3 Library in your main camp
-NEW古代机械战旗#2,3##[$tagrole:level$][&gt;=]6#Requires character Lv. 6
-NEW古代机械盾#6,1##[$tagrole:level$][&gt;=]12&amp;[$tagplace:stat=ps_古代机械:建设MOD主城$][&gt;=]2#Requires character Lv. 12 and a Lv. 2 Library in your main camp
-NEW古代机械护甲改装#2,2##[$tagrole:level$][&gt;=]5#Requires character Lv. 5
-NEW古代机械兵器改装#4,2#NEW古代机械护甲改装,1#[$tagrole:level$][&gt;=]9&amp;[$tagplace:stat=ps_古代机械:建设MOD主城$][&gt;=]1#Requires character Lv. 9 and a Lv. 1 Library in your main camp
-NEW古代机械手弩武装#5,2#NEW古代机械兵器改装,1#[$tagrole:level$][&gt;=]13&amp;[$tagplace:stat=ps_古代机械:建设MOD主城$][&gt;=]2#Requires character Lv. 13 and a Lv. 2 Library in your main camp
-NEW古代机械天神军装#7,2#NEW古代机械手弩武装,1#[$tagrole:level$][&gt;=]17&amp;[$tagplace:stat=ps_古代机械:建设MOD主城$][&gt;=]3#Requires character Lv. 17 and a Lv. 3 Library in your main camp</t>
-  </si>
-  <si>
     <t>Lâmina do Vento Selvagem</t>
   </si>
   <si>
-    <t>T狂风落#1,2
-T气旋斩#3,2#T狂风落,1#[$tagrole:level$][&gt;=]3#Requires character Lv. 3
-T飓风舞#5,2#T气旋斩,1#[$tagrole:level$][&gt;=]6#Requires character Lv. 6
-T剑术精通狂风#1,3
-T轻舞#2,3##[$tagrole:level$][&gt;=]3#Requires character Lv. 3</t>
-  </si>
-  <si>
     <t>Esgrima da Corte</t>
   </si>
   <si>
-    <t>T疾突剑#1,2
-T秘法剑#3,2#T疾突剑,1#[$tagrole:level$][&gt;=]3#Requires character Lv. 3
-T光冕剑#5,2#T秘法剑,1#[$tagrole:level$][&gt;=]6#Requires character Lv. 6
-T剑术精通宫廷#1,3
-T王者之气#3,3##[$tagrole:level$][&gt;=]6#Requires character Lv. 6
-T宫廷剑使#5,3##[$tagrole:level$][&gt;=]9#Requires character Lv. 9</t>
-  </si>
-  <si>
     <t>Esgrima do Viajante</t>
   </si>
   <si>
-    <t>T气刃剑#1,2
-T柄击#3,2#T气刃剑,1#[$tagrole:level$][&gt;=]3#Requires character Lv. 3
-T天煞#5,2#T柄击,1#[$tagrole:level$][&gt;=]6#Requires character Lv. 6
-T剑术精通游民#1,3
-T生存之道#3,3##[$tagrole:level$][&gt;=]3#Requires character Lv. 3
-T狡诈#5,3##[$tagrole:level$][&gt;=]9#Requires character Lv. 9</t>
-  </si>
-  <si>
-    <t>T狂暴斩#1,2
-T吸血刃#3,2#T狂暴斩,1#[$tagrole:level$][&gt;=]3#Requires character Lv. 3
-T月夜魔刃#5,2#T吸血刃,1#[$tagrole:level$][&gt;=]6#Requires character Lv. 6
-T刀术精通嗜血#1,3
-T饮血#2,3##[$tagrole:level$][&gt;=]6#Requires character Lv. 6</t>
-  </si>
-  <si>
-    <t>T火刃#1,2
-T焰闪#3,2#T火刃,1#[$tagrole:level$][&gt;=]3#Requires character Lv. 3
-T灰烬#5,2#T焰闪,1#[$tagrole:level$][&gt;=]6#Requires character Lv. 6
-T刀术精通野火#1,3
-T附炎#2,3##[$tagrole:level$][&gt;=]6#Requires character Lv. 6</t>
-  </si>
-  <si>
-    <t>T抡击#1,2
-T震击#3,2#T抡击,1#[$tagrole:level$][&gt;=]3#Requires character Lv. 3
-T冲击波#5,2#T震击,1#[$tagrole:level$][&gt;=]6#Requires character Lv. 6
-T锤术精通铁匠#1,3
-T冶铁学#3,3##[$tagrole:level$][&gt;=]3#Requires character Lv. 3
-T体魄强化#5,3##[$tagrole:level$][&gt;=]6#Requires character Lv. 6</t>
-  </si>
-  <si>
     <t>Choque de Brasas</t>
   </si>
   <si>
-    <t>T动力跳跃#1,2
-T动力横扫#3,2#T动力跳跃,1#[$tagrole:level$][&gt;=]3#Requires character Lv. 3
-T动力脉冲#5,2#T动力横扫,1#[$tagrole:level$][&gt;=]6#Requires character Lv. 6
-T锤术精通赫炎#1,3
-T赫炎动力装置#3,3##[$tagrole:level$][&gt;=]3#Requires character Lv. 3
-T赫炎应急装置#5,3#T赫炎动力装置,1#[$tagrole:level$][&gt;=]9#Requires character Lv. 9</t>
-  </si>
-  <si>
     <t>Arte do Açougueiro</t>
   </si>
   <si>
-    <t>T放血#1,2
-T分裂#3,2#T放血,1#[$tagrole:level$][&gt;=]3#Requires character Lv. 3
-T收割#5,2#T分裂,1#[$tagrole:level$][&gt;=]6#Requires character Lv. 6
-T双手精通屠夫#1,3
-T屠夫#2,3##[$tagrole:level$][&gt;=]6#Requires character Lv. 6</t>
-  </si>
-  <si>
     <t>Caminho do Dhib</t>
   </si>
   <si>
-    <t>T跳劈#1,2
-T突进斩#3,2#T跳劈,1#[$tagrole:level$][&gt;=]3#Requires character Lv. 3
-T双手精通雪岭#1,3
-T破甲精通#3,3##[$tagrole:level$][&gt;=]5#Requires character Lv. 5
-T快步#5,3##[$tagrole:level$][&gt;=]8#Requires character Lv. 8</t>
-  </si>
-  <si>
-    <t>T刺击#1,2
-T三连刺#3,2#T刺击,1#[$tagrole:level$][&gt;=]3#Requires character Lv. 3
-T狂风#5,2#T三连刺,1#[$tagrole:level$][&gt;=]6#Requires character Lv. 6
-T长柄精通枪术#1,3
-T尖锐枪头#2,3##[$tagrole:level$][&gt;=]6#Requires character Lv. 6</t>
-  </si>
-  <si>
     <t>Guerra de Akhal</t>
   </si>
   <si>
-    <t>T突击#1,2
-T枪影坠#3,2#T突击,1#[$tagrole:level$][&gt;=]3#Requires character Lv. 3
-T天崩地裂#5,2#T枪影坠,1#[$tagrole:level$][&gt;=]6#Requires character Lv. 6
-T长柄精通荒沙#1,3
-T脆弱光环#2,3##[$tagrole:level$][&gt;=]9#Requires character Lv. 9</t>
-  </si>
-  <si>
-    <t>T冲锋#1,2
-T钩锁突进#3,2#T冲锋,1#[$tagrole:level$][&gt;=]5#Requires character Lv. 5
-T铁肺#1,3
-T强臂#3,3##[$tagrole:level$][&gt;=]5#Requires character Lv. 5
-T避雨#5,3##[$tagrole:level$][&gt;=]8#Requires character Lv. 8</t>
-  </si>
-  <si>
-    <t>T盾击#1,2
-T嘲讽#3,2#T盾击,1#[$tagrole:level$][&gt;=]4#Requires character Lv. 4
-T霸体#5,2#T嘲讽,1#[$tagrole:level$][&gt;=]8#Requires character Lv. 8
-T护卫精通#1,3##[$tagrole:level$][&gt;=]3#Requires character Lv. 3
-T白刃精通#2,3#T护卫精通,1#[$tagrole:level$][&gt;=]9#Requires character Lv. 9</t>
-  </si>
-  <si>
     <t>Astúcia do Gigante</t>
   </si>
   <si>
-    <t>T践踏#1,2
-T巨人降临#3,2#T践踏,1#[$tagrole:level$][&gt;=]5#Requires character Lv. 5
-T生命强化#1,3
-T巨人气质#3,3#T生命强化,1#[$tagrole:level$][&gt;=]5#Requires character Lv. 5
-T巨人化#5,3#T巨人气质,1#[$tagrole:level$][&gt;=]10#Requires character Lv. 10</t>
-  </si>
-  <si>
     <t>Lâmina Sombria</t>
   </si>
   <si>
-    <t>T雾遁#1,2
-T背刺#3,2#T雾遁,1#[$tagrole:level$][&gt;=]5#Requires character Lv. 5
-T轻甲穿透#1,3
-T弱点识破#3,3##[$tagrole:level$][&gt;=]5#Requires character Lv. 5
-T残忍#5,3##[$tagrole:level$][&gt;=]8#Requires character Lv. 8</t>
-  </si>
-  <si>
     <t>Arte da Luta</t>
   </si>
   <si>
-    <t>T狂野打击#1,2
-T双重打击#3,2#T狂野打击,1#[$tagrole:level$][&gt;=]3#Requires character Lv. 3
-T咆哮#5,2##[$tagrole:level$][&gt;=]6#Requires character Lv. 6
-T战斗快感#1,3##[$tagrole:level$][&gt;=]3#Requires character Lv. 3
-T不懈斗志#3,3##[$tagrole:level$][&gt;=]6#Requires character Lv. 6</t>
-  </si>
-  <si>
     <t>Arquearia Real</t>
   </si>
   <si>
-    <t>T穿云#1,2
-T五枝#3,2#T穿云,1#[$tagrole:level$][&gt;=]3#Requires character Lv. 3
-T火箭雨#5,2#T五枝,1#[$tagrole:level$][&gt;=]6#Requires character Lv. 6
-T弓箭精通皇家#1,3
-T全神贯注#3,3##[$tagrole:level$][&gt;=]6#Requires character Lv. 6</t>
-  </si>
-  <si>
     <t>Ranger da Selva</t>
   </si>
   <si>
-    <t>T追踪矢#1,2
-T破退矢#3,2#T追踪矢,1#[$tagrole:level$][&gt;=]3#Requires character Lv. 3
-T深呼吸#5,2#T破退矢,1#[$tagrole:level$][&gt;=]6#Requires character Lv. 6
-T弓箭精通荒野#1,3
-T游侠之道#3,3##[$tagrole:level$][&gt;=]8#Requires character Lv. 8
-T割裂箭头#5,3##[$tagrole:level$][&gt;=]8#Requires character Lv. 8</t>
-  </si>
-  <si>
     <t>Caça</t>
   </si>
   <si>
-    <t>T定身击#1,2
-T刀锋扇#3,2#T定身击,1#[$tagrole:level$][&gt;=]4#Requires character Lv. 4
-T猎杀开始#5,2#T刀锋扇,1#[$tagrole:level$][&gt;=]8#Requires character Lv. 8
-T狩猎精通#1,3##[$tagrole:level$][&gt;=]6#Requires character Lv. 6</t>
-  </si>
-  <si>
     <t>Escaramuça</t>
   </si>
   <si>
-    <t>T遁入阴影#1,2
-T烟雾弹#3,2#T遁入阴影,1#[$tagrole:level$][&gt;=]3#Requires character Lv. 3
-T暗影镖#5,2#T烟雾弹,1#[$tagrole:level$][&gt;=]6#Requires character Lv. 6
-T闪避精通#1,3##[$tagrole:level$][&gt;=]3#Requires character Lv. 3
-T埋伏#3,3#T闪避精通,1#[$tagrole:level$][&gt;=]6#Requires character Lv. 6</t>
-  </si>
-  <si>
     <t>Veneno Praticado</t>
   </si>
   <si>
-    <t>T毒针#1,2
-T毒剂瓶#3,2#T毒针,1#[$tagrole:level$][&gt;=]4#Requires character Lv. 4
-T淬毒#5,2#T毒剂瓶,1#[$tagrole:level$][&gt;=]8#Requires character Lv. 8
-T毒之裁决#1,3
-T毒系免疫#3,3##[$tagrole:level$][&gt;=]8#Requires character Lv. 8</t>
-  </si>
-  <si>
     <t>Armas de Brasas</t>
   </si>
   <si>
-    <t>T火焰喷射#1,2
-T武装爆裂#3,2#T火焰喷射,1#[$tagrole:level$][&gt;=]5#Requires character Lv. 5
-T赫炎装备#1,3##[$tagrole:level$][&gt;=]3#Requires character Lv. 3
-T机动装置#3,3##[$tagrole:level$][&gt;=]6#Requires character Lv. 6</t>
-  </si>
-  <si>
     <t>Arte Marcial</t>
   </si>
   <si>
-    <t>T战场恢复#1,2
-T放松#3,2##[$tagrole:level$][&gt;=]5#Requires character Lv. 5
-T体魄锻炼#1,3
-T肌肉强化#3,3##[$tagrole:level$][&gt;=]4#Requires character Lv. 4
-T身经百战#5,3##[$tagrole:level$][&gt;=]8#Requires character Lv. 8</t>
-  </si>
-  <si>
     <t>Arcana de Fogo</t>
   </si>
   <si>
-    <t>T火球术#1,2##[$tagrole:statu_int=magic_talent$][&gt;=]1#Requires Basic Arcana talent
-T火舌图腾#3,2#T火球术,1#[$tagrole:level$][&gt;=]4&amp;[$tagrole:statu_int=magic_talent$][&gt;=]2#Requires character Lv. 4 and Advanced Arcana talent
-T火葬柴堆#5,2#T火舌图腾,1#[$tagrole:level$][&gt;=]8&amp;[$tagrole:statu_int=magic_talent$][&gt;=]3#Requires character Lv. 8 and Master Arcana talent
-T巫术精通火#1,3##[$tagrole:level$][&gt;=]6&amp;[$tagrole:statu_int=magic_talent$][&gt;=]2#Requires character Lv. 6 and Advanced Arcana talent
-T烈焰护罩#3,3##[$tagrole:level$][&gt;=]10&amp;[$tagrole:statu_int=magic_talent$][&gt;=]3#Requires character Lv. 10 and Master Arcana talent</t>
-  </si>
-  <si>
     <t>Arcana de Gelo</t>
   </si>
   <si>
-    <t>T霜冻#1,2##[$tagrole:statu_int=magic_talent$][&gt;=]1#Requires Basic Arcana talent
-T冰矛#3,2#T霜冻,1#[$tagrole:level$][&gt;=]4&amp;[$tagrole:statu_int=magic_talent$][&gt;=]2#Requires character Lv. 4 and Advanced Arcana talent
-T暴风雪#5,2#T冰矛,1#[$tagrole:level$][&gt;=]8&amp;[$tagrole:statu_int=magic_talent$][&gt;=]3#Requires character Lv. 8 and Master Arcana talent
-T巫术精通冰#1,3##[$tagrole:level$][&gt;=]6&amp;[$tagrole:statu_int=magic_talent$][&gt;=]2#Requires character Lv. 6 and Advanced Arcana talent
-T寒冰光环#3,3##[$tagrole:level$][&gt;=]10&amp;[$tagrole:statu_int=magic_talent$][&gt;=]3#Requires character Lv. 10 and Master Arcana talent</t>
-  </si>
-  <si>
     <t>Arcana de Raios</t>
   </si>
   <si>
-    <t>T雷光#1,2##[$tagrole:statu_int=magic_talent$][&gt;=]1#Requires Basic Arcana talent
-T风灵冲击#3,2#T雷光,1#[$tagrole:level$][&gt;=]4&amp;[$tagrole:statu_int=magic_talent$][&gt;=]2#Requires character Lv. 4 and Advanced Arcana talent
-T链状闪电#5,2#T风灵冲击,1#[$tagrole:level$][&gt;=]8&amp;[$tagrole:statu_int=magic_talent$][&gt;=]3#Requires character Lv. 8 and Master Arcana talent
-T巫术精通雷#1,3##[$tagrole:level$][&gt;=]6&amp;[$tagrole:statu_int=magic_talent$][&gt;=]2#Requires character Lv. 6 and Advanced Arcana talent
-T静态盾#3,3##[$tagrole:level$][&gt;=]10&amp;[$tagrole:statu_int=magic_talent$][&gt;=]3#Requires character Lv. 10 and Master Arcana talent</t>
-  </si>
-  <si>
-    <t>T炫光连弹#1,2##[$tagrole:statu_int=magic_talent$][&gt;=]1#Requires Basic Arcana talent
-T光明图腾#3,2#T炫光连弹,1#[$tagrole:level$][&gt;=]4&amp;[$tagrole:statu_int=magic_talent$][&gt;=]2#Requires character Lv. 4 and Advanced Arcana talent
-T圣光审判#5,2#T光明图腾,1#[$tagrole:level$][&gt;=]8&amp;[$tagrole:statu_int=magic_talent$][&gt;=]3#Requires character Lv. 8 and Master Arcana talent
-T巫术精通光#1,3##[$tagrole:level$][&gt;=]6&amp;[$tagrole:statu_int=magic_talent$][&gt;=]2#Requires character Lv. 6 and Advanced Arcana talent
-T炫光盾#3,3##[$tagrole:level$][&gt;=]10&amp;[$tagrole:statu_int=magic_talent$][&gt;=]3#Requires character Lv. 10 and Master Arcana talent</t>
-  </si>
-  <si>
-    <t>T毒弹爆#1,2##[$tagrole:statu_int=magic_talent$][&gt;=]1#Requires Basic Arcana talent
-T暗影拍击#3,2#T毒弹爆,1#[$tagrole:level$][&gt;=]4&amp;[$tagrole:statu_int=magic_talent$][&gt;=]2#Requires character Lv. 4 and Advanced Arcana talent
-T魂灭#5,2#T暗影拍击,1#[$tagrole:level$][&gt;=]8&amp;[$tagrole:statu_int=magic_talent$][&gt;=]3#Requires character Lv. 8 and Master Arcana talent
-T巫术精通暗#1,3##[$tagrole:level$][&gt;=]6&amp;[$tagrole:statu_int=magic_talent$][&gt;=]2#Requires character Lv. 6 and Advanced Arcana talent
-T暗影缠绕#3,3##[$tagrole:level$][&gt;=]10&amp;[$tagrole:statu_int=magic_talent$][&gt;=]3#Requires character Lv. 10 and Master Arcana talent</t>
-  </si>
-  <si>
     <t>Alquimista</t>
   </si>
   <si>
-    <t>T燃烧瓶#1,2##[$tagrole:statu_int=magic_talent$][&gt;=]1#Requires Basic Arcana talent
-T能量瓶#3,2#T燃烧瓶,1#[$tagrole:level$][&gt;=]3&amp;[$tagrole:statu_int=magic_talent$][&gt;=]1#Requires character Lv. 3 and Basic Arcana talent
-T震荡瓶#4,2#T能量瓶,1#[$tagrole:level$][&gt;=]6&amp;[$tagrole:statu_int=magic_talent$][&gt;=]2#Requires character Lv. 6 and Advanced Arcana talent
-T潜能瓶#5,2#T震荡瓶,1#[$tagrole:level$][&gt;=]9&amp;[$tagrole:statu_int=magic_talent$][&gt;=]3#Requires character Lv. 9 and Master Arcana talent
-T炼金药剂#3,3##[$tagrole:level$][&gt;=]5&amp;[$tagrole:statu_int=magic_talent$][&gt;=]2#Requires character Lv. 5 and Advanced Arcana talent</t>
-  </si>
-  <si>
     <t>Invocador</t>
   </si>
   <si>
-    <t>T火元素#1,2##[$tagrole:statu_int=magic_talent$][&gt;=]1#Requires Basic Arcana talent
-T冰球环绕#3,2#T火元素,1#[$tagrole:level$][&gt;=]4&amp;[$tagrole:statu_int=magic_talent$][&gt;=]2#Requires character Lv. 4 and Advanced Arcana talent
-T水泡召唤#4,2#T冰球环绕,1#[$tagrole:level$][&gt;=]8&amp;[$tagrole:statu_int=magic_talent$][&gt;=]3#Requires character Lv. 8 and Master Arcana talent
-T元素降临#5,2#T水泡召唤,1#[$tagrole:level$][&gt;=]12&amp;[$tagrole:statu_int=magic_talent$][&gt;=]3#Requires character Lv. 12 and Master Arcana talent
-T巫术精通召唤#3,3##[$tagrole:level$][&gt;=]6&amp;[$tagrole:statu_int=magic_talent$][&gt;=]2#Requires character Lv. 6 and Advanced Arcana talent</t>
-  </si>
-  <si>
     <t>Manto Fantasma</t>
   </si>
   <si>
-    <t>T闪烁#1,2
-T幻之斗篷#3,2#T闪烁,1#[$tagrole:level$][&gt;=]3#Requires character Lv. 3
-T幻光迷踪#5,2#T幻之斗篷,1#[$tagrole:level$][&gt;=]6#Requires character Lv. 6
-T闪避精通幻光斗篷#1,3##[$tagrole:level$][&gt;=]3#Requires character Lv. 3
-T幻光匿形#3,3#T闪避精通幻光斗篷,1#[$tagrole:level$][&gt;=]6#Requires character Lv. 6</t>
-  </si>
-  <si>
     <t>Trapaceiro</t>
   </si>
   <si>
-    <t>T欺诈图腾#1,2
-T欺诈魔术#3,2#T欺诈图腾,1#[$tagrole:level$][&gt;=]6#Requires character Lv. 6
-T致命骗术#1,3##[$tagrole:level$][&gt;=]6#Requires character Lv. 6
-T虚假生命#3,3#T致命骗术,1#[$tagrole:level$][&gt;=]10#Requires character Lv. 10</t>
-  </si>
-  <si>
     <t>Quebramagos</t>
   </si>
   <si>
-    <t>T沉默之风#1,2
-T禁魔护罩#3,2##[$tagrole:level$][&gt;=]5#Requires character Lv. 5
-T破法者#1,3##[$tagrole:level$][&gt;=]3#Requires character Lv. 3
-T破法盾#3,3##[$tagrole:level$][&gt;=]6#Requires character Lv. 6
-T破法剑#5,3##[$tagrole:level$][&gt;=]9#Requires character Lv. 9</t>
-  </si>
-  <si>
     <t>Meditador</t>
   </si>
   <si>
-    <t>T超然#3,2##[$tagrole:level$][&gt;=]3#Requires character Lv. 3
-T冥想#1,3
-T法力充沛#3,3##[$tagrole:level$][&gt;=]3#Requires character Lv. 3
-T启迪冥想者#5,3##[$tagrole:level$][&gt;=]6#Requires character Lv. 6</t>
-  </si>
-  <si>
     <t>Bestial</t>
   </si>
   <si>
-    <t>T唤狼#1,2
-T唤鹰#3,2#T唤狼,1#[$tagrole:level$][&gt;=]4#Requires character Lv. 4
-T唤熊#5,2#T唤鹰,1#[$tagrole:level$][&gt;=]8#Requires character Lv. 8
-T生命亲和驯兽师#1,3
-T驯兽大师#3,3##[$tagrole:level$][&gt;=]8#Requires character Lv. 8</t>
-  </si>
-  <si>
     <t>Curandeiro</t>
   </si>
   <si>
-    <t>T大治疗术#1,2
-T群体医疗#3,2#T大治疗术,1#[$tagrole:level$][&gt;=]5#Requires character Lv. 5
-T生命亲和白蔷薇#1,3
-T妙手仁心#3,3#T生命亲和白蔷薇,1#[$tagrole:level$][&gt;=]3#Requires character Lv. 3
-T启迪白蔷薇#5,3##[$tagrole:level$][&gt;=]6#Requires character Lv. 6</t>
-  </si>
-  <si>
     <t>Sultão Akhal</t>
   </si>
   <si>
-    <t>T万刃分鬃杀#1,1
-T万刃分鬃杀进阶#2,1#T万刃分鬃杀,3#[$tagrole:level$][&gt;=]12#Requires character Lv. 12
-T万刃分鬃杀精通#4,1#T万刃分鬃杀进阶,2#[$tagrole:level$][&gt;=]12#Requires character Lv. 12
-T武之圣盾#1,2#T野马王骑乘战马,1#[$tagrole:level$][&gt;=]10#Requires character Lv. 10
-T武之圣盾进阶#2,2#T武之圣盾,1#
-T武之圣盾精通#4,2#T武之圣盾进阶,3#
-T野马王骑乘战马#1,3##
-T野马王骑乘战马进阶#2,3#T野马王骑乘战马,1#[$tagrole:level$][&gt;=]10#Requires character Lv. 10
-T野马王骑乘战马精通#4,3#T野马王骑乘战马进阶,3#[$tagrole:level$][&gt;=]12#Requires character Lv. 12
-T野马王标枪投掷#1,4#T野马王骑乘战马,1#
-T野马王箭雨#3,4#T野马王标枪投掷,1#[$tagrole:level$][&gt;=]12#Requires character Lv. 12
-T野马王王牌冲锋#4,4#T野马王箭雨,1#[$tagrole:level$][&gt;=]15#Requires character Lv. 15
-T马王2#5,1
-T马王#5,3#T马王2,3#[$tagrole:level$][&gt;=]12#Requires character Lv. 12
-T野马王万马之王#5,4#T马王,3#</t>
-  </si>
-  <si>
     <t>Sultão Nasir</t>
-  </si>
-  <si>
-    <t>T霍驹附魔武装#1,1
-T霍驹附魔武装冰霜#3,1#T霍驹附魔武装,3
-T霍驹破冰一击#4,1#T霍驹附魔武装冰霜,1#[$tagrole:level$][&gt;=]15#Requires character Lv. 15
-T霍驹冰隙冲击#1,2
-T霍驹冰隙冲击进阶#2,2#T霍驹冰隙冲击,2#[$tagrole:level$][&gt;=]12#Requires character Lv. 12
-T霍驹恶魔冰焰#1,3##
-T霍驹恶魔冰焰进阶#2,3#T霍驹恶魔冰焰,1#[$tagrole:level$][&gt;=]12#Requires character Lv. 12
-T魔控武装#3,3##
-T恶魔血脉#4,3#T魔控武装,1#[$tagrole:level$][&gt;=]15#Requires character Lv. 15
-T霍驹战斗快感#1,4##[$tagrole:level$][&gt;=]12#Requires character Lv. 12
-T霍驹战斗快感复苏#2,4#T霍驹战斗快感,3#[$tagrole:level$][&gt;=]15#Requires character Lv. 15
-T统率技能霍驹#5,1
-T统率技能霍驹2#5,3#T统率技能霍驹,3#[$tagrole:level$][&gt;=]15#Requires character Lv. 15</t>
-  </si>
-  <si>
-    <t>T阿曼莎毒针#1,1
-T阿曼莎毒针弹射#3,1#T阿曼莎毒针,3
-T阿曼莎蝎蛊#1,2
-T阿曼莎蝎蛊进阶#2,2#T阿曼莎蝎蛊,1##
-T阿曼莎蝎蛊精通#3,2#T阿曼莎蝎蛊进阶,1#[$tagrole:level$][&gt;=]12#Requires character Lv. 12
-T阿曼莎镖术#1,3###
-T阿曼莎毒蝎刺#3,3#T阿曼莎镖术,3#
-T阿曼莎下毒#4,3#T阿曼莎毒蝎刺,1#
-T阿曼莎养蝎帐篷#1,4##
-T阿曼莎养蝎帐篷提升#2,4#T阿曼莎养蝎帐篷,2##
-T阿曼莎养蝎帐篷精通#4,4#T阿曼莎养蝎帐篷提升,1#[$tagrole:level$][&gt;=]15#Requires character Lv. 15
-T阿曼莎以毒攻毒#4,1##[$tagrole:level$][&gt;=]15#Requires character Lv. 15
-T统率技能阿曼莎#5,1
-T统率技能阿曼莎2#5,3#T统率技能阿曼莎,3#[$tagrole:level$][&gt;=]15#Requires character Lv. 15</t>
   </si>
   <si>
     <t>Coração da Tempestade de Dunas</t>
@@ -3233,23 +2227,6 @@
 统率技能阿塞尔#4,4##[$tagrole:id$][=]主角#根据好感度解锁</t>
   </si>
   <si>
-    <t>ASL_岩傀儡#1,1
-ASL_精炼傀儡#2,1#ASL_岩傀儡,1
-ASL_沙之壁垒#3,1
-ASL_扬尘#3,2#ASL_沙之壁垒,1
-ASL_飓风螺旋#1,3
-ASL_感电风暴#3,3#ASL_飓风螺旋,1
-ASL_沙风之心#4,1
-ASL_法术屏障#4,2
-ASL_大地加护#4,3
-ASL_法力膨胀#5,1
-ASL_法力爆破#5,3
-ASL_法力补充#1,4##[$tagrole:fv$][&gt;=]20#Requires 20 points of relationship
-ASL_法脉连携#2,4##[$tagrole:fv$][&gt;=]40#Requires 40 points of relationship
-ASL_巫术脉冲#3,4##[$tagrole:level$][&gt;=]15#Requires character Lv.15
-统率技能阿塞尔#4,4##[$tagrole:id$][=]主角#Unlock according to relationship</t>
-  </si>
-  <si>
     <t>Espadachim de Lança de Areias Vermelhas</t>
   </si>
   <si>
@@ -3270,23 +2247,6 @@
 统率技能安红砂#4,4##[$tagrole:id$][=]主角#根据好感度解锁</t>
   </si>
   <si>
-    <t>AHS_长枪突进#1,1
-AHS_钢劲破甲#2,1#AHS_长枪突进,1
-AHS_横扫一击#3,1
-AHS_不羁的嘲讽#3,2#AHS_横扫一击,1
-AHS_旋转之枪#1,3
-AHS_枪术格挡#3,3#AHS_旋转之枪,1
-AHS_强腕手段#4,1
-AHS_铁臂钢骨#4,2
-AHS_枪术达人#4,3
-AHS_枪影坠#5,1
-AHS_天崩地裂#5,3
-AHS_荒漠战士#1,4##[$tagrole:fv$][&gt;=]20#Requires 20 points of relationship
-AHS_长枪演武#2,4##[$tagrole:fv$][&gt;=]40#Requires 40 points of relationship
-AHS_翱翔之枪#3,4##[$tagrole:level$][&gt;=]15#Requires character Lv.15
-统率技能安红砂#4,4##[$tagrole:id$][=]主角#Unlock according to relationship</t>
-  </si>
-  <si>
     <t>Lutador Musculoso</t>
   </si>
   <si>
@@ -3307,23 +2267,6 @@
 统率技能巴图#4,4##[$tagrole:id$][=]主角#根据好感度解锁</t>
   </si>
   <si>
-    <t>BT_状态调整#1,1
-BT_激战准备#2,1#BT_状态调整,1
-BT_勇士冲击#3,1
-BT_猛虎下山#3,2#BT_勇士冲击,1
-BT_战争践踏#1,3
-BT_重锤#3,3#BT_战争践踏,1
-BT_虎背熊腰#4,1
-BT_金刚之躯#4,2
-BT_徒手防御#4,3
-BT_挑战者#5,1
-BT_不灭之躯#5,3
-BT_肉体防御#1,4##[$tagrole:fv$][&gt;=]20#Requires 20 points of relationship
-BT_肌肉锻炼#2,4##[$tagrole:fv$][&gt;=]40#Requires 40 points of relationship
-BT_格斗#3,4##[$tagrole:level$][&gt;=]15#Requires character Lv.15
-统率技能巴图#4,4##[$tagrole:id$][=]主角#Unlock according to relationship</t>
-  </si>
-  <si>
     <t>Corte de Giddah</t>
   </si>
   <si>
@@ -3344,23 +2287,6 @@
 统率技能公孙巴兰#4,4##[$tagrole:id$][=]主角#根据好感度解锁</t>
   </si>
   <si>
-    <t>GSBL_疾风快刃#1,1
-GSBL_狂暴斩#2,1#GSBL_疾风快刃,1
-GSBL_月夜魔刃#3,1
-GSBL_余命夺取#3,2#GSBL_月夜魔刃,1
-GSBL_偏斜姿态#1,3
-GSBL_偏斜反击#3,3#GSBL_偏斜姿态,1
-GSBL_饮血常歌#4,1
-GSBL_一刀毙命#4,2
-GSBL_刃之达人#4,3
-GSBL_钩索突进#5,1
-GSBL_吸血刃#5,3
-GSBL_大漠游侠#1,4##[$tagrole:fv$][&gt;=]20#Requires 20 points of relationship
-GSBL_刃之格挡#2,4##[$tagrole:fv$][&gt;=]40#Requires 40 points of relationship
-GSBL_秘技火凤#3,4##[$tagrole:level$][&gt;=]15#Requires character Lv.15
-统率技能公孙巴兰#4,4##[$tagrole:id$][=]主角#Unlock according to relationship</t>
-  </si>
-  <si>
     <t>Bruxa da Montanha de Neve</t>
   </si>
   <si>
@@ -3381,23 +2307,6 @@
 统率技能灰雪#4,4##[$tagrole:id$][=]主角#根据好感度解锁</t>
   </si>
   <si>
-    <t>XWN_雪巫女的守护#1,1
-XWN_寒冰光环#2,1#XWN_雪巫女的守护,1
-XWN_雪巫女风灵冲击#3,1
-XWN_封印咒术#3,2#XWN_雪巫女风灵冲击,1
-XWN_寒冰法术#1,3
-XWN_冻结之心#3,3#XWN_寒冰法术,1
-XWN_法力溢出#4,1
-XWN_预言诅咒#4,2
-XWN_雪山巫女#4,3
-XWN_霜冻#5,1
-XWN_冰矛#5,3
-XWN_巫女的智慧#1,4##[$tagrole:fv$][&gt;=]20#Requires 20 points of relationship
-XWN_寒霜冰珠#2,4##[$tagrole:fv$][&gt;=]40#Requires 40 points of relationship
-XWN_冰华乱舞#3,4##[$tagrole:level$][&gt;=]15#Requires character Lv.15
-统率技能灰雪#4,4##[$tagrole:id$][=]主角#Unlock according to relationship</t>
-  </si>
-  <si>
     <t>Arte Secreta do Ouro</t>
   </si>
   <si>
@@ -3418,23 +2327,6 @@
 统率技能金玉叶#4,4##[$tagrole:id$][=]主角#根据好感度解锁</t>
   </si>
   <si>
-    <t>JYY_金色波动#1,1
-JYY_金光闪闪#2,1#JYY_金色波动,1
-JYY_黄金审判#3,1
-JJY_金色天平#3,2#JYY_黄金审判,1
-JJY_黄金盾#1,3
-JJY_金之愈合#3,3#JJY_黄金盾,1
-JJY_炫目光盾#4,1
-JJY_黄金折射#4,2
-JJY_抗咒金饰#4,3
-JJY_禁魔护盾#5,1
-JJY_沉默之风#5,3
-JJY_金生金#1,4##[$tagrole:fv$][&gt;=]20#Requires 20 points of relationship
-JJY_黄金的生命法则#2,4##[$tagrole:fv$][&gt;=]40#Requires 40 points of relationship
-JJY_不稳定的金铃铛#3,4##[$tagrole:level$][&gt;=]15#Requires character Lv.15
-统率技能金玉叶#4,4##[$tagrole:id$][=]主角#Unlock according to relationship</t>
-  </si>
-  <si>
     <t>Lâmina de Folha Dourada</t>
   </si>
   <si>
@@ -3455,23 +2347,6 @@
 统率技能金足赤#4,4##[$tagrole:id$][=]主角#根据好感度解锁</t>
   </si>
   <si>
-    <t>JZC_金钱标记#1,1
-JZC_金钱压制#2,1#JZC_金钱标记,1
-JZC_钱进战场#2,1
-JZC_以金赚金#3,2#JZC_钱进战场,1
-JZC_金少爷的小把戏#1,3
-JZC_炫目之金#3,3#JZC_金少爷的小把戏,1
-JZC_战场税金#4,1
-JZC_金家兄妹#4,2
-JZC_活性黄金#4,3
-JZC_富人的戏谑#5,1
-JZC_金叶飞刃#5,3
-JZC_金钱战术#1,4##[$tagrole:fv$][&gt;=]20#Requires 20 points of relationship
-JZC_黄金的使用法则#2,4##[$tagrole:fv$][&gt;=]40#Requires 40 points of relationship
-JZC_花点小钱#3,4##[$tagrole:level$][&gt;=]15#Requires character Lv.15
-统率技能金足赤#4,4##[$tagrole:id$][=]主角#Unlock according to relationship</t>
-  </si>
-  <si>
     <t>Caçador de Ruínas</t>
   </si>
   <si>
@@ -3492,23 +2367,6 @@
 统率技能洛维莎#4,4##[$tagrole:id$][=]主角#根据好感度解锁</t>
   </si>
   <si>
-    <t>WLS_古代弩#1,1
-WLS_穿透毒矢#2,1#WLS_古代弩,1
-WLS_暗影镖#3,1
-WlS_飞刃弹射#3,2#WLS_暗影镖,1
-WLS_潜行作战#1,3
-WlS_伺机待发#3,3#WLS_潜行作战,1
-WLS_身材娇小#4,1
-WLS_毒性专家#4,2
-WlS_拾荒达人#4,3
-WlS_毒针#5,1
-WlS_毒剂瓶#5,3
-WLS_引路人#1,4##[$tagrole:fv$][&gt;=]20#Requires 20 points of relationship
-WLS_盗宝者#2,4##[$tagrole:fv$][&gt;=]40#Requires 40 points of relationship
-WLS_剧毒之潮#3,4##[$tagrole:level$][&gt;=]15#Requires character Lv.15
-统率技能洛维莎#4,4##[$tagrole:id$][=]主角#Unlock according to relationship</t>
-  </si>
-  <si>
     <t>Espada Rosa</t>
   </si>
   <si>
@@ -3529,23 +2387,6 @@
 统率技能墨敕#4,4##[$tagrole:id$][=]主角#根据好感度解锁</t>
   </si>
   <si>
-    <t>MS_巫灵跃斩#1,1
-MS_魔影分魂#2,1#MS_巫灵跃斩,1
-MS_恐惧魔爪#3,1
-MS_恐惧之泣#3,2#MS_恐惧魔爪,1
-MS_突进斩#1,3
-MS_巫灵蚀甲#3,3#MS_突进斩,1
-MS_残忍屠戮#4,1
-MS_魔剑侵夺#4,2
-MS_魔剑宿主#4,3
-MS_背刺#5,1
-MS_雾遁#5,3
-MS_魔剑幻影#1,4##[$tagrole:fv$][&gt;=]20#Requires 20 points of relationship
-MS_魔剑释魂#2,4##[$tagrole:fv$][&gt;=]40#Requires 40 points of relationship
-MS_魔剑墨痕#3,4##[$tagrole:level$][&gt;=]15#Requires character Lv.15
-统率技能墨敕#4,4##[$tagrole:id$][=]主角#Unlock according to relationship</t>
-  </si>
-  <si>
     <t>Coração de Rosa</t>
   </si>
   <si>
@@ -3566,23 +2407,6 @@
 统率技能齐肃之#4,4##[$tagrole:id$][=]主角#根据好感度解锁</t>
   </si>
   <si>
-    <t>QSZ_白旋之刃#1,1
-QSZ_寒刃#2,1#QSZ_白旋之刃,1
-QSZ_剑之誓言#3,1
-QSZ_誓言之争#3,2#QSZ_剑之誓言,1
-QSZ_天愈之剑#1,3
-QSZ_剑愈结界#3,3#QSZ_天愈之剑,1
-QSZ_生命之春#4,1
-QSZ_剑术大师#4,2
-QSZ_妙手仁心#4,3
-QSZ_光冕剑#5,1
-QSZ_疾突剑#5,3
-QSZ_危命急救#1,4##[$tagrole:fv$][&gt;=]20#Requires 20 points of relationship
-QSZ_愈合疗法#2,4##[$tagrole:fv$][&gt;=]40#Requires 40 points of relationship
-QSZ_白蔷薇誓言之剑#3,4##[$tagrole:level$][&gt;=]15#Requires character Lv.15
-统率技能齐肃之#4,4##[$tagrole:id$][=]主角#Unlock according to relationship</t>
-  </si>
-  <si>
     <t>Escorpião da Morte</t>
   </si>
   <si>
@@ -3603,23 +2427,6 @@
 统率技能曲玉#4,4##[$tagrole:id$][=]主角#根据好感度解锁</t>
   </si>
   <si>
-    <t>QY_净化之炎#1,1
-QY_识者净化#2,1#QY_净化之炎,1
-QY_白色辉光#3,1
-QY_余辉#3,2#QY_白色辉光,1
-QY_光耀弹#1,3
-QY_光耀冲击#3,3#QY_光耀弹,1
-QY_生命律动#4,1
-QY_治愈连律#4,2
-QY_治疗天赋#4,3
-QY_大治疗术#5,1
-QY_群体治疗#5,3
-QY_白蔷薇使者#1,4##[$tagrole:fv$][&gt;=]20#Requires 20 points of relationship
-QY_治愈之心#2,4##[$tagrole:fv$][&gt;=]40#Requires 40 points of relationship
-QY_白蔷薇之护#3,4##[$tagrole:level$][&gt;=]15#Requires character Lv.15
-统率技能曲玉#4,4##[$tagrole:id$][=]主角#Unlock according to relationship</t>
-  </si>
-  <si>
     <t>Especialista em Poções</t>
   </si>
   <si>
@@ -3640,23 +2447,6 @@
 统率技能邵影#4,4##[$tagrole:id$][=]主角#根据好感度解锁</t>
   </si>
   <si>
-    <t>SY_沉默烟幕#1,1
-SY_血阵#2,1#SY_沉默烟幕,1
-SY_回旋飞刃#3,1
-SY_锯齿飞刃#3,2#SY_回旋飞刃,1
-SY_定身击#1,3
-SY_影之暗器#3,3#SY_定身击,1
-SY_锋利蝎钩#4,1
-SY_残忍猎杀#4,3
-SY_刀锋扇#5,1
-SY_危险回避#5,2
-SY_遁入阴影#5,3
-SY_蝎之狩猎#1,4##[$tagrole:fv$][&gt;=]20#Requires 20 points of relationship
-SY_致命穿透#2,4##[$tagrole:fv$][&gt;=]40#Requires 40 points of relationship
-SY_幻影之阵#3,4##[$tagrole:level$][&gt;=]15#Requires character Lv.15
-统率技能邵影#4,4##[$tagrole:id$][=]主角#Unlock according to relationship</t>
-  </si>
-  <si>
     <t>Pesadelo Amaldiçoado</t>
   </si>
   <si>
@@ -3677,23 +2467,6 @@
 统率技能提可沁#4,4##[$tagrole:id$][=]主角#根据好感度解锁</t>
   </si>
   <si>
-    <t>TKQ_燃烧弹#1,1
-TKQ_黑油之火#2,1#TKQ_燃烧弹,1
-TKQ_能量瓶#3,1
-TKQ_能量干扰#3,2#TKQ_能量瓶,1
-TKQ_震荡瓶#1,3
-TKQ_震荡混乱#3,3#TKQ_震荡瓶,1
-TKQ_药物养生学#4,1
-TKQ_思考学者#4,2
-TKQ_试验性药剂#4,3
-TKQ_潜能瓶#5,1
-TKQ_炼金药剂#5,3
-TKQ_行囊药田#1,4##[$tagrole:fv$][&gt;=]20#Requires 20 points of relationship
-TKQ_优化配方#2,4##[$tagrole:fv$][&gt;=]40#Requires 40 points of relationship
-TKQ_爆炸药剂#3,4##[$tagrole:level$][&gt;=]15#Requires character Lv.15
-统率技能提可沁#4,4##[$tagrole:id$][=]主角#Unlock according to relationship</t>
-  </si>
-  <si>
     <t>Espada Demoníaca Infernal</t>
   </si>
   <si>
@@ -3714,23 +2487,6 @@
 统率技能天星#4,4##[$tagrole:id$][=]主角#根据好感度解锁</t>
   </si>
   <si>
-    <t>TS_征兆之雷#1,1
-TS_静电场#2,1#TS_征兆之雷,1
-TS_宇宙缝隙#3,1
-TS_能量聚变#3,2#TS_宇宙缝隙,1
-TS_万象牵引#1,3
-TS_时空撕裂#3,3#TS_万象牵引,1
-TS_深邃的巫能#4,1
-TS_未来的预示#4,2
-TS_星空的智慧#4,3
-TS_时间的庇护#5,1
-TS_施咒模式#5,3
-TS_天象预言#1,4##[$tagrole:fv$][&gt;=]20#Requires 20 points of relationship
-TS_星之祈祷#2,4##[$tagrole:fv$][&gt;=]40#Requires 40 points of relationship
-TS_观天象#3,4##[$tagrole:level$][&gt;=]15#Requires character Lv.15
-统率技能天星#4,4##[$tagrole:id$][=]主角#Unlock according to relationship</t>
-  </si>
-  <si>
     <t>Profecia das Estrelas</t>
   </si>
   <si>
@@ -3751,23 +2507,6 @@
 统率技能西河伽罗#4,4##[$tagrole:id$][=]主角#根据好感度解锁</t>
   </si>
   <si>
-    <t>XHJL_巨剑横扫#1,1
-XHJL_击飞重锤#2,1#XHJL_巨剑横扫,1
-XHJL_钢之咆哮#3,1
-XHJL_钢核迸发#3,2#XHJL_钢之咆哮,1
-SHJL_钢铁身躯#1,3
-SHJL_散热#3,3#SHJL_钢铁身躯,1
-SHJL_大剑使#4,1
-SHJL_赫炎武装#4,2
-SHJL_机动装置#4,3
-SHJL_火焰喷射#5,1
-SHJL_武装爆裂#5,3
-SHJL_不屈意志#1,4##[$tagrole:fv$][&gt;=]20#Requires 20 points of relationship
-SHJL_钢之心#2,4##[$tagrole:fv$][&gt;=]40#Requires 40 points of relationship
-SHJL_坚毅血脉#3,4##[$tagrole:level$][&gt;=]15#Requires character Lv.15
-统率技能西河伽罗#4,4##[$tagrole:id$][=]主角#Unlock according to relationship</t>
-  </si>
-  <si>
     <t>Grande Espada de Aço</t>
   </si>
   <si>
@@ -3798,23 +2537,6 @@
 XHNY_商旅#4,2
 XHNY_鉴玉人#4,3
 XHNY_幻之斗篷#5,1
-XHNY_闪烁#5,3
-XHNY_商贾人脉#1,4##[$tagrole:fv$][&gt;=]20#Requires 20 points of relationship
-XHNY_玉器交易#2,4##[$tagrole:fv$][&gt;=]40#Requires 40 points of relationship
-XHNY_西河之舞#3,4##[$tagrole:level$][&gt;=]15#Requires character Lv.15
-统率技能西河娜娅#4,4##[$tagrole:id$][=]主角#Unlock according to relationship</t>
-  </si>
-  <si>
-    <t>XHNY_出阵之曲#1,1
-XHNY_激情洋溢#2,1#XHNY_出阵之曲,1
-XHNY_魅惑之舞#3,1
-XHNY_癫狂#3,2#XHNY_魅惑之舞,1
-XHNY_悬刀之舞#1,3
-XHNY_幻之毒#3,3#XHNY_悬刀之舞,1
-XHNY_装备置办#4,1
-XHNY_商旅#4,2
-XHNY_鉴玉人#4,3
-XHNY_幻之斗篷#5,1
 XHNY_闪烁#5,3</t>
   </si>
   <si>
@@ -3836,24 +2558,6 @@
 YY_怪物为伴#2,4##[$tagrole:fv$][&gt;=]40#好感度达到40解锁学习
 YY_梦魇诡刺#3,4##[$tagrole:level$][&gt;=]15#人物等级到达15
 统率技能耶牙#4,4##[$tagrole:id$][=]主角#根据好感度解锁</t>
-  </si>
-  <si>
-    <t>YY_利齿之咬#1,1
-YY_恶魔撕咬#2,1#YY_利齿之咬,1
-YY_同化吞噬#3,1
-YY_修罗肉体#3,2#YY_同化吞噬,1
-YY_肉体解放#1,3
-YY_粉碎之爪#3,3#YY_肉体解放,1
-YY_异化肉体#4,1
-YY_怪物鳞片#4,2
-YY_无情怪物#4,3
-YY_潜伏影渊#5,1
-YY_突袭背刺#5,3
-YY_怪物友人#1,4##[$tagrole:fv$][&gt;=]20#Requires 20 points of relationship
-YY_怪物为伴#2,4##[$tagrole:fv$][&gt;=]40#Requires 40 points of relationship
-YY_梦魇诡刺#3,4##[$tagrole:level$][&gt;=]15#Requires character Lv.15
-YY_魔物装甲#4,4##[$tagrole:level$][&gt;=]15#Requires character Lv.15
-YY_魔物装甲小兵#5,4##[$tagrole:level$][&gt;=]15#Requires character Lv.15</t>
   </si>
   <si>
     <t>YY_利齿之咬#1,1
@@ -3893,27 +2597,6 @@
 涅槃#7,2#怒意迸发,1#[$tagrole:level$][&gt;=]15#人物等级到达15</t>
   </si>
   <si>
-    <t>守护之盾#1,3
-娴熟斗技#3,3#守护之盾,1#[$tagrole:level$][&gt;=]6#Requires character Lv.6
-剑盾缠斗#4,3#娴熟斗技,1#[$tagrole:level$][&gt;=]9#Requires character Lv.9
-死斗#6,3#剑盾缠斗,1#[$tagrole:level$][&gt;=]12#Requires character Lv.12
-猛者突进#1,2
-晕厥残留#2,2#猛者突进,1
-强力盾击#3,2#晕厥残留,1#[$tagrole:level$][&gt;=]3#Requires character Lv.3
-威压#5,2#强力盾击,1
-援护飞盾#2,1#晕厥残留,1
-忠实守护#3,1#援护飞盾,1
-战士的恩惠#4,1#忠实守护,1#[$tagrole:level$][&gt;=]9#Requires character Lv.9
-野性怒吼#1,4
-精神振奋#2,4#野性怒吼,1
-热血先攻#4,4#精神振奋,1|剑盾缠斗,1
-坚韧意志#5,4#热血先攻,1#[$tagrole:level$][&gt;=]12#Requires character Lv.12
-不屈#7,4#坚韧意志,1#[$tagrole:level$][&gt;=]15#Requires character Lv.15
-反戈一击#6,1#战士的恩惠,1#[$tagrole:level$][&gt;=]12#Requires character Lv.12
-怒意迸发#6,2#反戈一击,1|死斗,1
-涅槃#7,2#怒意迸发,1#[$tagrole:level$][&gt;=]15#Requires character Lv.15</t>
-  </si>
-  <si>
     <t>Guerreiro Enfurecido</t>
   </si>
   <si>
@@ -3937,26 +2620,6 @@
 解放冲击#6,4#螺旋飓风,1#[$tagrole:level$][&gt;=]12#人物等级到达12</t>
   </si>
   <si>
-    <t>狂战士血脉#1,2
-猛者#1,3#狂战士血脉,1
-猛者冲击#1,4#猛者,1#[$tagrole:level$][&gt;=]6#Requires character Lv.6
-一下一个#3,4#猛者冲击,1
-狂热怒斩#1,1#狂战士血脉,1
-裂地战斧#3,1#狂热怒斩,1#[$tagrole:level$][&gt;=]6#Requires character Lv.6
-战斗意志#5,1#狂热怒斩,1#[$tagrole:level$][&gt;=]9#Requires character Lv.9
-巨兽猛扑#2,2#狂战士血脉,1
-惊吓#3,2#巨兽猛扑,1#[$tagrole:level$][&gt;=]6#Requires character Lv.6
-狂战士怒吼#2,3#猛者,1#[$tagrole:level$][&gt;=]6#Requires character Lv.6
-恐怖威压#3,3#狂战士怒吼,1
-心满意足#4,3#恐怖威压,1#[$tagrole:level$][&gt;=]9#Requires character Lv.9
-暴虐成性#6,3#心满意足,1#[$tagrole:level$][&gt;=]12#Requires character Lv.12
-鲜血祭祀#4,2#心满意足,1
-血酒佳酿#5,2#鲜血祭祀,1
-醉意盎然#7,2#血酒佳酿,1#[$tagrole:level$][&gt;=]15#Requires character Lv.15
-螺旋飓风#4,4#一下一个,1|心满意足,1
-解放冲击#6,4#螺旋飓风,1#[$tagrole:level$][&gt;=]12#Requires character Lv.12</t>
-  </si>
-  <si>
     <t>Lâmina de Atração Fantasma</t>
   </si>
   <si>
@@ -3978,26 +2641,6 @@
 WR_毒性催化#7,2#WR_食毒者,1#[$tagrole:level$][&gt;=]18#人物等级到达18
 WR_刃之舞#5,4#WR_精细,1|WR_鲜血舞娘,1#[$tagrole:level$][&gt;=]15#人物等级到达15
 WR_优雅谢幕#7,4#WR_刃之舞,1#[$tagrole:level$][&gt;=]18#人物等级到达18</t>
-  </si>
-  <si>
-    <t>WR_影舞者#1,2
-WR_咒刃#1,4
-WR_影之突袭#2,2#WR_影舞者,1
-WR_挽刃#2,3#WR_影之突袭,1
-WR_烈毒飞刃#3,3#WR_挽刃,1
-WR_精细#3,4#WR_咒刃,1|WR_烈毒飞刃,1#[$tagrole:level$][&gt;=]6#Requires character Lv.6
-WR_血刃弯刀#2,1#WR_影之突袭,1
-WR_幻魅之毒#3,2#WR_影之突袭,1#[$tagrole:level$][&gt;=]6#Requires character Lv.6
-WR_混乱傀儡#4,2#WR_幻魅之毒,1
-WR_麻痹寂默#5,2#WR_混乱傀儡,1#[$tagrole:level$][&gt;=]12#Requires character Lv.12
-WR_愉悦敌意#4,1#WR_混乱傀儡,1
-WR_双刃乱舞#4,3#WR_烈毒飞刃,1#[$tagrole:level$][&gt;=]9#Requires character Lv.9
-WR_鲜血舞娘#5,3#WR_双刃乱舞,1#[$tagrole:level$][&gt;=]12#Requires character Lv.12
-WR_食毒者#6,2#WR_麻痹寂默,1#[$tagrole:level$][&gt;=]15#Requires character Lv.15
-WR_异样欢欣#6,3#WR_鲜血舞娘,1#[$tagrole:level$][&gt;=]15#Requires character Lv.15
-WR_毒性催化#7,2#WR_食毒者,1#[$tagrole:level$][&gt;=]18#Requires character Lv.18
-WR_刃之舞#5,4#WR_精细,1|WR_鲜血舞娘,1#[$tagrole:level$][&gt;=]15#Requires character Lv.15
-WR_优雅谢幕#7,4#WR_刃之舞,1#[$tagrole:level$][&gt;=]18#Requires character Lv.18</t>
   </si>
   <si>
     <t>Punhos Dourados</t>
@@ -4027,30 +2670,6 @@
 雁金升龙霸#7,2#雁金升龙,1|烈云穿天,1</t>
   </si>
   <si>
-    <t>武道拳术#1,2
-拳术招架#1,3#武道拳术,1
-蓄力冲拳#2,2#武道拳术,1
-连续冲拳#2,1#蓄力冲拳,1#[$tagrole:level$][&gt;=]3#Requires character Lv.3
-招架反击#2,3#拳术招架,1
-不破#2,4#招架反击,1#[$tagrole:level$][&gt;=]3#Requires character Lv.3
-气劲#3,2#蓄力冲拳,1#[$tagrole:level$][&gt;=]6#Requires character Lv.6
-护身气劲#3,1#气劲,1
-螺旋气劲#5,1#护身气劲,1#[$tagrole:level$][&gt;=]12#Requires character Lv.12
-铁山靠#4,2#气劲,1#[$tagrole:level$][&gt;=]9#Requires character Lv.9
-顶心肘#5,2#铁山靠,1#[$tagrole:level$][&gt;=]12#Requires character Lv.12
-雁金咒文#3,3#招架反击,1#[$tagrole:level$][&gt;=]6#Requires character Lv.6
-雁金砺铄#3,4#雁金咒文,1
-雁金华彩#5,4#雁金砺铄,1#[$tagrole:level$][&gt;=]12#Requires character Lv.12
-崩山震#4,3#雁金咒文,1#[$tagrole:level$][&gt;=]9#Requires character Lv.9
-八极崩#5,3#崩山震,1#[$tagrole:level$][&gt;=]12#Requires character Lv.12
-雁金升龙#6,2#顶心肘,1#[$tagrole:level$][&gt;=]15#Requires character Lv.15
-雁金升龙真#6,1#雁金升龙,1
-烈云飞踢#6,3#八极崩,1|雁金升龙,1#[$tagrole:level$][&gt;=]15#Requires character Lv.15
-天龙游舞#6,4#烈云飞踢,1
-烈云穿天#7,3#烈云飞踢,1#[$tagrole:level$][&gt;=]18#Requires character Lv.18
-雁金升龙霸#7,2#雁金升龙,1|烈云穿天,1</t>
-  </si>
-  <si>
     <t>Dança de Invocação Espiritual</t>
   </si>
   <si>
@@ -4075,48 +2694,1436 @@
 C_灵之庇护#7,3#C_灵能唤醒,1#[$tagrole:level$][&gt;=]15#人物等级到达15</t>
   </si>
   <si>
+    <t>Médico da Rosa Branca</t>
+  </si>
+  <si>
+    <t>Mercador</t>
+  </si>
+  <si>
+    <t>Ferreiro</t>
+  </si>
+  <si>
+    <t>Recrutador</t>
+  </si>
+  <si>
+    <t>幻光秘刃闪烁秘刃#1,3
+幻光秘刃闪烁秘刃提升1#1,2#幻光秘刃闪烁秘刃,1#[$tagrole:level$][&gt;=]8#Requer personagem no nível 8
+幻光秘刃闪烁秘刃提升2#1,4#幻光秘刃闪烁秘刃,1#[$tagrole:level$][&gt;=]3#3
+幻光秘刃鬼爪#2,3#幻光秘刃闪烁秘刃,1
+幻光秘刃鬼爪提升1#2,2#幻光秘刃鬼爪,1#[$tagrole:level$][&gt;=]8#8
+幻光秘刃鬼爪提升2#2,4#幻光秘刃鬼爪,1
+幻光秘刃鬼爪提升3#2,5#幻光秘刃鬼爪提升2,1
+幻光秘刃幻光位移#3,4#幻光秘刃鬼爪提升2,1#[$tagrole:level$][&gt;=]5#Requer personagem no nível 5
+幻光秘刃幻光位移提升1#3,3#幻光秘刃幻光位移,1
+幻光秘刃幻光位移提升2#3,5#幻光秘刃幻光位移,1
+幻光秘刃幻光位移提升3#4,4#幻光秘刃幻光位移,1
+幻光秘刃闪身斩#5,3#幻光秘刃幻光位移提升3,1#[$tagrole:level$][&gt;=]9#Requer personagem no nível 9
+幻光秘刃闪身斩提升1#5,4#幻光秘刃闪身斩,1
+幻光秘刃闪身斩提升2#5,5#幻光秘刃闪身斩提升1,1
+幻光秘刃幻光三闪#6,5#幻光秘刃闪身斩提升2,1#[$tagrole:level$][&gt;=]12#Requer personagem no nível 12
+幻光秘刃幻光三闪提升1#6,4#幻光秘刃幻光三闪,1
+幻光秘刃幻光三闪提升2#6,3#幻光秘刃幻光三闪提升1,1</t>
+  </si>
+  <si>
+    <t>赏金猎人赏金契约#1,2
+赏金猎人赏金契约升级1#1,1#赏金猎人赏金契约,1#[$tagrole:level$][&gt;=]3#Requer personagem no nível 3
+赏金猎人赏金契约升级2#2,1#赏金猎人赏金契约升级1,1#[$tagrole:level$][&gt;=]6#Requer personagem no nível 6
+赏金猎人赏金契约升级3#3,1#赏金猎人赏金契约升级2,1#[$tagrole:level$][&gt;=]9#Requer personagem no nível 9
+赏金猎人赏金契约升级4#4,1#赏金猎人赏金契约升级3,1#[$tagrole:level$][&gt;=]12#Requer personagem no nível 12
+赏金猎人传奇赏金契约#5,1#赏金猎人赏金契约升级4,1#[$tagrole:level$][&gt;=]15#Requer personagem no nível 15
+赏金猎人赏金狂热#2,2##[$tagrole:level$][&gt;=]5#Requer personagem no nível 5
+赏金猎人赏金狂热强化1#3,2#赏金猎人赏金狂热,1#[$tagrole:level$][&gt;=]8#Requer personagem no nível 8
+赏金猎人赏金狂热强化2#4,2#赏金猎人赏金狂热强化1,1#[$tagrole:level$][&gt;=]10#Requer personagem no nível 10
+巨人重剑震击#1,4
+巨人重剑震击提升#1,5#巨人重剑震击,1
+巨人重剑力量提升#2,4#巨人重剑震击,1
+巨人重剑生命提升#2,5#巨人重剑力量提升,1
+巨人重剑生命提升2#2,6#巨人重剑生命提升,1
+巨人重剑巨人怒吼#3,4#巨人重剑力量提升,1#[$tagrole:level$][&gt;=]8#Requer personagem no nível 8
+巨人重剑巨人怒吼提升#3,5#巨人重剑巨人怒吼,1
+巨人重剑巨人降临#4,5#巨人重剑巨人怒吼,1#[$tagrole:level$][&gt;=]12#Requer personagem no nível 12
+巨人重剑巨人降临提升1#4,6#巨人重剑巨人降临,1
+巨人重剑巨人降临提升2#5,5#巨人重剑巨人降临,1</t>
+  </si>
+  <si>
+    <t>心灵巫术心灵魔弹#1,3
+心灵巫术心灵魔弹提升#1,2#心灵巫术心灵魔弹,1#[$tagrole:level$][&gt;=]2#Requer personagem no nível 2
+心灵巫术心灵魔弹强化#1,4#心灵巫术心灵魔弹,1#[$tagrole:level$][&gt;=]3#Requer personagem no nível 3
+心灵巫术精神提升#1,5#心灵巫术心灵魔弹强化,1#[$tagrole:level$][&gt;=]3#Requer personagem no nível 3
+心灵巫术气力提升#1,1#心灵巫术心灵魔弹提升,1#[$tagrole:level$][&gt;=]3#Requer personagem no nível 3
+心灵巫术魔影召唤#2,3##[$tagrole:level$][&gt;=]5#Requer personagem no nível 5
+心灵巫术魔影召唤强化#2,4#心灵巫术魔影召唤,1#[$tagrole:level$][&gt;=]8#Requer personagem no nível 8
+心灵巫术魔影召唤提升#2,5#心灵巫术魔影召唤强化,1
+心灵巫术法术强度强化4#2,2#心灵巫术魔影召唤,1
+心灵巫术时空裂隙#3,3##[$tagrole:level$][&gt;=]8#Requer personagem no nível 8
+心灵巫术时空裂隙强化1#3,2#心灵巫术时空裂隙,1
+心灵巫术时空裂隙强化2#3,1#心灵巫术时空裂隙强化1,1
+心灵巫术气力回复提升#3,4#心灵巫术时空裂隙,1
+心灵巫术冷却缩减#3,5#心灵巫术气力回复提升,1#[$tagrole:level$][&gt;=]12#Requer personagem no nível 12
+心灵巫师心灵之雷#5,3##[$tagrole:level$][&gt;=]15#Requer personagem no nível 15
+心灵巫术心灵之雷强化1#5,2#心灵巫师心灵之雷,1
+心灵巫术心灵之雷强化2#5,1#心灵巫术心灵之雷强化1,1
+心灵巫术心灵震爆#4,3##[$tagrole:level$][&gt;=]10#Requer personagem no nível 10
+心灵巫术心灵震爆强化#4,2#心灵巫术心灵震爆,1
+心灵巫术法术强度强化1#4,4#心灵巫术心灵震爆,1#[$tagrole:level$][&gt;=]10#Requer personagem no nível 10
+心灵巫术法术强度强化2#4,5#心灵巫术法术强度强化1,1#[$tagrole:level$][&gt;=]12#Requer personagem no nível 12
+心灵巫术法术强度强化3#5,5#心灵巫术法术强度强化2,1#[$tagrole:level$][&gt;=]14#Requer personagem no nível 14</t>
+  </si>
+  <si>
+    <t>卡塔拉秘刃幻刃#1,1
+卡塔拉秘刃冷刃#1,2#卡塔拉秘刃幻刃,1
+卡塔拉秘刃恶魔之刃#2,2#卡塔拉秘刃冷刃,1#[$tagrole:level$][&gt;=]5#Requer personagem no nível 5
+卡塔拉秘刃恶魔之刃提升#2,3#卡塔拉秘刃恶魔之刃,1
+卡塔拉秘刃威压#3,2#卡塔拉秘刃恶魔之刃,1#[$tagrole:level$][&gt;=]8#Requer personagem no nível 8
+卡塔拉秘刃威压提升#3,1#卡塔拉秘刃威压,1
+卡塔拉秘刃飞雨#4,2#卡塔拉秘刃威压,1#[$tagrole:level$][&gt;=]12#Requer personagem no nível 12
+卡塔拉秘刃幻刃提升#4,3#卡塔拉秘刃飞雨,1
+卡塔拉秘刃飞雨提升1#4,1#卡塔拉秘刃飞雨,1
+卡塔拉秘刃飞雨提升2#5,2#卡塔拉秘刃飞雨,1</t>
+  </si>
+  <si>
+    <t>野火刀术火刃#1,2
+野火刀术火刃提升#2,1#野火刀术火刃,1
+野火刀术攻击提升#2,2#野火刀术火刃,1
+野火刀术暴击提升#3,3#野火刀术攻击提升,1
+野火刀术烈火之誓#3,2#野火刀术攻击提升,1#[$tagrole:level$][&gt;=]5#Requer personagem no nível 5
+野火刀术烈火之誓提升#4,3#野火刀术烈火之誓,1
+野火刀术灰烬#4,1#野火刀术烈火之誓,1#[$tagrole:level$][&gt;=]12#Requer personagem no nível 12
+野火刀术灰烬提升#5,1#野火刀术灰烬,1
+野火刀术浴火#4,2#野火刀术烈火之誓,1#[$tagrole:level$][&gt;=]10#Requer personagem no nível 10
+野火刀术浴火提升#5,2#野火刀术浴火,1</t>
+  </si>
+  <si>
+    <t>翱翔之剑雷电#1,2
+翱翔之剑雷电提升#1,3#翱翔之剑雷电,1
+翱翔之剑比翼#2,2#翱翔之剑雷电,1#[$tagrole:level$][&gt;=]5#Requer personagem no nível 5
+翱翔之剑比翼提升#2,3#翱翔之剑比翼,1
+翱翔之剑风速#2,1#翱翔之剑比翼,1
+翱翔之剑气力提升#3,2#翱翔之剑比翼,1
+翱翔之剑暴击提升#3,3#翱翔之剑气力提升,1
+翱翔之剑逆风#3,1#翱翔之剑比翼,1#[$tagrole:level$][&gt;=]10#Requer personagem no nível 10
+翱翔之剑逆风提升#4,1#翱翔之剑逆风,1
+翱翔之剑翱翔#4,2#翱翔之剑气力提升,1#[$tagrole:level$][&gt;=]15#Requer personagem no nível 15
+翱翔之剑翱翔提升#5,2#翱翔之剑翱翔,1</t>
+  </si>
+  <si>
+    <t>赏金猎人赏金契约#1,1
+赏金猎人赏金契约升级1#2,1#赏金猎人赏金契约,1#[$tagrole:level$][&gt;=]3#Requer personagem no nível 3
+赏金猎人赏金契约升级2#3,1#赏金猎人赏金契约升级1,1#[$tagrole:level$][&gt;=]6#Requer personagem no nível 6
+赏金猎人赏金契约升级3#4,1#赏金猎人赏金契约升级2,1#[$tagrole:level$][&gt;=]9#Requer personagem no nível 9
+赏金猎人赏金契约升级4#5,1#赏金猎人赏金契约升级3,1#[$tagrole:level$][&gt;=]12#Requer personagem no nível 12
+赏金猎人传奇赏金契约#5,2#赏金猎人赏金契约升级4,1#[$tagrole:level$][&gt;=]15#Requer personagem no nível 15
+赏金猎人赏金狂热#1,4
+赏金猎人强化1#1,5#赏金猎人赏金狂热,1
+赏金猎人赏金狂热强化1#1,6#赏金猎人强化1,1#[$tagrole:level$][&gt;=]5#Requer personagem no nível 5
+赏金猎人强化2#1,3#赏金猎人赏金狂热,1
+赏金猎人赏金狂热强化2#1,2#赏金猎人强化2,1#[$tagrole:level$][&gt;=]8#Requer personagem no nível 8
+赏金猎人烟雾弹#2,4#赏金猎人赏金狂热,1
+赏金猎人烟雾弹强化1#2,5#赏金猎人烟雾弹,1
+赏金猎人烟雾弹强化2#2,6#赏金猎人烟雾弹强化1,1
+赏金猎人强化3#2,3#赏金猎人烟雾弹,1
+赏金猎人赏金标记新#3,4#赏金猎人烟雾弹,1
+赏金猎人赏金标记新强化1#3,5#赏金猎人赏金标记新,1#[$tagrole:level$][&gt;=]15#Requer personagem no nível 15
+赏金猎人钩镰#4,4#赏金猎人赏金标记新,1#[$tagrole:level$][&gt;=]8#Requer personagem no nível 8
+赏金猎人强化4#4,5#赏金猎人钩镰,1
+赏金猎人钩镰强化1#4,6#赏金猎人强化4,1
+赏金猎人钩镰强化2#4,3#赏金猎人钩镰,1
+赏金猎人快刃#5,4#赏金猎人钩镰,1#[$tagrole:level$][&gt;=]12#Requer personagem no nível 12
+赏金猎人快刃强化1#5,5#赏金猎人快刃,1
+赏金猎人快刃强化2#5,6#赏金猎人快刃强化1,1
+赏金猎人钩锁#9,9#赏金猎人赏金狂热,1
+赏金猎人钩锁强化1#9,10#赏金猎人钩锁,1
+赏金猎人钩锁强化2#9,11#赏金猎人钩锁强化1,1
+箭术火箭雨#9,12</t>
+  </si>
+  <si>
+    <t>暗月幽影暗月之刺#1,3
+暗月幽影暗月之刺强化1#1,2#暗月幽影暗月之刺,1#[$tagrole:level$][&gt;=]5#Requer personagem no nível 5
+暗月幽影暗月之刺强化2#1,4#暗月幽影暗月之刺,1#[$tagrole:level$][&gt;=]3#Requer personagem no nível 3
+暗月幽影暗月之刺强化3#1,5#暗月幽影暗月之刺强化2,1
+暗月幽影暗月闪耀#2,3#暗月幽影暗月之刺,1
+暗月幽影暗月闪耀强化1#2,2#暗月幽影暗月闪耀,1#[$tagrole:level$][&gt;=]8#Requer personagem no nível 8
+暗月幽影暗月闪耀强化2#2,1#暗月幽影暗月闪耀强化1,1
+暗月幽影暗月闪耀强化3#3,3#暗月幽影暗月闪耀,1
+暗月幽影幽影魔弹#4,3#暗月幽影暗月闪耀强化3,1#[$tagrole:level$][&gt;=]6#Requer personagem no nível 6
+暗月幽影幽影魔弹强化1#4,4#暗月幽影幽影魔弹,1#[$tagrole:level$][&gt;=]10#Requer personagem no nível 10
+暗月幽影幽影魔弹强化2#4,5#暗月幽影幽影魔弹强化1,1#[$tagrole:level$][&gt;=]10#Requer personagem no nível 10
+暗月幽影暗月群星#5,3#暗月幽影幽影魔弹,1#[$tagrole:level$][&gt;=]12#Requer personagem no nível 12
+暗月幽影暗月群星强化1#5,2#暗月幽影暗月群星,1
+暗月幽影暗月群星强化2#5,1#暗月幽影暗月群星强化1,1#[$tagrole:level$][&gt;=]15#Requer personagem no nível 15
+暗月幽影暗月群星强化3#5,4#暗月幽影暗月群星,1
+暗月幽影暗月群星强化4#5,5#暗月幽影暗月群星强化3,1#[$tagrole:level$][&gt;=]15#Requer personagem no nível 15</t>
+  </si>
+  <si>
+    <t>蛮力战士头槌#1,3
+蛮力战士头槌强化1#1,2#蛮力战士头槌,1
+蛮力战士头槌强化2#1,4#蛮力战士头槌,1
+蛮力战士头槌强化3#1,1#蛮力战士头槌强化1,1#[$tagrole:level$][&gt;=]5#Requer personagem no nível 5
+蛮力战士狂暴状态#2,3#蛮力战士头槌,1
+蛮力战士狂暴状态强化1#2,4#蛮力战士狂暴状态,1#[$tagrole:level$][&gt;=]5#Requer personagem no nível 5
+蛮力战士狂暴状态强化2#2,5#蛮力战士狂暴状态强化1,1#[$tagrole:level$][&gt;=]8#Requer personagem no nível 8
+蛮力战士狂暴状态强化3#2,1#蛮力战士狂暴状态,1#[$tagrole:level$][&gt;=]8#Requer personagem no nível 8
+蛮力战士跃斩#3,3#蛮力战士狂暴状态,1#[$tagrole:level$][&gt;=]8#Requer personagem no nível 8
+蛮力战士跃斩强化1#3,4#蛮力战士跃斩,1
+蛮力战士跃斩强化2#3,5#蛮力战士跃斩强化1,1
+蛮力战士跃斩强化3#3,2#蛮力战士跃斩,1#[$tagrole:level$][&gt;=]10#Requer personagem no nível 10
+蛮力战士野性之舞#4,3#蛮力战士跃斩,1#[$tagrole:level$][&gt;=]12#Requer personagem no nível 12
+蛮力战士野性之舞强化3#4,2#蛮力战士野性之舞,1
+蛮力战士野性之舞强化1#4,4#蛮力战士野性之舞,1
+蛮力战士野性之舞强化2#4,5#蛮力战士野性之舞强化1,1</t>
+  </si>
+  <si>
+    <t>蛮力战士长剑专精1#1,1
+蛮力战士长剑专精2#2,1#蛮力战士长剑专精1,1#[$tagrole:level$][&gt;=]5#Requer personagem no nível 5
+蛮力战士长剑专精3#3,1#蛮力战士长剑专精2,1#[$tagrole:level$][&gt;=]10#Requer personagem no nível 10
+蛮力战士弯刀专精1#1,2
+蛮力战士弯刀专精2#2,2#蛮力战士弯刀专精1,1#[$tagrole:level$][&gt;=]5#Requer personagem no nível 5
+蛮力战士弯刀专精3#3,2#蛮力战士弯刀专精2,1#[$tagrole:level$][&gt;=]10#Requer personagem no nível 10
+蛮力战士重锤专精1#1,3
+蛮力战士重锤专精2#2,3#蛮力战士重锤专精1,1#[$tagrole:level$][&gt;=]5#Requer personagem no nível 5
+蛮力战士重锤专精3#3,3#蛮力战士重锤专精2,1#[$tagrole:level$][&gt;=]10#Requer personagem no nível 10
+蛮力战士长杆专精1#1,4
+蛮力战士长杆专精2#2,4#蛮力战士长杆专精1,1#[$tagrole:level$][&gt;=]5#Requer personagem no nível 5
+蛮力战士长杆专精3#3,4#蛮力战士长杆专精2,1#[$tagrole:level$][&gt;=]10#Requer personagem no nível 10
+蛮力战士重武器专精1#1,5
+蛮力战士重武器专精2#2,5#蛮力战士重武器专精1,1#[$tagrole:level$][&gt;=]5#Requer personagem no nível 5
+蛮力战士重武器专精3#3,5#蛮力战士重武器专精2,1#[$tagrole:level$][&gt;=]10#Requer personagem no nível 10</t>
+  </si>
+  <si>
+    <t>铁甲卫士钩锁#1,3
+铁甲卫士钩锁强化1#1,2#铁甲卫士钩锁,1#[$tagrole:level$][&gt;=]5#Requer personagem no nível 5
+铁甲卫士钩锁强化2#1,1#铁甲卫士钩锁强化1,1#[$tagrole:level$][&gt;=]10#Requer personagem no nível 10
+铁甲卫士冲击波#2,3#铁甲卫士钩锁,1
+铁甲卫士冲击波强化1#2,4#铁甲卫士冲击波,1
+铁甲卫士冲击波强化2#2,5#铁甲卫士冲击波强化1,1
+铁甲卫士冲击波强化3#2,2#铁甲卫士冲击波,1
+铁甲卫士嘲讽#3,3#铁甲卫士冲击波,1#[$tagrole:level$][&gt;=]8#Requer personagem no nível 8
+铁甲卫士巨大化#4,3#铁甲卫士嘲讽,1#[$tagrole:level$][&gt;=]10#Requer personagem no nível 10
+铁甲卫士巨大化强化1#4,4#铁甲卫士巨大化,1
+铁甲卫士巨大化强化2#4,5#铁甲卫士巨大化强化1,1
+铁甲卫士震地#5,3#铁甲卫士巨大化,1#[$tagrole:level$][&gt;=]12#Requer personagem no nível 12
+铁甲卫士震地强化1#5,2#铁甲卫士震地,1
+铁甲卫士震地强化2#5,4#铁甲卫士震地,1#[$tagrole:level$][&gt;=]15#Requer personagem no nível 15</t>
+  </si>
+  <si>
+    <t>铁甲卫士盾击#1,3
+铁甲卫士盾击强化1#1,2#铁甲卫士盾击,1
+铁甲卫士盾击强化2#1,1#铁甲卫士盾击强化1,1
+铁甲卫士盾击强化3#1,4#铁甲卫士盾击,1#[$tagrole:level$][&gt;=]5#Requer personagem no nível 5
+铁甲卫士举盾冲锋#2,3#铁甲卫士盾击,1
+铁甲卫士举盾冲锋强化1#2,4#铁甲卫士举盾冲锋,1
+铁甲卫士举盾冲锋强化2#2,5#铁甲卫士举盾冲锋强化1,1
+铁甲卫士冲击波#3,3#铁甲卫士举盾冲锋,1#[$tagrole:level$][&gt;=]5#Requer personagem no nível 5
+铁甲卫士冲击波强化1#3,4#铁甲卫士冲击波,1
+铁甲卫士冲击波强化2#3,5#铁甲卫士冲击波强化1,1
+铁甲卫士冲击波强化3#3,6#铁甲卫士冲击波强化2,1#[$tagrole:level$][&gt;=]10#Requer personagem no nível 10
+铁甲卫士嘲讽图腾#4,2#铁甲卫士冲击波,1#[$tagrole:level$][&gt;=]8#Requer personagem no nível 8
+铁甲卫士嘲讽图腾强化1#4,1#铁甲卫士嘲讽图腾,1
+铁甲卫士嘲讽图腾强化2#3,1#铁甲卫士嘲讽图腾,1
+铁甲卫士震地#4,3#铁甲卫士冲击波,1#[$tagrole:level$][&gt;=]10#Requer personagem no nível 10
+铁甲卫士震地强化1#4,4#铁甲卫士震地,1
+铁甲卫士震地强化2#4,5#铁甲卫士震地强化1,1
+铁甲卫士震地强化3#4,6#铁甲卫士震地强化2,1
+铁甲卫士圣盾折返#5,3#铁甲卫士震地,1#[$tagrole:level$][&gt;=]12#Requer personagem no nível 12
+铁甲卫士圣盾强化1#5,2#铁甲卫士圣盾折返,1
+铁甲卫士圣盾强化2#5,1#铁甲卫士圣盾强化1,1
+铁甲卫士圣盾强化3#5,4#铁甲卫士圣盾折返,1#[$tagrole:level$][&gt;=]15#Requer personagem no nível 15</t>
+  </si>
+  <si>
+    <t>巨人重剑震击#1,2
+巨人重剑震击提升#1,3#巨人重剑震击,1
+巨人重剑力量提升#2,2#巨人重剑震击,1
+巨人重剑生命提升#2,3#巨人重剑力量提升,1
+巨人重剑生命提升2#2,4#巨人重剑生命提升,1
+巨人重剑巨人怒吼#3,2#巨人重剑力量提升,1#[$tagrole:level$][&gt;=]8#Requer personagem no nível 8
+巨人重剑巨人怒吼提升#3,3#巨人重剑巨人怒吼,1
+巨人重剑巨人降临#4,2#巨人重剑巨人怒吼,1#[$tagrole:level$][&gt;=]12#Requer personagem no nível 12
+巨人重剑巨人降临提升1#4,3#巨人重剑巨人降临,1
+巨人重剑巨人降临提升2#4,1#巨人重剑巨人降临,1</t>
+  </si>
+  <si>
+    <t>野兽血脉变狼#1,1
+野兽血脉强壮体魄#1,2#野兽血脉变狼,1
+野兽血脉狼嚎#2,2#野兽血脉强壮体魄,1
+野兽血脉野狼强化#3,1#野兽血脉狼嚎,1
+野兽血脉野狼光环#3,3#野兽血脉狼嚎,1
+野兽血脉敏捷步法#3,2#野兽血脉狼嚎,1
+野兽血脉闪电#4,2#野兽血脉敏捷步法,1
+野兽血脉变鹰#4,1#野兽血脉闪电,1#[$tagrole:level$][&gt;=]8#Requer personagem no nível 8
+野兽血脉飞鹰强化#5,1#野兽血脉变鹰,1
+野兽血脉飞鹰光环#5,2#野兽血脉变鹰,1
+野兽血脉火龙#2,4##[$tagrole:level$][&gt;=]12#Requer personagem no nível 12
+野兽血脉火龙强化#3,4#野兽血脉火龙,1
+野兽血脉火龙燃烧光环#4,4#野兽血脉火龙,1
+野兽血脉火龙暴击光环#5,4#野兽血脉火龙,1</t>
+  </si>
+  <si>
+    <t>巨龙血脉#1,6##[%get_es:野兽血脉主线913%][&lt;&gt;]-1#Activate Dragon Strength in campaign to unlock
+野性之魂野性扑击#1,3
+野性之魂野性扑击强化1#1,2#野性之魂野性扑击,1
+野性之魂野性扑击强化2#1,4#野性之魂野性扑击,1
+野性之魂野性扑击强化3#1,1#野性之魂野性扑击强化1,1
+野性之魂野性撕咬#2,3#野性之魂野性扑击,1
+野性之魂野性撕咬强化1#2,2#野性之魂野性撕咬,1
+野性之魂狂暴之唤#3,3#野性之魂野性撕咬,1#[$tagrole:level$][&gt;=]5#Requer personagem no nível 5
+野性之魂狂暴之唤强化1#3,4#野性之魂狂暴之唤,1
+野性之魂狂暴之唤强化2#3,2#野性之魂狂暴之唤,1
+野性之魂狂暴之唤强化3#3,5#野性之魂狂暴之唤强化1,1
+野性之魂野性嚎叫#4,3#野性之魂狂暴之唤,1#[$tagrole:level$][&gt;=]8#Requer personagem no nível 8
+野性之魂野性嚎叫强化1#4,2#野性之魂野性嚎叫,1
+野性之魂野性嚎叫强化2#4,1#野性之魂野性嚎叫强化1,1
+野性之魂百万野兽冲击#5,3#野性之魂野性嚎叫,1#[$tagrole:level$][&gt;=]12#Requer personagem no nível 12
+野性之魂百万野兽冲击强化1#5,4#野性之魂百万野兽冲击,1
+野性之魂百万野兽冲击强化2#5,5#野性之魂百万野兽冲击强化1,1</t>
+  </si>
+  <si>
+    <t>枪术刺击#1,2
+枪术刺击提升#1,1#枪术刺击,1
+枪术振奋#1,3#枪术刺击,1
+枪术三连刺#2,2#枪术刺击,1#[$tagrole:level$][&gt;=]5#Requer personagem no nível 5
+枪术格挡提升#3,1#枪术三连刺,1
+枪术霸体#4,1#枪术格挡提升,1#[$tagrole:level$][&gt;=]8#Requer personagem no nível 8
+枪术霸体提升#5,1#枪术霸体,1
+枪术防御提升#3,3#枪术三连刺,1
+枪术枪阵#4,3#枪术防御提升,1#[$tagrole:level$][&gt;=]12#Requer personagem no nível 12
+枪术枪阵提升#5,3#枪术枪阵,1
+枪术力量提升#3,2#枪术三连刺,1
+枪术狂风#4,2#枪术力量提升,1#[$tagrole:level$][&gt;=]12#Requer personagem no nível 12
+枪术狂风提升#5,2#枪术狂风,1</t>
+  </si>
+  <si>
+    <t>铁匠之怒抡击#1,2
+铁匠之怒抡击提升#1,1#铁匠之怒抡击,1
+铁匠之怒力量提升#2,2#铁匠之怒抡击,1
+铁匠之怒力量提升2#2,3#铁匠之怒抡击,1
+铁匠之怒震击#3,2#铁匠之怒力量提升,1#[$tagrole:level$][&gt;=]8#Requer personagem no nível 8
+铁匠之怒震击提升#4,3#铁匠之怒震击,1
+铁匠之怒淬火#4,2#铁匠之怒震击,1#[$tagrole:level$][&gt;=]10#Requer personagem no nível 10
+铁匠之怒淬火提升#5,2#铁匠之怒淬火,1</t>
+  </si>
+  <si>
+    <t>英雄双段斩#1,1
+英雄双段斩强化1#1,2#英雄双段斩,1
+英雄双段斩强化2#1,3#英雄双段斩强化1,1#[$tagrole:level$][&gt;=]5#Requer personagem no nível 5
+英雄空息斩#2,1#英雄双段斩,1#[$tagrole:level$][&gt;=]8#Requer personagem no nível 8
+英雄空息斩强化1#2,2#英雄空息斩,1
+英雄空息斩强化2#2,3#英雄空息斩强化1,1
+英雄旋风斩#3,1#英雄空息斩,1#[$tagrole:level$][&gt;=]10#Requer personagem no nível 10
+英雄旋风斩强化1#3,2#英雄旋风斩,1
+英雄瞬杀#4,1#英雄旋风斩,1#[$tagrole:level$][&gt;=]12#Requer personagem no nível 12
+英雄瞬杀强化1#4,2#英雄瞬杀,1
+英雄瞬杀强化2#4,3#英雄瞬杀强化1,1
+英雄天煞#5,1#英雄瞬杀,1#[$tagrole:level$][&gt;=]15#Requer personagem no nível 15
+英雄天煞强化1#5,2#英雄天煞,1
+英雄天煞强化2#5,3#英雄天煞强化1,1
+英雄天煞强化3#6,1#英雄天煞强化2,1
+英雄气裂扫#1,5
+英雄气裂扫强化1#2,5#英雄气裂扫,1
+英雄剑誓#3,5#英雄气裂扫,1#[$tagrole:level$][&gt;=]5#Requer personagem no nível 5</t>
+  </si>
+  <si>
+    <t>箭术连珠#1,1
+箭术穿云#1,2
+箭术五枝#1,3
+箭术专注#2,2#箭术穿云,1
+箭术灵巧#3,1#箭术专注,1
+箭术满弦#3,2#箭术专注,1
+箭术呼吸#3,3#箭术专注,1
+箭术火箭爆炸#4,1#箭术灵巧,1#[$tagrole:level$][&gt;=]10#Requer personagem no nível 10
+箭术冻气五枝#4,3#箭术呼吸,1#[$tagrole:level$][&gt;=]10#Requer personagem no nível 10
+箭术火箭雨#5,1#箭术火箭爆炸,1#[$tagrole:level$][&gt;=]15#Requer personagem no nível 15
+箭术冰箭雨#5,3#箭术冻气五枝,1#[$tagrole:level$][&gt;=]15#Requer personagem no nível 15</t>
+  </si>
+  <si>
+    <t>近战冲锋震退#1,2
+近战冲锋震退强化#1,3#近战冲锋震退,1
+近战冲锋力量强化1#2,2#近战冲锋震退,1
+近战冲锋力量强化2#2,1#近战冲锋力量强化1,1#[$tagrole:level$][&gt;=]3#Requer personagem no nível 3
+近战冲锋力量强化3#3,1#近战冲锋力量强化2,1#[$tagrole:level$][&gt;=]5#Requer personagem no nível 5
+近战冲锋力量强化4#3,2#近战冲锋力量强化3,1#[$tagrole:level$][&gt;=]7#Requer personagem no nível 7
+近战冲锋力量强化5#4,2#近战冲锋力量强化4,1#[$tagrole:level$][&gt;=]10#Requer personagem no nível 10
+近战冲锋力量强化6#4,1#近战冲锋力量强化5,1#[$tagrole:level$][&gt;=]12#Requer personagem no nível 12
+近战冲锋大地震撼#5,1#近战冲锋力量强化6,1
+近战冲锋大地震撼强化#5,2#近战冲锋大地震撼,1
+近战冲锋敏捷强化1#1,4
+近战冲锋敏捷强化2#2,4#近战冲锋敏捷强化1,1#[$tagrole:level$][&gt;=]5#Requer personagem no nível 5
+近战冲锋敏捷强化3#2,5#近战冲锋敏捷强化2,1#[$tagrole:level$][&gt;=]10#Requer personagem no nível 10
+近战冲锋跃击#3,5#近战冲锋敏捷强化3,1
+近战冲锋跃击强化#3,4#近战冲锋跃击,1
+近战冲锋野蛮冲撞#3,3#近战冲锋力量强化5,1|近战冲锋敏捷强化2,1
+近战冲锋野蛮冲撞强化#4,3#近战冲锋野蛮冲撞,1</t>
+  </si>
+  <si>
+    <t>近战护卫头槌#1,2
+近战护卫头槌强化#1,3#近战护卫头槌,1
+近战护卫耐力强化1#2,2#近战护卫头槌,1
+近战护卫耐力强化2#2,1#近战护卫耐力强化1,1#[$tagrole:level$][&gt;=]3#Requer personagem no nível 3
+近战护卫耐力强化3#3,1#近战护卫耐力强化2,1#[$tagrole:level$][&gt;=]5#Requer personagem no nível 5
+近战护卫耐力强化4#3,2#近战护卫耐力强化3,1#[$tagrole:level$][&gt;=]7#Requer personagem no nível 7
+近战护卫耐力强化5#4,2#近战护卫耐力强化4,1#[$tagrole:level$][&gt;=]10#Requer personagem no nível 10
+近战护卫耐力强化6#4,1#近战护卫耐力强化5,1#[$tagrole:level$][&gt;=]12#Requer personagem no nível 12
+近战护卫霸体#5,1#近战护卫耐力强化6,1
+近战护卫霸体强化#5,2#近战护卫霸体,1
+近战护卫臂力强化1#1,4
+近战护卫臂力强化2#2,4#近战护卫臂力强化1,1#[$tagrole:level$][&gt;=]5#Requer personagem no nível 5
+近战护卫臂力强化3#2,5#近战护卫臂力强化2,1#[$tagrole:level$][&gt;=]10#Requer personagem no nível 10
+近战护卫咆哮#3,5#近战护卫臂力强化3,1
+近战护卫咆哮强化#3,4#近战护卫咆哮,1
+近战护卫嘲讽#3,3#近战护卫耐力强化5,1|近战护卫臂力强化2,1
+近战护卫嘲讽强化#4,3#近战护卫嘲讽,1</t>
+  </si>
+  <si>
+    <t>近战狂战士闪身斩#1,2
+近战狂战士闪身斩强化#1,3#近战狂战士闪身斩,1
+近战狂战士敏捷强化1#1,1#近战狂战士闪身斩,1
+近战狂战士敏捷强化2#2,1#近战狂战士敏捷强化1,1#[$tagrole:level$][&gt;=]3#Requer personagem no nível 3
+近战狂战士敏捷强化3#2,2#近战狂战士敏捷强化2,1#[$tagrole:level$][&gt;=]5#Requer personagem no nível 5
+近战狂战士敏捷强化4#3,2#近战狂战士敏捷强化3,1#[$tagrole:level$][&gt;=]7#Requer personagem no nível 7
+近战狂战士敏捷强化5#3,1#近战狂战士敏捷强化4,1#[$tagrole:level$][&gt;=]10#Requer personagem no nível 10
+近战狂战士敏捷强化6#4,1#近战狂战士敏捷强化5,1#[$tagrole:level$][&gt;=]12#Requer personagem no nível 12
+近战狂战士刀舞#5,2#近战狂战士敏捷强化6,1
+近战狂战士刀舞强化#5,1#近战狂战士刀舞,1
+近战狂战士力量强化1#2,4
+近战狂战士力量强化2#3,4#近战狂战士力量强化1,1#[$tagrole:level$][&gt;=]5#Requer personagem no nível 5
+近战狂战士力量强化3#4,4#近战狂战士力量强化2,1#[$tagrole:level$][&gt;=]10#Requer personagem no nível 10
+近战狂战士气裂斩#5,4#近战狂战士力量强化3,1
+近战狂战士气裂斩强化#5,5#近战狂战士气裂斩,1
+近战狂战士吸血斩#4,3#近战狂战士敏捷强化5,1|近战狂战士力量强化2,1
+近战狂战士吸血斩强化#5,3#近战狂战士吸血斩,1</t>
+  </si>
+  <si>
+    <t>辅助力量提升1#1,1
+辅助力量提升2#2,1#辅助力量提升1,1
+辅助力量提升3#3,1#辅助力量提升2,1#[$tagrole:level$][&gt;=]5#Requer personagem no nível 5
+辅助力量提升4#4,1#辅助力量提升3,1#[$tagrole:level$][&gt;=]7#Requer personagem no nível 7
+辅助力量提升5#5,1#辅助力量提升4,1#[$tagrole:level$][&gt;=]9#Requer personagem no nível 9
+辅助力量巨力#6,1#辅助力量提升5,1#[$tagrole:level$][&gt;=]12#Requer personagem no nível 12</t>
+  </si>
+  <si>
+    <t>辅助灵巧提升1#1,1
+辅助灵巧提升2#2,1#辅助灵巧提升1,1
+辅助灵巧提升3#3,1#辅助灵巧提升2,1#[$tagrole:level$][&gt;=]5#Requer personagem no nível 5
+辅助灵巧提升4#4,1#辅助灵巧提升3,1#[$tagrole:level$][&gt;=]7#Requer personagem no nível 7
+辅助灵巧提升5#5,1#辅助灵巧提升4,1#[$tagrole:level$][&gt;=]9#Requer personagem no nível 9
+辅助灵巧闪避#6,1#辅助灵巧提升5,1#[$tagrole:level$][&gt;=]12#Requer personagem no nível 12</t>
+  </si>
+  <si>
+    <t>辅助暴击提升1#1,1
+辅助暴击提升2#2,1#辅助暴击提升1,1
+辅助暴击提升3#3,1#辅助暴击提升2,1#[$tagrole:level$][&gt;=]5#Requer personagem no nível 5
+辅助暴击提升4#4,1#辅助暴击提升3,1#[$tagrole:level$][&gt;=]7#Requer personagem no nível 7
+辅助暴击提升5#5,1#辅助暴击提升4,1#[$tagrole:level$][&gt;=]9#Requer personagem no nível 9
+辅助暴击狂暴#6,1#辅助暴击提升5,1#[$tagrole:level$][&gt;=]12#Requer personagem no nível 12</t>
+  </si>
+  <si>
+    <t>辅助耐力提升1#1,1
+辅助耐力提升2#2,1#辅助耐力提升1,1
+辅助耐力提升3#3,1#辅助耐力提升2,1#[$tagrole:level$][&gt;=]5#Requer personagem no nível 5
+辅助耐力提升4#4,1#辅助耐力提升3,1#[$tagrole:level$][&gt;=]7#Requer personagem no nível 7
+辅助耐力提升5#5,1#辅助耐力提升4,1#[$tagrole:level$][&gt;=]9#Requer personagem no nível 9
+辅助耐力坚实#6,1#辅助耐力提升5,1#[$tagrole:level$][&gt;=]12#Requer personagem no nível 12</t>
+  </si>
+  <si>
+    <t>辅助精神提升1#1,1
+辅助精神提升2#2,1#辅助精神提升1,1
+辅助精神提升3#3,1#辅助精神提升2,1#[$tagrole:level$][&gt;=]5#Requer personagem no nível 5
+辅助精神提升4#4,1#辅助精神提升3,1#[$tagrole:level$][&gt;=]7#Requer personagem no nível 7
+辅助精神提升5#5,1#辅助精神提升4,1#[$tagrole:level$][&gt;=]9#Requer personagem no nível 9
+辅助精神神秘#6,1#辅助精神提升5,1#[$tagrole:level$][&gt;=]12#Requer personagem no nível 12</t>
+  </si>
+  <si>
+    <t>心灵巫术恐惧魔弹#1,3
+心灵巫术恐惧魔弹提升3#1,4#心灵巫术恐惧魔弹,1
+心灵巫术恐惧魔弹提升1#1,2#心灵巫术恐惧魔弹,1
+心灵巫术恐惧魔弹提升2#1,1#心灵巫术恐惧魔弹提升1,1
+心灵巫术蛊惑#2,3#心灵巫术恐惧魔弹,1#[$tagrole:level$][&gt;=]5#Requer personagem no nível 5
+心灵巫术蛊惑提升1#2,4#心灵巫术蛊惑,1
+心灵巫术蛊惑提升2#2,2#心灵巫术蛊惑,1
+心灵巫术蛊惑提升3#2,1#心灵巫术蛊惑提升2,1
+心灵巫术魅影#3,3#心灵巫术蛊惑,1#[$tagrole:level$][&gt;=]8#Requer personagem no nível 8
+心灵巫术魅影提升1#3,2#心灵巫术魅影,1
+心灵巫术魅影提升2#3,1#心灵巫术魅影提升1,1
+心灵巫师心灵扼制#4,3#心灵巫术魅影,1#[$tagrole:level$][&gt;=]10#Requer personagem no nível 10
+心灵巫师心灵扼制提升1#4,2#心灵巫师心灵扼制,1
+心灵巫师心灵扼制提升2#4,1#心灵巫师心灵扼制提升1,1
+心灵巫术心魔回收#4,4#心灵巫师心灵扼制,1#[$tagrole:level$][&gt;=]10#Requer personagem no nível 10
+心灵巫术心魔震爆#5,3#心灵巫师心灵扼制,1#[$tagrole:level$][&gt;=]15#Requer personagem no nível 15
+心灵巫术心魔震爆提升1#5,4#心灵巫术心魔震爆,1
+心灵巫术心魔震爆提升2#5,5#心灵巫术心魔震爆提升1,1
+心灵巫术心魔震爆提升3#5,6#心灵巫术心魔震爆提升2,1</t>
+  </si>
+  <si>
+    <t>剑豪三段斩#1,1
+剑豪三段斩升华1#2,1#剑豪三段斩,1
+剑豪疾影步#3,1
+剑豪疾影步升华2#4,1#剑豪疾影步,1
+剑豪破空落刃#1,3
+剑豪破空落刃升华1#2,3#剑豪破空落刃,1
+剑豪破空落刃升华2#3,3#剑豪破空落刃升华1,1
+剑豪分影斩#4,2##[$tagrole:level$][&gt;=]3#Requer personagem no nível 3
+剑豪分影斩升华1#5,2#剑豪分影斩,1
+剑豪见切#4,3##[$tagrole:level$][&gt;=]6#Requer personagem no nível 6
+剑豪见切升华#5,3#剑豪见切,1
+剑豪寒牙突#5,1##[$tagrole:level$][&gt;=]9#Requer personagem no nível 9
+剑豪寒牙突升华1#7,1#剑豪寒牙突,1
+剑豪真蓄斩#5,4##[$tagrole:level$][&gt;=]9#Requer personagem no nível 9
+剑豪真蓄斩提升真蓄闪#6,4#剑豪真蓄斩,1
+剑豪心眼#1,2
+剑豪心眼提升#3,2#剑豪心眼,1
+剑豪行云流水#2,4
+剑豪行云流水提升#4,4#剑豪行云流水,1
+剑豪天霸摧星#6,2##[$tagrole:level$][&gt;=]12#Requer personagem no nível 12
+剑豪天霸摧星升华1#7,2#剑豪天霸摧星,1
+剑豪极我流#7,3##[$tagrole:level$][&gt;=]15#Requer personagem no nível 15</t>
+  </si>
+  <si>
+    <t>NEW心灵魔弹#1,1
+NEW心灵魔弹提升#2,1#NEW心灵魔弹,3
+NEW心灵魔弹强化#4,1#NEW心灵魔弹提升,1
+NEW心灵魔弹升华#5,1#NEW心灵魔弹强化,1
+NEW心灵巫术穿透#6,1##[$tagrole:level$][&gt;=]9#Requer personagem no nível 9
+NEW心灵时空裂隙#2,2##[$tagrole:level$][&gt;=]6#Requer personagem no nível 6
+NEW心灵时空裂隙提升#3,2#NEW心灵时空裂隙,1
+NEW心灵时空裂隙强化#5,2#NEW心灵时空裂隙提升,1
+NEW心灵超导#6,2##[$tagrole:level$][&gt;=]12#Requer personagem no nível 12
+NEW心灵魔影召唤#1,3##[$tagrole:level$][&gt;=]3#Requer personagem no nível 3
+NEW心灵魔影强化#3,3#NEW心灵魔影召唤,3
+NEW心灵狂热魔影#4,3#NEW心灵魔影强化,1
+NEW心灵震爆#5,3##[$tagrole:level$][&gt;=]9#Requer personagem no nível 9
+NEW心灵震爆提升#6,3#NEW心灵震爆,3
+NEW心灵冷却缩减#1,4##[$tagrole:level$][&gt;=]3#Requer personagem no nível 3
+NEW心灵气力提升#2,4##[$tagrole:level$][&gt;=]6#Requer personagem no nível 6
+NEW心灵导师#3,4##[$tagrole:level$][&gt;=]8#Requer personagem no nível 8
+NEW心灵之雷#4,4##[$tagrole:level$][&gt;=]9#Requer personagem no nível 9
+NEW心灵之雷提升#5,4#NEW心灵之雷,3
+NEW心灵之雷强化#6,4#NEW心灵之雷提升,1
+NEW心灵大师#7,2##[$tagrole:level$][&gt;=]12#Requer personagem no nível 12
+NEW心灵魔甲#7,4##[$tagrole:level$][&gt;=]20#Requer personagem no nível 20</t>
+  </si>
+  <si>
+    <t>NEW赏金猎人赏金狂热#1,1
+NEW赏金猎人赏金狂热提升#2,1#NEW赏金猎人赏金狂热,3
+NEW赏金猎人赏金狂热强化#4,1#NEW赏金猎人赏金狂热提升,1
+NEW赏金猎人识破弱点#5,1#NEW赏金猎人赏金狂热强化,1
+NEW赏金猎人绝命谈判#1,4##[$tagrole:level$][&gt;=]3#Requer personagem no nível 3
+NEW赏金猎人开火#3,4#NEW赏金猎人绝命谈判,3
+NEW赏金猎人残忍无情#5,4#NEW赏金猎人开火,1
+NEW赏金猎人烟雾弹#2,2##[$tagrole:level$][&gt;=]6#Requer personagem no nível 6
+NEW赏金猎人烟雾弹治疗烟雾#3,2#NEW赏金猎人烟雾弹,3
+NEW赏金猎人烟雾弹延迟火药#5,2#NEW赏金猎人烟雾弹治疗烟雾,1
+NEW赏金猎人狩猎快感#6,2#NEW赏金猎人烟雾弹延迟火药,1
+NEW赏金指挥#2,3##[$tagrole:level$][&gt;=]8#Requer personagem no nível 8
+NEW赏金猎人赏金标记#3,3##[$tagrole:level$][&gt;=]9#Requer personagem no nível 9
+NEW赏金猎人撕裂伤口#4,3#NEW赏金猎人赏金标记,1
+NEW赏金快刃#5,3##[$tagrole:level$][&gt;=]12#Requer personagem no nível 12
+NEW赏金精心准备#6,3#NEW赏金快刃,3
+NEW赏金巫术回刃#7,3#NEW赏金精心准备,1</t>
+  </si>
+  <si>
+    <t>NEW圣灵破邪斩#1,1
+NEW圣灵强力破邪斩#2,1#NEW圣灵破邪斩,3
+NEW圣灵驱魔之剑#4,1#NEW圣灵强力破邪斩,1
+NEW圣灵圣灵铠甲#5,1#NEW圣灵驱魔之剑,1
+NEW圣灵刀刃之环#1,3
+NEW圣灵圣甲之环#2,3##[$tagrole:level$][&gt;=]3#Requer personagem no nível 3
+NEW圣灵冷静之环#3,3##[$tagrole:level$][&gt;=]6#Requer personagem no nível 6
+NEW圣灵之盾#3,4##[$tagrole:level$][&gt;=]6#Requer personagem no nível 8
+NEW圣灵激战之环#4,3##[$tagrole:level$][&gt;=]12#Requer personagem no nível 12
+NEW圣灵审判#3,2##[$tagrole:level$][&gt;=]9#Requer personagem no nível 9
+NEW圣灵先祖审判#5,2#NEW圣灵审判,3
+NEW圣灵光环大师#6,2##[$tagrole:level$][&gt;=]12#Requer personagem no nível 12
+NEW圣灵圣灵护佑#5,3##[$tagrole:level$][&gt;=]12#Requer personagem no nível 12
+NEW圣灵虔诚之辉#5,4##[$tagrole:level$][&gt;=]12#Requer personagem no nível 12
+NEW圣灵圣剑加持#6,3##[$tagrole:level$][&gt;=]15#Requer personagem no nível 15
+NEW圣剑光辉#7,3#NEW圣灵圣剑加持,1</t>
+  </si>
+  <si>
+    <t>NEW野性之魂扑击#1,1
+NEW野性之魂撕咬#1,2
+NEW野性之魂狂野生长#1,3##[$tagrole:level$][&gt;=]5#Requer personagem no nível 5
+NEW野性之魂魔狼形态#2,1##[$tagrole:level$][&gt;=]3#Requer personagem no nível 3
+NEW野性之魂魔狼之啮#3,1#NEW野性之魂魔狼形态,1
+NEW野性之魂狼性之魂#4,1#NEW野性之魂魔狼之啮,1
+NEW野性之魂蜘蛛形态#2,2##[$tagrole:level$][&gt;=]6#Requer personagem no nível 6
+NEW野性之魂吸血蜘蛛#3,2#NEW野性之魂蜘蛛形态,1
+NEW野性之魂蜘蛛之魂#4,2#NEW野性之魂吸血蜘蛛,1
+NEW野性之魂变形精通#1,4##[$tagrole:level$][&gt;=]6#Requer personagem no nível 6
+NEW野性之魂巨鹰形态#2,3##[$tagrole:level$][&gt;=]9#Requer personagem no nível 9
+NEW野性之巨鹰优雅#3,3#NEW野性之魂巨鹰形态,1
+NEW野性之魂巨鹰之魂#4,3#NEW野性之巨鹰优雅,1
+NEW野性之魂变形大师#7,2##[$tagrole:level$][&gt;=]20#Requer personagem no nível 20
+NEW野性之魂巨龙形态#3,4##[$tagrole:level$][&gt;=]20#Requer personagem no nível 20
+NEW野性之巨龙威严#4,4#NEW野性之魂巨龙形态,1
+NEW野性之魂巨龙之魂#5,4#NEW野性之巨龙威严,1
+NEW野性之魂野性杀戮#7,4##[$tagrole:level$][&gt;=]12#Requer personagem no nível 12</t>
+  </si>
+  <si>
+    <t>NEW心灵女巫恐惧魔弹#1,1
+NEW心灵女巫恐惧魔弹提升#3,1#NEW心灵女巫恐惧魔弹,3
+NEW心灵女巫恐惧魔弹强化#4,1#NEW心灵女巫恐惧魔弹提升,1
+NEW心灵女巫蛊惑#1,3##[$tagrole:level$][&gt;=]3#Requer personagem no nível 3
+NEW心灵女巫蛊惑提升#3,3#NEW心灵女巫蛊惑,3
+NEW心灵女巫蛊惑强化#4,3#NEW心灵女巫蛊惑提升,1
+NEW心灵女巫魅影#5,2##[$tagrole:level$][&gt;=]12#Requer personagem no nível 12
+NEW心灵女巫魅影提升#6,2#NEW心灵女巫魅影,3
+NEW心灵女巫魅影强化#7,2#NEW心灵女巫魅影提升,1
+NEW心灵女巫心灵扼制#2,2##[$tagrole:level$][&gt;=]6#Requer personagem no nível 6
+NEW心灵女巫心灵扼制提升#4,2#NEW心灵女巫心灵扼制,3
+NEW心灵女巫心魔震爆#5,1##[$tagrole:level$][&gt;=]9#Requer personagem no nível 9
+NEW心灵女巫心灵冷却#5,4##[$tagrole:level$][&gt;=]9#Requer personagem no nível 9
+NEW心灵女巫心灵气力#2,4##[$tagrole:level$][&gt;=]6#Requer personagem no nível 6
+NEW女巫秘术#3,4##[$tagrole:level$][&gt;=]8#Requer personagem no nível 8
+NEW心灵女巫心魔回收#5,3##[$tagrole:level$][&gt;=]9#Requer personagem no nível 9
+NEW心灵女巫终场演出#7,3#NEW心灵女巫心魔回收,3#[$tagrole:level$][&gt;=]15#Requer personagem no nível 15</t>
+  </si>
+  <si>
+    <t>NEW蛮力战士狂暴状态#1,1
+NEW蛮力战士狂暴状态强化1#1,2#NEW蛮力战士狂暴状态,1
+NEW蛮力战士狂暴状态强化2#1,3#NEW蛮力战士狂暴状态强化1,1#[$tagrole:level$][&gt;=]4#Requer personagem no nível 4
+NEW蛮力战士狂暴状态强化3#1,4#NEW蛮力战士狂暴状态强化2,1#[$tagrole:level$][&gt;=]8#Requer personagem no nível 8
+NEW蛮力战士狂暴状态强化4#2,4#NEW蛮力战士狂暴状态强化3,1#[$tagrole:level$][&gt;=]12#Requer personagem no nível 12
+NEW蛮力征服#2,1
+NEW蛮力战士斗殴专精#4,1
+NEW蛮力战士斗殴大师#5,1#NEW蛮力战士斗殴专精,1#[$tagrole:level$][&gt;=]3#Requer personagem no nível 3
+NEW蛮力战士气震波#7,1#NEW蛮力战士斗殴大师,1#[$tagrole:level$][&gt;=]9#Requer personagem no nível 9
+NEW蛮力战士劈砍专精#4,2
+NEW蛮力战士劈砍大师#5,2#NEW蛮力战士劈砍专精,1#[$tagrole:level$][&gt;=]3#Requer personagem no nível 3
+NEW蛮力战士锋刃#7,2#NEW蛮力战士劈砍大师,1#[$tagrole:level$][&gt;=]9#Requer personagem no nível 9
+NEW蛮力战士钝击专精#4,3
+NEW蛮力战士钝击大师#5,3#NEW蛮力战士钝击专精,1#[$tagrole:level$][&gt;=]3#Requer personagem no nível 3
+NEW蛮力战士锤击#7,3#NEW蛮力战士钝击大师,1#[$tagrole:level$][&gt;=]9#Requer personagem no nível 9
+NEW蛮力战士穿刺专精#4,4
+NEW蛮力战士穿刺大师#5,4#NEW蛮力战士穿刺专精,1#[$tagrole:level$][&gt;=]3#Requer personagem no nível 3
+NEW蛮力战士穿甲精通#7,4#NEW蛮力战士穿刺大师,1#[$tagrole:level$][&gt;=]9#Requer personagem no nível 9</t>
+  </si>
+  <si>
+    <t>T狂风落#1,2
+T气旋斩#3,2#T狂风落,1#[$tagrole:level$][&gt;=]3#Requer personagem no nível 3
+T飓风舞#5,2#T气旋斩,1#[$tagrole:level$][&gt;=]6#Requer personagem no nível 6
+T剑术精通狂风#1,3
+T轻舞#2,3##[$tagrole:level$][&gt;=]3#Requer personagem no nível 3</t>
+  </si>
+  <si>
+    <t>T疾突剑#1,2
+T秘法剑#3,2#T疾突剑,1#[$tagrole:level$][&gt;=]3#Requer personagem no nível 3
+T光冕剑#5,2#T秘法剑,1#[$tagrole:level$][&gt;=]6#Requer personagem no nível 6
+T剑术精通宫廷#1,3
+T王者之气#3,3##[$tagrole:level$][&gt;=]6#Requer personagem no nível 6
+T宫廷剑使#5,3##[$tagrole:level$][&gt;=]9#Requer personagem no nível 9</t>
+  </si>
+  <si>
+    <t>T气刃剑#1,2
+T柄击#3,2#T气刃剑,1#[$tagrole:level$][&gt;=]3#Requer personagem no nível 3
+T天煞#5,2#T柄击,1#[$tagrole:level$][&gt;=]6#Requer personagem no nível 6
+T剑术精通游民#1,3
+T生存之道#3,3##[$tagrole:level$][&gt;=]3#Requer personagem no nível 3
+T狡诈#5,3##[$tagrole:level$][&gt;=]9#Requer personagem no nível 9</t>
+  </si>
+  <si>
+    <t>T狂暴斩#1,2
+T吸血刃#3,2#T狂暴斩,1#[$tagrole:level$][&gt;=]3#Requer personagem no nível 3
+T月夜魔刃#5,2#T吸血刃,1#[$tagrole:level$][&gt;=]6#Requer personagem no nível 6
+T刀术精通嗜血#1,3
+T饮血#2,3##[$tagrole:level$][&gt;=]6#Requer personagem no nível 6</t>
+  </si>
+  <si>
+    <t>T火刃#1,2
+T焰闪#3,2#T火刃,1#[$tagrole:level$][&gt;=]3#Requer personagem no nível 3
+T灰烬#5,2#T焰闪,1#[$tagrole:level$][&gt;=]6#Requer personagem no nível 6
+T刀术精通野火#1,3
+T附炎#2,3##[$tagrole:level$][&gt;=]6#Requer personagem no nível 6</t>
+  </si>
+  <si>
+    <t>T抡击#1,2
+T震击#3,2#T抡击,1#[$tagrole:level$][&gt;=]3#Requer personagem no nível 3
+T冲击波#5,2#T震击,1#[$tagrole:level$][&gt;=]6#Requer personagem no nível 6
+T锤术精通铁匠#1,3
+T冶铁学#3,3##[$tagrole:level$][&gt;=]3#Requer personagem no nível 3
+T体魄强化#5,3##[$tagrole:level$][&gt;=]6#Requer personagem no nível 6</t>
+  </si>
+  <si>
+    <t>T动力跳跃#1,2
+T动力横扫#3,2#T动力跳跃,1#[$tagrole:level$][&gt;=]3#Requer personagem no nível 3
+T动力脉冲#5,2#T动力横扫,1#[$tagrole:level$][&gt;=]6#Requer personagem no nível 6
+T锤术精通赫炎#1,3
+T赫炎动力装置#3,3##[$tagrole:level$][&gt;=]3#Requer personagem no nível 3
+T赫炎应急装置#5,3#T赫炎动力装置,1#[$tagrole:level$][&gt;=]9#Requer personagem no nível 9</t>
+  </si>
+  <si>
+    <t>T放血#1,2
+T分裂#3,2#T放血,1#[$tagrole:level$][&gt;=]3#Requer personagem no nível 3
+T收割#5,2#T分裂,1#[$tagrole:level$][&gt;=]6#Requer personagem no nível 6
+T双手精通屠夫#1,3
+T屠夫#2,3##[$tagrole:level$][&gt;=]6#Requer personagem no nível 6</t>
+  </si>
+  <si>
+    <t>T跳劈#1,2
+T突进斩#3,2#T跳劈,1#[$tagrole:level$][&gt;=]3#Requer personagem no nível 3
+T双手精通雪岭#1,3
+T破甲精通#3,3##[$tagrole:level$][&gt;=]5#Requer personagem no nível 5
+T快步#5,3##[$tagrole:level$][&gt;=]8#Requer personagem no nível 8</t>
+  </si>
+  <si>
+    <t>T刺击#1,2
+T三连刺#3,2#T刺击,1#[$tagrole:level$][&gt;=]3#Requer personagem no nível 3
+T狂风#5,2#T三连刺,1#[$tagrole:level$][&gt;=]6#Requer personagem no nível 6
+T长柄精通枪术#1,3
+T尖锐枪头#2,3##[$tagrole:level$][&gt;=]6#Requer personagem no nível 6</t>
+  </si>
+  <si>
+    <t>T突击#1,2
+T枪影坠#3,2#T突击,1#[$tagrole:level$][&gt;=]3#Requer personagem no nível 3
+T天崩地裂#5,2#T枪影坠,1#[$tagrole:level$][&gt;=]6#Requer personagem no nível 6
+T长柄精通荒沙#1,3
+T脆弱光环#2,3##[$tagrole:level$][&gt;=]9#Requer personagem no nível 9</t>
+  </si>
+  <si>
+    <t>T冲锋#1,2
+T钩锁突进#3,2#T冲锋,1#[$tagrole:level$][&gt;=]5#Requer personagem no nível 5
+T铁肺#1,3
+T强臂#3,3##[$tagrole:level$][&gt;=]5#Requer personagem no nível 5
+T避雨#5,3##[$tagrole:level$][&gt;=]8#Requer personagem no nível 8</t>
+  </si>
+  <si>
+    <t>T盾击#1,2
+T嘲讽#3,2#T盾击,1#[$tagrole:level$][&gt;=]4#Requer personagem no nível 4
+T霸体#5,2#T嘲讽,1#[$tagrole:level$][&gt;=]8#Requer personagem no nível 8
+T护卫精通#1,3##[$tagrole:level$][&gt;=]3#Requer personagem no nível 3
+T白刃精通#2,3#T护卫精通,1#[$tagrole:level$][&gt;=]9#Requer personagem no nível 9</t>
+  </si>
+  <si>
+    <t>T践踏#1,2
+T巨人降临#3,2#T践踏,1#[$tagrole:level$][&gt;=]5#Requer personagem no nível 5
+T生命强化#1,3
+T巨人气质#3,3#T生命强化,1#[$tagrole:level$][&gt;=]5#Requer personagem no nível 5
+T巨人化#5,3#T巨人气质,1#[$tagrole:level$][&gt;=]10#Requer personagem no nível 10</t>
+  </si>
+  <si>
+    <t>T雾遁#1,2
+T背刺#3,2#T雾遁,1#[$tagrole:level$][&gt;=]5#Requer personagem no nível 5
+T轻甲穿透#1,3
+T弱点识破#3,3##[$tagrole:level$][&gt;=]5#Requer personagem no nível 5
+T残忍#5,3##[$tagrole:level$][&gt;=]8#Requer personagem no nível 8</t>
+  </si>
+  <si>
+    <t>T狂野打击#1,2
+T双重打击#3,2#T狂野打击,1#[$tagrole:level$][&gt;=]3#Requer personagem no nível 3
+T咆哮#5,2##[$tagrole:level$][&gt;=]6#Requer personagem no nível 6
+T战斗快感#1,3##[$tagrole:level$][&gt;=]3#Requer personagem no nível 3
+T不懈斗志#3,3##[$tagrole:level$][&gt;=]6#Requer personagem no nível 6</t>
+  </si>
+  <si>
+    <t>T穿云#1,2
+T五枝#3,2#T穿云,1#[$tagrole:level$][&gt;=]3#Requer personagem no nível 3
+T火箭雨#5,2#T五枝,1#[$tagrole:level$][&gt;=]6#Requer personagem no nível 6
+T弓箭精通皇家#1,3
+T全神贯注#3,3##[$tagrole:level$][&gt;=]6#Requer personagem no nível 6</t>
+  </si>
+  <si>
+    <t>T追踪矢#1,2
+T破退矢#3,2#T追踪矢,1#[$tagrole:level$][&gt;=]3#Requer personagem no nível 3
+T深呼吸#5,2#T破退矢,1#[$tagrole:level$][&gt;=]6#Requer personagem no nível 6
+T弓箭精通荒野#1,3
+T游侠之道#3,3##[$tagrole:level$][&gt;=]8#Requer personagem no nível 8
+T割裂箭头#5,3##[$tagrole:level$][&gt;=]8#Requer personagem no nível 8</t>
+  </si>
+  <si>
+    <t>T定身击#1,2
+T刀锋扇#3,2#T定身击,1#[$tagrole:level$][&gt;=]4#Requer personagem no nível 4
+T猎杀开始#5,2#T刀锋扇,1#[$tagrole:level$][&gt;=]8#Requer personagem no nível 8
+T狩猎精通#1,3##[$tagrole:level$][&gt;=]6#Requer personagem no nível 6</t>
+  </si>
+  <si>
+    <t>T遁入阴影#1,2
+T烟雾弹#3,2#T遁入阴影,1#[$tagrole:level$][&gt;=]3#Requer personagem no nível 3
+T暗影镖#5,2#T烟雾弹,1#[$tagrole:level$][&gt;=]6#Requer personagem no nível 6
+T闪避精通#1,3##[$tagrole:level$][&gt;=]3#Requer personagem no nível 3
+T埋伏#3,3#T闪避精通,1#[$tagrole:level$][&gt;=]6#Requer personagem no nível 6</t>
+  </si>
+  <si>
+    <t>T毒针#1,2
+T毒剂瓶#3,2#T毒针,1#[$tagrole:level$][&gt;=]4#Requer personagem no nível 4
+T淬毒#5,2#T毒剂瓶,1#[$tagrole:level$][&gt;=]8#Requer personagem no nível 8
+T毒之裁决#1,3
+T毒系免疫#3,3##[$tagrole:level$][&gt;=]8#Requer personagem no nível 8</t>
+  </si>
+  <si>
+    <t>T火焰喷射#1,2
+T武装爆裂#3,2#T火焰喷射,1#[$tagrole:level$][&gt;=]5#Requer personagem no nível 5
+T赫炎装备#1,3##[$tagrole:level$][&gt;=]3#Requer personagem no nível 3
+T机动装置#3,3##[$tagrole:level$][&gt;=]6#Requer personagem no nível 6</t>
+  </si>
+  <si>
+    <t>T战场恢复#1,2
+T放松#3,2##[$tagrole:level$][&gt;=]5#Requer personagem no nível 5
+T体魄锻炼#1,3
+T肌肉强化#3,3##[$tagrole:level$][&gt;=]4#Requer personagem no nível 4
+T身经百战#5,3##[$tagrole:level$][&gt;=]8#Requer personagem no nível 8</t>
+  </si>
+  <si>
+    <t>T闪烁#1,2
+T幻之斗篷#3,2#T闪烁,1#[$tagrole:level$][&gt;=]3#Requer personagem no nível 3
+T幻光迷踪#5,2#T幻之斗篷,1#[$tagrole:level$][&gt;=]6#Requer personagem no nível 6
+T闪避精通幻光斗篷#1,3##[$tagrole:level$][&gt;=]3#Requer personagem no nível 3
+T幻光匿形#3,3#T闪避精通幻光斗篷,1#[$tagrole:level$][&gt;=]6#Requer personagem no nível 6</t>
+  </si>
+  <si>
+    <t>T欺诈图腾#1,2
+T欺诈魔术#3,2#T欺诈图腾,1#[$tagrole:level$][&gt;=]6#Requer personagem no nível 6
+T致命骗术#1,3##[$tagrole:level$][&gt;=]6#Requer personagem no nível 6
+T虚假生命#3,3#T致命骗术,1#[$tagrole:level$][&gt;=]10#Requer personagem no nível 10</t>
+  </si>
+  <si>
+    <t>T沉默之风#1,2
+T禁魔护罩#3,2##[$tagrole:level$][&gt;=]5#Requer personagem no nível 5
+T破法者#1,3##[$tagrole:level$][&gt;=]3#Requer personagem no nível 3
+T破法盾#3,3##[$tagrole:level$][&gt;=]6#Requer personagem no nível 6
+T破法剑#5,3##[$tagrole:level$][&gt;=]9#Requer personagem no nível 9</t>
+  </si>
+  <si>
+    <t>T超然#3,2##[$tagrole:level$][&gt;=]3#Requer personagem no nível 3
+T冥想#1,3
+T法力充沛#3,3##[$tagrole:level$][&gt;=]3#Requer personagem no nível 3
+T启迪冥想者#5,3##[$tagrole:level$][&gt;=]6#Requer personagem no nível 6</t>
+  </si>
+  <si>
+    <t>T唤狼#1,2
+T唤鹰#3,2#T唤狼,1#[$tagrole:level$][&gt;=]4#Requer personagem no nível 4
+T唤熊#5,2#T唤鹰,1#[$tagrole:level$][&gt;=]8#Requer personagem no nível 8
+T生命亲和驯兽师#1,3
+T驯兽大师#3,3##[$tagrole:level$][&gt;=]8#Requer personagem no nível 8</t>
+  </si>
+  <si>
+    <t>T大治疗术#1,2
+T群体医疗#3,2#T大治疗术,1#[$tagrole:level$][&gt;=]5#Requer personagem no nível 5
+T生命亲和白蔷薇#1,3
+T妙手仁心#3,3#T生命亲和白蔷薇,1#[$tagrole:level$][&gt;=]3#Requer personagem no nível 3
+T启迪白蔷薇#5,3##[$tagrole:level$][&gt;=]6#Requer personagem no nível 6</t>
+  </si>
+  <si>
+    <t>T万刃分鬃杀#1,1
+T万刃分鬃杀进阶#2,1#T万刃分鬃杀,3#[$tagrole:level$][&gt;=]12#Requer personagem no nível 12
+T万刃分鬃杀精通#4,1#T万刃分鬃杀进阶,2#[$tagrole:level$][&gt;=]12#Requer personagem no nível 12
+T武之圣盾#1,2#T野马王骑乘战马,1#[$tagrole:level$][&gt;=]10#Requer personagem no nível 10
+T武之圣盾进阶#2,2#T武之圣盾,1#
+T武之圣盾精通#4,2#T武之圣盾进阶,3#
+T野马王骑乘战马#1,3##
+T野马王骑乘战马进阶#2,3#T野马王骑乘战马,1#[$tagrole:level$][&gt;=]10#Requer personagem no nível 10
+T野马王骑乘战马精通#4,3#T野马王骑乘战马进阶,3#[$tagrole:level$][&gt;=]12#Requer personagem no nível 12
+T野马王标枪投掷#1,4#T野马王骑乘战马,1#
+T野马王箭雨#3,4#T野马王标枪投掷,1#[$tagrole:level$][&gt;=]12#Requer personagem no nível 12
+T野马王王牌冲锋#4,4#T野马王箭雨,1#[$tagrole:level$][&gt;=]15#Requer personagem no nível 15
+T马王2#5,1
+T马王#5,3#T马王2,3#[$tagrole:level$][&gt;=]12#Requer personagem no nível 12
+T野马王万马之王#5,4#T马王,3#</t>
+  </si>
+  <si>
+    <t>T霍驹附魔武装#1,1
+T霍驹附魔武装冰霜#3,1#T霍驹附魔武装,3
+T霍驹破冰一击#4,1#T霍驹附魔武装冰霜,1#[$tagrole:level$][&gt;=]15#Requer personagem no nível 15
+T霍驹冰隙冲击#1,2
+T霍驹冰隙冲击进阶#2,2#T霍驹冰隙冲击,2#[$tagrole:level$][&gt;=]12#Requer personagem no nível 12
+T霍驹恶魔冰焰#1,3##
+T霍驹恶魔冰焰进阶#2,3#T霍驹恶魔冰焰,1#[$tagrole:level$][&gt;=]12#Requer personagem no nível 12
+T魔控武装#3,3##
+T恶魔血脉#4,3#T魔控武装,1#[$tagrole:level$][&gt;=]15#Requer personagem no nível 15
+T霍驹战斗快感#1,4##[$tagrole:level$][&gt;=]12#Requer personagem no nível 12
+T霍驹战斗快感复苏#2,4#T霍驹战斗快感,3#[$tagrole:level$][&gt;=]15#Requer personagem no nível 15
+T统率技能霍驹#5,1
+T统率技能霍驹2#5,3#T统率技能霍驹,3#[$tagrole:level$][&gt;=]15#Requer personagem no nível 15</t>
+  </si>
+  <si>
+    <t>T阿曼莎毒针#1,1
+T阿曼莎毒针弹射#3,1#T阿曼莎毒针,3
+T阿曼莎蝎蛊#1,2
+T阿曼莎蝎蛊进阶#2,2#T阿曼莎蝎蛊,1##
+T阿曼莎蝎蛊精通#3,2#T阿曼莎蝎蛊进阶,1#[$tagrole:level$][&gt;=]12#Requer personagem no nível 12
+T阿曼莎镖术#1,3###
+T阿曼莎毒蝎刺#3,3#T阿曼莎镖术,3#
+T阿曼莎下毒#4,3#T阿曼莎毒蝎刺,1#
+T阿曼莎养蝎帐篷#1,4##
+T阿曼莎养蝎帐篷提升#2,4#T阿曼莎养蝎帐篷,2##
+T阿曼莎养蝎帐篷精通#4,4#T阿曼莎养蝎帐篷提升,1#[$tagrole:level$][&gt;=]15#Requer personagem no nível 15
+T阿曼莎以毒攻毒#4,1##[$tagrole:level$][&gt;=]15#Requer personagem no nível 15
+T统率技能阿曼莎#5,1
+T统率技能阿曼莎2#5,3#T统率技能阿曼莎,3#[$tagrole:level$][&gt;=]15#Requer personagem no nível 15</t>
+  </si>
+  <si>
+    <t>嗜血刀术狂暴斩#1,3
+嗜血刀术狂暴斩提升#1,2#嗜血刀术狂暴斩,1
+嗜血刀术暴击光环#2,3#嗜血刀术狂暴斩,1#[$tagrole:level$][&gt;=]4#RequercharacterLv.4
+嗜血刀术暴击光环提升#2,2#嗜血刀术暴击光环,1
+嗜血刀术吸血光环#1,4#嗜血刀术狂暴斩,1#[$tagrole:level$][&gt;=]6#RequercharacterLv.6
+嗜血刀术吸血光环提升#1,5#嗜血刀术吸血光环,1
+嗜血刀术吸血刃#2,4#嗜血刀术吸血光环,1#[$tagrole:level$][&gt;=]8#RequercharacterLv.8
+嗜血刀术吸血刃提升#3,5#嗜血刀术吸血刃,1
+嗜血刀术月夜魔刃#3,4#嗜血刀术吸血刃,1#[$tagrole:level$][&gt;=]12#RequercharacterLv.12
+嗜血刀术闪避提升#4,3#嗜血刀术月夜魔刃,1</t>
+  </si>
+  <si>
+    <t>YY_利齿之咬#1,1
+YY_恶魔撕咬#2,1#YY_利齿之咬,1
+YY_同化吞噬#3,1
+YY_修罗肉体#3,2#YY_同化吞噬,1
+YY_肉体解放#1,3
+YY_粉碎之爪#3,3#YY_肉体解放,1
+YY_异化肉体#4,1
+YY_怪物鳞片#4,2
+YY_无情怪物#4,3
+YY_潜伏影渊#5,1
+YY_突袭背刺#5,3
+YY_怪物友人#1,4##[$tagrole:fv$][&gt;=]20#Requer 20 pontos de relacionamento
+YY_怪物为伴#2,4##[$tagrole:fv$][&gt;=]40#Requer 40 pontos de relacionamento
+YY_梦魇诡刺#3,4##[$tagrole:level$][&gt;=]15#Requer personagem no nível 15
+YY_魔物装甲#4,4##[$tagrole:level$][&gt;=]15#Requer personagem no nível 15
+YY_魔物装甲小兵#5,4##[$tagrole:level$][&gt;=]15#Requer personagem no nível 15</t>
+  </si>
+  <si>
+    <t>守护之盾#1,3
+娴熟斗技#3,3#守护之盾,1#[$tagrole:level$][&gt;=]6#Requer personagem no nível 6
+剑盾缠斗#4,3#娴熟斗技,1#[$tagrole:level$][&gt;=]9#Requer personagem no nível 9
+死斗#6,3#剑盾缠斗,1#[$tagrole:level$][&gt;=]12#Requer personagem no nível 12
+猛者突进#1,2
+晕厥残留#2,2#猛者突进,1
+强力盾击#3,2#晕厥残留,1#[$tagrole:level$][&gt;=]3#Requer personagem no nível 3
+威压#5,2#强力盾击,1
+援护飞盾#2,1#晕厥残留,1
+忠实守护#3,1#援护飞盾,1
+战士的恩惠#4,1#忠实守护,1#[$tagrole:level$][&gt;=]9#Requer personagem no nível 9
+野性怒吼#1,4
+精神振奋#2,4#野性怒吼,1
+热血先攻#4,4#精神振奋,1|剑盾缠斗,1
+坚韧意志#5,4#热血先攻,1#[$tagrole:level$][&gt;=]12#Requer personagem no nível 12
+不屈#7,4#坚韧意志,1#[$tagrole:level$][&gt;=]15#Requer personagem no nível 15
+反戈一击#6,1#战士的恩惠,1#[$tagrole:level$][&gt;=]12#Requer personagem no nível 12
+怒意迸发#6,2#反戈一击,1|死斗,1
+涅槃#7,2#怒意迸发,1#[$tagrole:level$][&gt;=]15#Requer personagem no nível 15</t>
+  </si>
+  <si>
+    <t>狂战士血脉#1,2
+猛者#1,3#狂战士血脉,1
+猛者冲击#1,4#猛者,1#[$tagrole:level$][&gt;=]6#Requer personagem no nível 6
+一下一个#3,4#猛者冲击,1
+狂热怒斩#1,1#狂战士血脉,1
+裂地战斧#3,1#狂热怒斩,1#[$tagrole:level$][&gt;=]6#Requer personagem no nível 6
+战斗意志#5,1#狂热怒斩,1#[$tagrole:level$][&gt;=]9#Requer personagem no nível 9
+巨兽猛扑#2,2#狂战士血脉,1
+惊吓#3,2#巨兽猛扑,1#[$tagrole:level$][&gt;=]6#Requer personagem no nível 6
+狂战士怒吼#2,3#猛者,1#[$tagrole:level$][&gt;=]6#Requer personagem no nível 6
+恐怖威压#3,3#狂战士怒吼,1
+心满意足#4,3#恐怖威压,1#[$tagrole:level$][&gt;=]9#Requer personagem no nível 9
+暴虐成性#6,3#心满意足,1#[$tagrole:level$][&gt;=]12#Requer personagem no nível 12
+鲜血祭祀#4,2#心满意足,1
+血酒佳酿#5,2#鲜血祭祀,1
+醉意盎然#7,2#血酒佳酿,1#[$tagrole:level$][&gt;=]15#Requer personagem no nível 15
+螺旋飓风#4,4#一下一个,1|心满意足,1
+解放冲击#6,4#螺旋飓风,1#[$tagrole:level$][&gt;=]12#Requer personagem no nível 12</t>
+  </si>
+  <si>
+    <t>WR_影舞者#1,2
+WR_咒刃#1,4
+WR_影之突袭#2,2#WR_影舞者,1
+WR_挽刃#2,3#WR_影之突袭,1
+WR_烈毒飞刃#3,3#WR_挽刃,1
+WR_精细#3,4#WR_咒刃,1|WR_烈毒飞刃,1#[$tagrole:level$][&gt;=]6#Requer personagem no nível 6
+WR_血刃弯刀#2,1#WR_影之突袭,1
+WR_幻魅之毒#3,2#WR_影之突袭,1#[$tagrole:level$][&gt;=]6#Requer personagem no nível 6
+WR_混乱傀儡#4,2#WR_幻魅之毒,1
+WR_麻痹寂默#5,2#WR_混乱傀儡,1#[$tagrole:level$][&gt;=]12#Requer personagem no nível 12
+WR_愉悦敌意#4,1#WR_混乱傀儡,1
+WR_双刃乱舞#4,3#WR_烈毒飞刃,1#[$tagrole:level$][&gt;=]9#Requer personagem no nível 9
+WR_鲜血舞娘#5,3#WR_双刃乱舞,1#[$tagrole:level$][&gt;=]12#Requer personagem no nível 12
+WR_食毒者#6,2#WR_麻痹寂默,1#[$tagrole:level$][&gt;=]15#Requer personagem no nível 15
+WR_异样欢欣#6,3#WR_鲜血舞娘,1#[$tagrole:level$][&gt;=]15#Requer personagem no nível 15
+WR_毒性催化#7,2#WR_食毒者,1#[$tagrole:level$][&gt;=]18#Requer personagem no nível 18
+WR_刃之舞#5,4#WR_精细,1|WR_鲜血舞娘,1#[$tagrole:level$][&gt;=]15#Requer personagem no nível 15
+WR_优雅谢幕#7,4#WR_刃之舞,1#[$tagrole:level$][&gt;=]18#Requer personagem no nível 18</t>
+  </si>
+  <si>
+    <t>武道拳术#1,2
+拳术招架#1,3#武道拳术,1
+蓄力冲拳#2,2#武道拳术,1
+连续冲拳#2,1#蓄力冲拳,1#[$tagrole:level$][&gt;=]3#Requer personagem no nível 3
+招架反击#2,3#拳术招架,1
+不破#2,4#招架反击,1#[$tagrole:level$][&gt;=]3#Requer personagem no nível 3
+气劲#3,2#蓄力冲拳,1#[$tagrole:level$][&gt;=]6#Requer personagem no nível 6
+护身气劲#3,1#气劲,1
+螺旋气劲#5,1#护身气劲,1#[$tagrole:level$][&gt;=]12#Requer personagem no nível 12
+铁山靠#4,2#气劲,1#[$tagrole:level$][&gt;=]9#Requer personagem no nível 9
+顶心肘#5,2#铁山靠,1#[$tagrole:level$][&gt;=]12#Requer personagem no nível 12
+雁金咒文#3,3#招架反击,1#[$tagrole:level$][&gt;=]6#Requer personagem no nível 6
+雁金砺铄#3,4#雁金咒文,1
+雁金华彩#5,4#雁金砺铄,1#[$tagrole:level$][&gt;=]12#Requer personagem no nível 12
+崩山震#4,3#雁金咒文,1#[$tagrole:level$][&gt;=]9#Requer personagem no nível 9
+八极崩#5,3#崩山震,1#[$tagrole:level$][&gt;=]12#Requer personagem no nível 12
+雁金升龙#6,2#顶心肘,1#[$tagrole:level$][&gt;=]15#Requer personagem no nível 15
+雁金升龙真#6,1#雁金升龙,1
+烈云飞踢#6,3#八极崩,1|雁金升龙,1#[$tagrole:level$][&gt;=]15#Requer personagem no nível 15
+天龙游舞#6,4#烈云飞踢,1
+烈云穿天#7,3#烈云飞踢,1#[$tagrole:level$][&gt;=]18#Requer personagem no nível 18
+雁金升龙霸#7,2#雁金升龙,1|烈云穿天,1</t>
+  </si>
+  <si>
     <t>C_灵能法球#1,1
 C_灵能强化#2,1#C_灵能法球,1
-C_龙卷风暴#3,1#C_灵能强化,1#[$tagrole:level$][&gt;=]3#Requires character Lv.3
-C_静态风暴#5,1#C_龙卷风暴,1#[$tagrole:level$][&gt;=]12#Requires character Lv.12
+C_龙卷风暴#3,1#C_灵能强化,1#[$tagrole:level$][&gt;=]3#Requer personagem no nível 3
+C_静态风暴#5,1#C_龙卷风暴,1#[$tagrole:level$][&gt;=]12#Requer personagem no nível 12
 C_灵力掌控#1,3#
 C_傀儡操控#2,3#C_灵力掌控,1
 C_傀儡充能#2,4#C_傀儡操控,1
 C_专注#2,2#C_傀儡操控,1
 C_灵力精通#3,3#C_傀儡操控,1|C_龙卷风暴,1
-C_灵能回溯#3,4#C_灵力精通,1#[$tagrole:level$][&gt;=]6#Requires character Lv.6
-C_灵剑形态#4,2#C_灵力精通,1#[$tagrole:level$][&gt;=]9#Requires character Lv.9
-C_灵锤形态#4,3#C_灵力精通,1#[$tagrole:level$][&gt;=]9#Requires character Lv.9
-C_灵弓形态#4,4#C_灵力精通,1#[$tagrole:level$][&gt;=]9#Requires character Lv.9
-C_雷霆怒剑#5,2#C_灵剑形态,1#[$tagrole:level$][&gt;=]12#Requires character Lv.12
-C_大地灵锤#5,3#C_灵锤形态,1#[$tagrole:level$][&gt;=]12#Requires character Lv.12
-C_精灵灵弩#5,4#C_灵弓形态,1#[$tagrole:level$][&gt;=]12#Requires character Lv.12
-C_灵魂撕裂#7,1#C_静态风暴,1#[$tagrole:level$][&gt;=]15#Requires character Lv.15
+C_灵能回溯#3,4#C_灵力精通,1#[$tagrole:level$][&gt;=]6#Requer personagem no nível 6
+C_灵剑形态#4,2#C_灵力精通,1#[$tagrole:level$][&gt;=]9#Requer personagem no nível 9
+C_灵锤形态#4,3#C_灵力精通,1#[$tagrole:level$][&gt;=]9#Requer personagem no nível 9
+C_灵弓形态#4,4#C_灵力精通,1#[$tagrole:level$][&gt;=]9#Requer personagem no nível 9
+C_雷霆怒剑#5,2#C_灵剑形态,1#[$tagrole:level$][&gt;=]12#Requer personagem no nível 12
+C_大地灵锤#5,3#C_灵锤形态,1#[$tagrole:level$][&gt;=]12#Requer personagem no nível 12
+C_精灵灵弩#5,4#C_灵弓形态,1#[$tagrole:level$][&gt;=]12#Requer personagem no nível 12
+C_灵魂撕裂#7,1#C_静态风暴,1#[$tagrole:level$][&gt;=]15#Requer personagem no nível 15
 C_灵能唤醒#6,3#C_雷霆怒剑,1|C_大地灵锤,1|C_精灵灵弩,1
-C_灵之庇护#7,3#C_灵能唤醒,1#[$tagrole:level$][&gt;=]15#Requires character Lv.15</t>
-  </si>
-  <si>
-    <t>Médico da Rosa Branca</t>
-  </si>
-  <si>
-    <t>Mercador</t>
-  </si>
-  <si>
-    <t>Ferreiro</t>
-  </si>
-  <si>
-    <t>Recrutador</t>
+C_灵之庇护#7,3#C_灵能唤醒,1#[$tagrole:level$][&gt;=]15#Requer personagem no nível 15</t>
+  </si>
+  <si>
+    <t>ASL_岩傀儡#1,1
+ASL_精炼傀儡#2,1#ASL_岩傀儡,1
+ASL_沙之壁垒#3,1
+ASL_扬尘#3,2#ASL_沙之壁垒,1
+ASL_飓风螺旋#1,3
+ASL_感电风暴#3,3#ASL_飓风螺旋,1
+ASL_沙风之心#4,1
+ASL_法术屏障#4,2
+ASL_大地加护#4,3
+ASL_法力膨胀#5,1
+ASL_法力爆破#5,3
+ASL_法力补充#1,4##[$tagrole:fv$][&gt;=]20#Requer 20 pontos de relacionamento
+ASL_法脉连携#2,4##[$tagrole:fv$][&gt;=]40#Requer 40 pontos de relacionamento
+ASL_巫术脉冲#3,4##[$tagrole:level$][&gt;=]15#Requer personagem no nível 15
+统率技能阿塞尔#4,4##[$tagrole:id$][=]主角#Desbloquear de acordo com o relacionamento</t>
+  </si>
+  <si>
+    <t>AHS_长枪突进#1,1
+AHS_钢劲破甲#2,1#AHS_长枪突进,1
+AHS_横扫一击#3,1
+AHS_不羁的嘲讽#3,2#AHS_横扫一击,1
+AHS_旋转之枪#1,3
+AHS_枪术格挡#3,3#AHS_旋转之枪,1
+AHS_强腕手段#4,1
+AHS_铁臂钢骨#4,2
+AHS_枪术达人#4,3
+AHS_枪影坠#5,1
+AHS_天崩地裂#5,3
+AHS_荒漠战士#1,4##[$tagrole:fv$][&gt;=]20#Requer 20 pontos de relacionamento
+AHS_长枪演武#2,4##[$tagrole:fv$][&gt;=]40#Requer 40 pontos de relacionamento
+AHS_翱翔之枪#3,4##[$tagrole:level$][&gt;=]15#Requer personagem no nível 15
+统率技能安红砂#4,4##[$tagrole:id$][=]主角#Desbloquear de acordo com o relacionamento</t>
+  </si>
+  <si>
+    <t>BT_状态调整#1,1
+BT_激战准备#2,1#BT_状态调整,1
+BT_勇士冲击#3,1
+BT_猛虎下山#3,2#BT_勇士冲击,1
+BT_战争践踏#1,3
+BT_重锤#3,3#BT_战争践踏,1
+BT_虎背熊腰#4,1
+BT_金刚之躯#4,2
+BT_徒手防御#4,3
+BT_挑战者#5,1
+BT_不灭之躯#5,3
+BT_肉体防御#1,4##[$tagrole:fv$][&gt;=]20#Requer 20 pontos de relacionamento
+BT_肌肉锻炼#2,4##[$tagrole:fv$][&gt;=]40#Requer 40 pontos de relacionamento
+BT_格斗#3,4##[$tagrole:level$][&gt;=]15#Requer personagem no nível 15
+统率技能巴图#4,4##[$tagrole:id$][=]主角#Desbloquear de acordo com o relacionamento</t>
+  </si>
+  <si>
+    <t>GSBL_疾风快刃#1,1
+GSBL_狂暴斩#2,1#GSBL_疾风快刃,1
+GSBL_月夜魔刃#3,1
+GSBL_余命夺取#3,2#GSBL_月夜魔刃,1
+GSBL_偏斜姿态#1,3
+GSBL_偏斜反击#3,3#GSBL_偏斜姿态,1
+GSBL_饮血常歌#4,1
+GSBL_一刀毙命#4,2
+GSBL_刃之达人#4,3
+GSBL_钩索突进#5,1
+GSBL_吸血刃#5,3
+GSBL_大漠游侠#1,4##[$tagrole:fv$][&gt;=]20#Requer 20 pontos de relacionamento
+GSBL_刃之格挡#2,4##[$tagrole:fv$][&gt;=]40#Requer 40 pontos de relacionamento
+GSBL_秘技火凤#3,4##[$tagrole:level$][&gt;=]15#Requer personagem no nível 15
+统率技能公孙巴兰#4,4##[$tagrole:id$][=]主角#Desbloquear de acordo com o relacionamento</t>
+  </si>
+  <si>
+    <t>XWN_雪巫女的守护#1,1
+XWN_寒冰光环#2,1#XWN_雪巫女的守护,1
+XWN_雪巫女风灵冲击#3,1
+XWN_封印咒术#3,2#XWN_雪巫女风灵冲击,1
+XWN_寒冰法术#1,3
+XWN_冻结之心#3,3#XWN_寒冰法术,1
+XWN_法力溢出#4,1
+XWN_预言诅咒#4,2
+XWN_雪山巫女#4,3
+XWN_霜冻#5,1
+XWN_冰矛#5,3
+XWN_巫女的智慧#1,4##[$tagrole:fv$][&gt;=]20#Requer 20 pontos de relacionamento
+XWN_寒霜冰珠#2,4##[$tagrole:fv$][&gt;=]40#Requer 40 pontos de relacionamento
+XWN_冰华乱舞#3,4##[$tagrole:level$][&gt;=]15#Requer personagem no nível 15
+统率技能灰雪#4,4##[$tagrole:id$][=]主角#Desbloquear de acordo com o relacionamento</t>
+  </si>
+  <si>
+    <t>JYY_金色波动#1,1
+JYY_金光闪闪#2,1#JYY_金色波动,1
+JYY_黄金审判#3,1
+JJY_金色天平#3,2#JYY_黄金审判,1
+JJY_黄金盾#1,3
+JJY_金之愈合#3,3#JJY_黄金盾,1
+JJY_炫目光盾#4,1
+JJY_黄金折射#4,2
+JJY_抗咒金饰#4,3
+JJY_禁魔护盾#5,1
+JJY_沉默之风#5,3
+JJY_金生金#1,4##[$tagrole:fv$][&gt;=]20#Requer 20 pontos de relacionamento
+JJY_黄金的生命法则#2,4##[$tagrole:fv$][&gt;=]40#Requer 40 pontos de relacionamento
+JJY_不稳定的金铃铛#3,4##[$tagrole:level$][&gt;=]15#Requer personagem no nível 15
+统率技能金玉叶#4,4##[$tagrole:id$][=]主角#Desbloquear de acordo com o relacionamento</t>
+  </si>
+  <si>
+    <t>JZC_金钱标记#1,1
+JZC_金钱压制#2,1#JZC_金钱标记,1
+JZC_钱进战场#2,1
+JZC_以金赚金#3,2#JZC_钱进战场,1
+JZC_金少爷的小把戏#1,3
+JZC_炫目之金#3,3#JZC_金少爷的小把戏,1
+JZC_战场税金#4,1
+JZC_金家兄妹#4,2
+JZC_活性黄金#4,3
+JZC_富人的戏谑#5,1
+JZC_金叶飞刃#5,3
+JZC_金钱战术#1,4##[$tagrole:fv$][&gt;=]20#Requer 20 pontos de relacionamento
+JZC_黄金的使用法则#2,4##[$tagrole:fv$][&gt;=]40#Requer 40 pontos de relacionamento
+JZC_花点小钱#3,4##[$tagrole:level$][&gt;=]15#Requer personagem no nível 15
+统率技能金足赤#4,4##[$tagrole:id$][=]主角#Desbloquear de acordo com o relacionamento</t>
+  </si>
+  <si>
+    <t>WLS_古代弩#1,1
+WLS_穿透毒矢#2,1#WLS_古代弩,1
+WLS_暗影镖#3,1
+WlS_飞刃弹射#3,2#WLS_暗影镖,1
+WLS_潜行作战#1,3
+WlS_伺机待发#3,3#WLS_潜行作战,1
+WLS_身材娇小#4,1
+WLS_毒性专家#4,2
+WlS_拾荒达人#4,3
+WlS_毒针#5,1
+WlS_毒剂瓶#5,3
+WLS_引路人#1,4##[$tagrole:fv$][&gt;=]20#Requer 20 pontos de relacionamento
+WLS_盗宝者#2,4##[$tagrole:fv$][&gt;=]40#Requer 40 pontos de relacionamento
+WLS_剧毒之潮#3,4##[$tagrole:level$][&gt;=]15#Requer personagem no nível 15
+统率技能洛维莎#4,4##[$tagrole:id$][=]主角#Desbloquear de acordo com o relacionamento</t>
+  </si>
+  <si>
+    <t>MS_巫灵跃斩#1,1
+MS_魔影分魂#2,1#MS_巫灵跃斩,1
+MS_恐惧魔爪#3,1
+MS_恐惧之泣#3,2#MS_恐惧魔爪,1
+MS_突进斩#1,3
+MS_巫灵蚀甲#3,3#MS_突进斩,1
+MS_残忍屠戮#4,1
+MS_魔剑侵夺#4,2
+MS_魔剑宿主#4,3
+MS_背刺#5,1
+MS_雾遁#5,3
+MS_魔剑幻影#1,4##[$tagrole:fv$][&gt;=]20#Requer 20 pontos de relacionamento
+MS_魔剑释魂#2,4##[$tagrole:fv$][&gt;=]40#Requer 40 pontos de relacionamento
+MS_魔剑墨痕#3,4##[$tagrole:level$][&gt;=]15#Requer personagem no nível 15
+统率技能墨敕#4,4##[$tagrole:id$][=]主角#Desbloquear de acordo com o relacionamento</t>
+  </si>
+  <si>
+    <t>QSZ_白旋之刃#1,1
+QSZ_寒刃#2,1#QSZ_白旋之刃,1
+QSZ_剑之誓言#3,1
+QSZ_誓言之争#3,2#QSZ_剑之誓言,1
+QSZ_天愈之剑#1,3
+QSZ_剑愈结界#3,3#QSZ_天愈之剑,1
+QSZ_生命之春#4,1
+QSZ_剑术大师#4,2
+QSZ_妙手仁心#4,3
+QSZ_光冕剑#5,1
+QSZ_疾突剑#5,3
+QSZ_危命急救#1,4##[$tagrole:fv$][&gt;=]20#Requer 20 pontos de relacionamento
+QSZ_愈合疗法#2,4##[$tagrole:fv$][&gt;=]40#Requer 40 pontos de relacionamento
+QSZ_白蔷薇誓言之剑#3,4##[$tagrole:level$][&gt;=]15#Requer personagem no nível 15
+统率技能齐肃之#4,4##[$tagrole:id$][=]主角#Desbloquear de acordo com o relacionamento</t>
+  </si>
+  <si>
+    <t>QY_净化之炎#1,1
+QY_识者净化#2,1#QY_净化之炎,1
+QY_白色辉光#3,1
+QY_余辉#3,2#QY_白色辉光,1
+QY_光耀弹#1,3
+QY_光耀冲击#3,3#QY_光耀弹,1
+QY_生命律动#4,1
+QY_治愈连律#4,2
+QY_治疗天赋#4,3
+QY_大治疗术#5,1
+QY_群体治疗#5,3
+QY_白蔷薇使者#1,4##[$tagrole:fv$][&gt;=]20#Requer 20 pontos de relacionamento
+QY_治愈之心#2,4##[$tagrole:fv$][&gt;=]40#Requer 40 pontos de relacionamento
+QY_白蔷薇之护#3,4##[$tagrole:level$][&gt;=]15#Requer personagem no nível 15
+统率技能曲玉#4,4##[$tagrole:id$][=]主角#Desbloquear de acordo com o relacionamento</t>
+  </si>
+  <si>
+    <t>SY_沉默烟幕#1,1
+SY_血阵#2,1#SY_沉默烟幕,1
+SY_回旋飞刃#3,1
+SY_锯齿飞刃#3,2#SY_回旋飞刃,1
+SY_定身击#1,3
+SY_影之暗器#3,3#SY_定身击,1
+SY_锋利蝎钩#4,1
+SY_残忍猎杀#4,3
+SY_刀锋扇#5,1
+SY_危险回避#5,2
+SY_遁入阴影#5,3
+SY_蝎之狩猎#1,4##[$tagrole:fv$][&gt;=]20#Requer 20 pontos de relacionamento
+SY_致命穿透#2,4##[$tagrole:fv$][&gt;=]40#Requer 40 pontos de relacionamento
+SY_幻影之阵#3,4##[$tagrole:level$][&gt;=]15#Requer personagem no nível 15
+统率技能邵影#4,4##[$tagrole:id$][=]主角#Desbloquear de acordo com o relacionamento</t>
+  </si>
+  <si>
+    <t>TKQ_燃烧弹#1,1
+TKQ_黑油之火#2,1#TKQ_燃烧弹,1
+TKQ_能量瓶#3,1
+TKQ_能量干扰#3,2#TKQ_能量瓶,1
+TKQ_震荡瓶#1,3
+TKQ_震荡混乱#3,3#TKQ_震荡瓶,1
+TKQ_药物养生学#4,1
+TKQ_思考学者#4,2
+TKQ_试验性药剂#4,3
+TKQ_潜能瓶#5,1
+TKQ_炼金药剂#5,3
+TKQ_行囊药田#1,4##[$tagrole:fv$][&gt;=]20#Requer 20 pontos de relacionamento
+TKQ_优化配方#2,4##[$tagrole:fv$][&gt;=]40#Requer 40 pontos de relacionamento
+TKQ_爆炸药剂#3,4##[$tagrole:level$][&gt;=]15#Requer personagem no nível 15
+统率技能提可沁#4,4##[$tagrole:id$][=]主角#Desbloquear de acordo com o relacionamento</t>
+  </si>
+  <si>
+    <t>TS_征兆之雷#1,1
+TS_静电场#2,1#TS_征兆之雷,1
+TS_宇宙缝隙#3,1
+TS_能量聚变#3,2#TS_宇宙缝隙,1
+TS_万象牵引#1,3
+TS_时空撕裂#3,3#TS_万象牵引,1
+TS_深邃的巫能#4,1
+TS_未来的预示#4,2
+TS_星空的智慧#4,3
+TS_时间的庇护#5,1
+TS_施咒模式#5,3
+TS_天象预言#1,4##[$tagrole:fv$][&gt;=]20#Requer 20 pontos de relacionamento
+TS_星之祈祷#2,4##[$tagrole:fv$][&gt;=]40#Requer 40 pontos de relacionamento
+TS_观天象#3,4##[$tagrole:level$][&gt;=]15#Requer personagem no nível 15
+统率技能天星#4,4##[$tagrole:id$][=]主角#Desbloquear de acordo com o relacionamento</t>
+  </si>
+  <si>
+    <t>XHJL_巨剑横扫#1,1
+XHJL_击飞重锤#2,1#XHJL_巨剑横扫,1
+XHJL_钢之咆哮#3,1
+XHJL_钢核迸发#3,2#XHJL_钢之咆哮,1
+SHJL_钢铁身躯#1,3
+SHJL_散热#3,3#SHJL_钢铁身躯,1
+SHJL_大剑使#4,1
+SHJL_赫炎武装#4,2
+SHJL_机动装置#4,3
+SHJL_火焰喷射#5,1
+SHJL_武装爆裂#5,3
+SHJL_不屈意志#1,4##[$tagrole:fv$][&gt;=]20#Requer 20 pontos de relacionamento
+SHJL_钢之心#2,4##[$tagrole:fv$][&gt;=]40#Requer 40 pontos de relacionamento
+SHJL_坚毅血脉#3,4##[$tagrole:level$][&gt;=]15#Requer personagem no nível 15
+统率技能西河伽罗#4,4##[$tagrole:id$][=]主角#Desbloquear de acordo com o relacionamento</t>
+  </si>
+  <si>
+    <t>XHNY_出阵之曲#1,1
+XHNY_激情洋溢#2,1#XHNY_出阵之曲,1
+XHNY_魅惑之舞#3,1
+XHNY_癫狂#3,2#XHNY_魅惑之舞,1
+XHNY_悬刀之舞#1,3
+XHNY_幻之毒#3,3#XHNY_悬刀之舞,1
+XHNY_装备置办#4,1
+XHNY_商旅#4,2
+XHNY_鉴玉人#4,3
+XHNY_幻之斗篷#5,1
+XHNY_闪烁#5,3
+XHNY_商贾人脉#1,4##[$tagrole:fv$][&gt;=]20#Requer 20 pontos de relacionamento
+XHNY_玉器交易#2,4##[$tagrole:fv$][&gt;=]40#Requer 40 pontos de relacionamento
+XHNY_西河之舞#3,4##[$tagrole:level$][&gt;=]15#Requer personagem no nível 15
+统率技能西河娜娅#4,4##[$tagrole:id$][=]主角#Desbloquear de acordo com o relacionamento</t>
+  </si>
+  <si>
+    <t>火炎连弹#1,3##[$tagrole:statu_int=magic_level_火$][&gt;=]1#Requer conhecimento de Arcana de Fogo Básica (Lv. 1)
+火炎弹雨#2,3#火炎连弹,1#[$tagrole:statu_int=magic_level_火$][&gt;=]2#Requer conhecimento de Arcana de Fogo Avançada (Lv. 2)
+烈火燎原#3,3#火炎弹雨,1#[$tagrole:statu_int=magic_level_火$][&gt;=]2#Requer conhecimento de Arcana de Fogo Avançada (Lv. 2)
+英雄炎爆术#4,3#烈火燎原,1#[$tagrole:statu_int=magic_level_火$][&gt;=]2#Requer knowledge of Advanced Fire Arcana (Lv. 2)
+英雄火炎新星#5,3#英雄炎爆术,1#[$tagrole:statu_int=magic_level_火$][&gt;=]3#Requer conhecimento de Arcana de Fogo Mestra (Lv. 3)
+英雄火炎乱舞#6,3#英雄火炎新星,1#[$tagrole:statu_int=magic_level_火$][&gt;=]3#Requer conhecimento de Arcana de Fogo Mestra (Lv. 3)</t>
+  </si>
+  <si>
+    <t>冰霜连弹#1,3##[$tagrole:statu_int=magic_level_冰$][&gt;=]1#Requer conhecimento de Arcana de Gelo Básica (Lv. 1)
+冰霜弹雨#2,3#冰霜连弹,1#[$tagrole:statu_int=magic_level_冰$][&gt;=]2#Requer conhecimento de Arcana de Gelo Avançada (Lv. 2)
+冰霜风暴#3,3#冰霜弹雨,1#[$tagrole:statu_int=magic_level_冰$][&gt;=]3#Requer conhecimento de Arcana de Gelo Mestra (Lv. 3)
+水灵之愈#4,3#冰霜风暴,1#[$tagrole:statu_int=magic_level_冰$][&gt;=]3#Requer conhecimento de Arcana de Gelo Mestra (Lv. 3)</t>
+  </si>
+  <si>
+    <t>风灵冲击#1,3##[$tagrole:statu_int=magic_level_风$][&gt;=]1#Requer conhecimento de Arcana de Ar Básica  (Lv. 1)
+连环闪电#2,3#风灵冲击,1#[$tagrole:statu_int=magic_level_风$][&gt;=]2#Requer conhecimento de Arcana de Ar Avançada (Lv. 2)
+黑色沙暴#3,3#连环闪电,1#[$tagrole:statu_int=magic_level_风$][&gt;=]3#Requer conhecimento de Arcana de Ar Mestra (Lv. 3)
+雷雨云#4,3#黑色沙暴,1#[$tagrole:statu_int=magic_level_风$][&gt;=]3#Requer conhecimento de Arcana de Ar Mestra (Lv. 3)</t>
+  </si>
+  <si>
+    <t>炫光连弹#1,3##[$tagrole:statu_int=magic_level_光$][&gt;=]1#Requer conhecimento de Arcana de Luz Básica (Lv. 1)
+群星闪耀#2,3#炫光连弹,1#[$tagrole:statu_int=magic_level_光$][&gt;=]2#Requer conhecimento de Arcana de Luz Avançada (Lv. 2)
+潜能觉醒#3,3#群星闪耀,1#[$tagrole:statu_int=magic_level_光$][&gt;=]2#Requer conhecimento de Arcana de Luz Avançada (Lv. 2)
+回生#4,3#潜能觉醒,1#[$tagrole:statu_int=magic_level_光$][&gt;=]3#Requer conhecimento de Arcana de Luz Mestra (Lv. 3)
+英雄圣光审判#5,3#回生,1#[$tagrole:statu_int=magic_level_光$][&gt;=]3#Requer conhecimento de Arcana de Luz Mestra (Lv. 3)</t>
+  </si>
+  <si>
+    <t>剧毒连弹#1,3##[$tagrole:statu_int=magic_level_暗$][&gt;=]1#Requer conhecimento de Arcana Sombria Básica (Lv. 1)
+剧毒弹雨#2,3#剧毒连弹,1#[$tagrole:statu_int=magic_level_暗$][&gt;=]2#Requer conhecimento de Arcana Sombria Avançada (Lv. 2)
+恐惧连弹#3,3#剧毒弹雨,1#[$tagrole:statu_int=magic_level_暗$][&gt;=]2#Requer conhecimento de Arcana Sombria Avançada (Lv. 2)
+黑暗之爪#4,3#恐惧连弹,1#[$tagrole:statu_int=magic_level_暗$][&gt;=]2#Requer conhecimento de Arcana Sombria Avançada (Lv. 2)
+魔力狂暴#5,3#黑暗之爪,1#[$tagrole:statu_int=magic_level_暗$][&gt;=]3#Requer conhecimento de Arcana Sombria Mestra (Lv. 3)
+深渊束缚#6,3#魔力狂暴,1#[$tagrole:statu_int=magic_level_暗$][&gt;=]3#Requer conhecimento de Arcana Sombria Mestra (Lv. 3)
+黑暗旋涡#7,3#深渊束缚,1#[$tagrole:statu_int=magic_level_暗$][&gt;=]3#Requer conhecimento de Arcana Sombria Mestra (Lv. 3)
+迷惑之月#8,3#黑暗旋涡,1#[$tagrole:statu_int=magic_level_暗$][&gt;=]3#Requer conhecimento de Arcana Sombria Mestra (Lv. 3)</t>
+  </si>
+  <si>
+    <t>NEW野性之魂扑击#1,1
+NEW野性之魂撕咬#1,2
+NEW野性之魂狂野生长#1,3##[$tagrole:level$][&gt;=]5#Requer personagem no nível 5
+NEW野性之魂魔狼形态#2,1##[$tagrole:level$][&gt;=]3#Requer personagem no nível 3
+NEW野性之魂魔狼之啮#3,1#NEW野性之魂魔狼形态,1
+NEW野性之魂狼性之魂#4,1#NEW野性之魂魔狼之啮,1
+NEW野性之魂魔狼形态极#6,1#NEW野性之魂狼性之魂,3#[%get_es:野兽血脉选择魔狼极成功%][&lt;&gt;]-1#Desbloqueie e escolha estudar a Forma Canis no modo história, depois vença seu desafio
+NEW野性之魂蜘蛛形态#2,2##[$tagrole:level$][&gt;=]6#Requer personagem no nível 6
+NEW野性之魂吸血蜘蛛#3,2#NEW野性之魂蜘蛛形态,1
+NEW野性之魂蜘蛛之魂#4,2#NEW野性之魂吸血蜘蛛,1
+NEW野性之魂蜘蛛形态极#6,2#NEW野性之魂蜘蛛之魂,3#[%get_es:野兽血脉选择蜘蛛极成功%][&lt;&gt;]-1#Desbloqueie e escolha estudar a Forma Canis no modo história, depois vença seu desafio
+NEW野性之魂变形精通#1,4##[$tagrole:level$][&gt;=]6#Requer personagem no nível 6
+NEW野性之魂巨鹰形态#2,3##[$tagrole:level$][&gt;=]9#Requer personagem no nível 9
+NEW野性之巨鹰优雅#3,3#NEW野性之魂巨鹰形态,1
+NEW野性之魂巨鹰之魂#4,3#NEW野性之巨鹰优雅,1
+NEW野性之魂巨鹰形态极#6,3#NEW野性之魂巨鹰之魂,3#[%get_es:野兽血脉选择巨鹰极成功%][&lt;&gt;]-1#Desbloqueie e escolha estudar a Forma Águia Grande no modo história, depois vença seu desafio
+NEW野性之自然魔晶#2,4##[$tagrole:level$][&gt;=]10#Requer personagem no nível 10
+NEW野性之魂变形大师#7,2##[$tagrole:level$][&gt;=]20#Requer personagem no nível 20
+NEW野性之魂巨龙形态#3,4##[%get_es:野兽血脉主线913%][&lt;&gt;]-1#Desbloqueie e escolha estudar a Forma Drake no modo história, depois vença seu desafio
+NEW野性之巨龙威严#4,4#NEW野性之魂巨龙形态,1
+NEW野性之魂巨龙之魂#5,4#NEW野性之巨龙威严,1
+NEW野性之魂巨龙形态极#6,4#NEW野性之魂巨龙之魂,3#[%get_es:野兽血脉选择巨龙极成功%][&lt;&gt;]-1#Desbloqueie e escolha estudar a Forma Drakon no modo história, depois vença seu desafio
+NEW野性之魂野性杀戮#7,4##[$tagrole:level$][&gt;=]12#Requer personagem no nível 12</t>
+  </si>
+  <si>
+    <t>古代机械回旋镖#1,3
+古代机械回旋镖强化1#1,4#古代机械回旋镖,1#[$tagrole:level$][&gt;=]5#Requer personagem no nível 5
+古代机械回旋镖强化2#1,2#古代机械回旋镖,1#[$tagrole:level$][&gt;=]5#Requer personagem no nível 5
+古代机械回旋镖强化3#1,1#古代机械回旋镖强化2,1#[$tagrole:level$][&gt;=]10&amp;[$tagplace:stat=ps_古代机械:建设MOD主城$][&gt;=]1#Requer personagem no nível 10 e uma Biblioteca de nível 1 no seu acampamento principal
+古代机械枪#2,3#古代机械回旋镖,1#[$tagrole:level$][&gt;=]5#Requer personagem no nível 5
+古代机械枪强化1#2,4#古代机械枪,1
+古代机械枪强化2#2,5#古代机械枪,1#[$tagplace:stat=ps_古代机械:建设MOD主城$][&gt;=]1#Requer a Biblioteca de nível 1 no seu acampamento principal
+古代机械枪强化3#2,2#古代机械枪强化1,1#[$tagrole:level$][&gt;=]12&amp;[$tagplace:stat=ps_古代机械:建设MOD主城$][&gt;=]2#Requer personagem no nível 12 e uma Biblioteca de nível 2 no seu acampamento principal
+古代机械机关箭塔#3,3#古代机械枪,1#[$tagrole:level$][&gt;=]8&amp;[$tagplace:stat=ps_古代机械:建设MOD主城$][&gt;=]1#Requer personagem no nível 8 e uma Biblioteca de nível 1 no seu acampamento principal
+古代机械机关箭塔强化1#4,3#古代机械机关箭塔,1
+古代机械机关箭塔强化2#4,4#古代机械机关箭塔强化1,1#[$tagplace:stat=ps_古代机械:建设MOD主城$][&gt;=]2#Requer a Biblioteca de nível 2 no seu acampamento principal
+古代机械机关箭塔强化3#4,5#古代机械机关箭塔强化2,1#[$tagplace:stat=ps_古代机械:建设MOD主城$][&gt;=]3#Requer a Biblioteca de nível 3 no seu acampamento principal
+古代机械攻城车#5,3#古代机械机关箭塔,1#[$tagrole:level$][&gt;=]12&amp;[$tagplace:stat=ps_古代机械:建设MOD主城$][&gt;=]2#Requer personagem no nível 12 e uma Biblioteca de nível 2 no seu acampamento principal
+古代机械攻城车强化1#5,2#古代机械攻城车,1
+古代机械攻城车强化2#5,4#古代机械攻城车强化1,1#[$tagrole:level$][&gt;=]15&amp;[$tagplace:stat=ps_古代机械:建设MOD主城$][&gt;=]3#Requer personagem no nível 15 e uma Biblioteca de nível 3 no seu acampamento principal
+古代机械征服#5,5#古代机械攻城车强化2,1#[$tagrole:level$][&gt;=]15&amp;[$tagplace:stat=ps_古代机械:建设MOD主城$][&gt;=]3#Requer personagem no nível 15 e uma Biblioteca de nível 3 no seu acampamento principal</t>
+  </si>
+  <si>
+    <t>NEW古代机械枪#1,1
+NEW古代机械枪强化1#3,1#NEW古代机械枪,3#[$tagplace:stat=ps_古代机械:建设MOD主城$][&gt;=]1#Requer a Biblioteca de nível 1 no seu acampamento principal
+NEW古代机械枪强化2#4,1#NEW古代机械枪强化1,1#[$tagplace:stat=ps_古代机械:建设MOD主城$][&gt;=]2#Requer a Biblioteca de nível 2 no seu acampamento principal
+NEW古代机械机关箭塔#3,3##[$tagrole:level$][&gt;=]8#Requer personagem no nível 8
+NEW古代机械机关箭塔强化1#5,3#NEW古代机械机关箭塔,3#[$tagplace:stat=ps_古代机械:建设MOD主城$][&gt;=]1#Requer a Biblioteca de nível 1 no seu acampamento principal
+NEW古代机械机关箭塔强化2#6,3#NEW古代机械机关箭塔强化1,1#[$tagplace:stat=ps_古代机械:建设MOD主城$][&gt;=]2#Requer a Biblioteca de nível 2 no seu acampamento principal
+NEW古代机械机关箭塔强化3#7,3#NEW古代机械机关箭塔强化2,1#[$tagplace:stat=ps_古代机械:建设MOD主城$][&gt;=]3#Requer a Biblioteca de nível 3 no seu acampamento principal
+NEW古代机械回旋镖#1,4
+NEW古代机械回旋镖强化1#2,4#NEW古代机械回旋镖,3#[$tagplace:stat=ps_古代机械:建设MOD主城$][&gt;=]1#Requer a Biblioteca de nível 1 no seu acampamento principal
+NEW古代机械回旋镖强化2#3,4#NEW古代机械回旋镖强化1,1#[$tagplace:stat=ps_古代机械:建设MOD主城$][&gt;=]2#Requer a Biblioteca de nível 2 no seu acampamento principal
+NEW古代机械攻城车#4,4##[$tagrole:level$][&gt;=]10&amp;[$tagplace:stat=ps_古代机械:建设MOD主城$][&gt;=]2#Requer personagem no nível 10 e uma Biblioteca de nível 2 no seu acampamento principal
+NEW古代机械攻城车强化1#5,4#NEW古代机械攻城车,3#[$tagplace:stat=ps_古代机械:建设MOD主城$][&gt;=]2#Requer a Biblioteca de nível 2 no seu acampamento principal
+NEW古代机械攻城车强化2#6,4#NEW古代机械攻城车强化1,1#[$tagplace:stat=ps_古代机械:建设MOD主城$][&gt;=]3#Requer a Biblioteca de nível 3 no seu acampamento principal
+NEW古代机械攻城车强化3#7,4#NEW古代机械攻城车强化2,1#[$tagplace:stat=ps_古代机械:建设MOD主城$][&gt;=]3#Requer a Biblioteca de nível 3 no seu acampamento principal
+NEW古代机械战旗#2,3##[$tagrole:level$][&gt;=]6#Requer personagem no nível 6
+NEW古代机械盾#6,1##[$tagrole:level$][&gt;=]12&amp;[$tagplace:stat=ps_古代机械:建设MOD主城$][&gt;=]2#Requer personagem no nível 12 e uma Biblioteca de nível 2 no seu acampamento principal
+NEW古代机械护甲改装#2,2##[$tagrole:level$][&gt;=]5#Requer personagem no nível 5
+NEW古代机械兵器改装#4,2#NEW古代机械护甲改装,1#[$tagrole:level$][&gt;=]9&amp;[$tagplace:stat=ps_古代机械:建设MOD主城$][&gt;=]1#Requer personagem no nível 9 e uma Biblioteca de nível 1 no seu acampamento principal
+NEW古代机械手弩武装#5,2#NEW古代机械兵器改装,1#[$tagrole:level$][&gt;=]13&amp;[$tagplace:stat=ps_古代机械:建设MOD主城$][&gt;=]2#Requer personagem no nível 13 e uma Biblioteca de nível 2 no seu acampamento principal
+NEW古代机械天神军装#7,2#NEW古代机械手弩武装,1#[$tagrole:level$][&gt;=]17&amp;[$tagplace:stat=ps_古代机械:建设MOD主城$][&gt;=]3#Requer personagem no nível 17 e uma Biblioteca de nível 3 no seu acampamento principal</t>
+  </si>
+  <si>
+    <t>T火球术#1,2##[$tagrole:statu_int=magic_talent$][&gt;=]1#Requer Basic Arcana talent
+T火舌图腾#3,2#T火球术,1#[$tagrole:level$][&gt;=]4&amp;[$tagrole:statu_int=magic_talent$][&gt;=]2#Requer personagem no nível 4 e o talento de Arcana Avançada
+T火葬柴堆#5,2#T火舌图腾,1#[$tagrole:level$][&gt;=]8&amp;[$tagrole:statu_int=magic_talent$][&gt;=]3#Requer personagem no nível 8 e o talento de Arcana Mestre
+T巫术精通火#1,3##[$tagrole:level$][&gt;=]6&amp;[$tagrole:statu_int=magic_talent$][&gt;=]2#Requer personagem no nível 6 e o talento de Arcana Avançada
+T烈焰护罩#3,3##[$tagrole:level$][&gt;=]10&amp;[$tagrole:statu_int=magic_talent$][&gt;=]3#Requer personagem no nível 10 e o talento de Arcana Mestre</t>
+  </si>
+  <si>
+    <t>T霜冻#1,2##[$tagrole:statu_int=magic_talent$][&gt;=]1#Requer Basic Arcana talent
+T冰矛#3,2#T霜冻,1#[$tagrole:level$][&gt;=]4&amp;[$tagrole:statu_int=magic_talent$][&gt;=]2#Requer personagem no nível 4 e o talento de Arcana Avançada
+T暴风雪#5,2#T冰矛,1#[$tagrole:level$][&gt;=]8&amp;[$tagrole:statu_int=magic_talent$][&gt;=]3#Requer personagem no nível 8 e o talento de Arcana Mestre
+T巫术精通冰#1,3##[$tagrole:level$][&gt;=]6&amp;[$tagrole:statu_int=magic_talent$][&gt;=]2#Requer personagem no nível 6 e o talento de Arcana Avançada
+T寒冰光环#3,3##[$tagrole:level$][&gt;=]10&amp;[$tagrole:statu_int=magic_talent$][&gt;=]3#Requer personagem no nível 10 e o talento de Arcana Mestre</t>
+  </si>
+  <si>
+    <t>T雷光#1,2##[$tagrole:statu_int=magic_talent$][&gt;=]1#Requer Basic Arcana talent
+T风灵冲击#3,2#T雷光,1#[$tagrole:level$][&gt;=]4&amp;[$tagrole:statu_int=magic_talent$][&gt;=]2#Requer personagem no nível 4 e o talento de Arcana Avançada
+T链状闪电#5,2#T风灵冲击,1#[$tagrole:level$][&gt;=]8&amp;[$tagrole:statu_int=magic_talent$][&gt;=]3#Requer personagem no nível 8 e o talento de Arcana Mestre
+T巫术精通雷#1,3##[$tagrole:level$][&gt;=]6&amp;[$tagrole:statu_int=magic_talent$][&gt;=]2#Requer personagem no nível 6 e o talento de Arcana Avançada
+T静态盾#3,3##[$tagrole:level$][&gt;=]10&amp;[$tagrole:statu_int=magic_talent$][&gt;=]3#Requer personagem no nível 10 e o talento de Arcana Mestre</t>
+  </si>
+  <si>
+    <t>T炫光连弹#1,2##[$tagrole:statu_int=magic_talent$][&gt;=]1#Requer Basic Arcana talent
+T光明图腾#3,2#T炫光连弹,1#[$tagrole:level$][&gt;=]4&amp;[$tagrole:statu_int=magic_talent$][&gt;=]2#Requer personagem no nível 4 e o talento de Arcana Avançada
+T圣光审判#5,2#T光明图腾,1#[$tagrole:level$][&gt;=]8&amp;[$tagrole:statu_int=magic_talent$][&gt;=]3#Requer personagem no nível 8 e o talento de Arcana Mestre
+T巫术精通光#1,3##[$tagrole:level$][&gt;=]6&amp;[$tagrole:statu_int=magic_talent$][&gt;=]2#Requer personagem no nível 6 e o talento de Arcana Avançada
+T炫光盾#3,3##[$tagrole:level$][&gt;=]10&amp;[$tagrole:statu_int=magic_talent$][&gt;=]3#Requer personagem no nível 10 e o talento de Arcana Mestre</t>
+  </si>
+  <si>
+    <t>T毒弹爆#1,2##[$tagrole:statu_int=magic_talent$][&gt;=]1#Requer Basic Arcana talent
+T暗影拍击#3,2#T毒弹爆,1#[$tagrole:level$][&gt;=]4&amp;[$tagrole:statu_int=magic_talent$][&gt;=]2#Requer personagem no nível 4 e o talento de Arcana Avançada
+T魂灭#5,2#T暗影拍击,1#[$tagrole:level$][&gt;=]8&amp;[$tagrole:statu_int=magic_talent$][&gt;=]3#Requer personagem no nível 8 e o talento de Arcana Mestre
+T巫术精通暗#1,3##[$tagrole:level$][&gt;=]6&amp;[$tagrole:statu_int=magic_talent$][&gt;=]2#Requer personagem no nível 6 e o talento de Arcana Avançada
+T暗影缠绕#3,3##[$tagrole:level$][&gt;=]10&amp;[$tagrole:statu_int=magic_talent$][&gt;=]3#Requer personagem no nível 10 e o talento de Arcana Mestre</t>
+  </si>
+  <si>
+    <t>T燃烧瓶#1,2##[$tagrole:statu_int=magic_talent$][&gt;=]1#Requer Basic Arcana talent
+T能量瓶#3,2#T燃烧瓶,1#[$tagrole:level$][&gt;=]3&amp;[$tagrole:statu_int=magic_talent$][&gt;=]1#Requer personagem no nível 3 and Basic Arcana talent
+T震荡瓶#4,2#T能量瓶,1#[$tagrole:level$][&gt;=]6&amp;[$tagrole:statu_int=magic_talent$][&gt;=]2#Requer personagem no nível 6 e o talento de Arcana Avançada
+T潜能瓶#5,2#T震荡瓶,1#[$tagrole:level$][&gt;=]9&amp;[$tagrole:statu_int=magic_talent$][&gt;=]3#Requer personagem no nível 9 e o talento de Arcana Mestre
+T炼金药剂#3,3##[$tagrole:level$][&gt;=]5&amp;[$tagrole:statu_int=magic_talent$][&gt;=]2#Requer personagem no nível 5 e o talento de Arcana Avançada</t>
+  </si>
+  <si>
+    <t>T火元素#1,2##[$tagrole:statu_int=magic_talent$][&gt;=]1#Requer Basic Arcana talent
+T冰球环绕#3,2#T火元素,1#[$tagrole:level$][&gt;=]4&amp;[$tagrole:statu_int=magic_talent$][&gt;=]2#Requer personagem no nível 4 e o talento de Arcana Avançada
+T水泡召唤#4,2#T冰球环绕,1#[$tagrole:level$][&gt;=]8&amp;[$tagrole:statu_int=magic_talent$][&gt;=]3#Requer personagem no nível 8 e o talento de Arcana Mestre
+T元素降临#5,2#T水泡召唤,1#[$tagrole:level$][&gt;=]12&amp;[$tagrole:statu_int=magic_talent$][&gt;=]3#Requer personagem no nível 12 e o talento de Arcana Mestre
+T巫术精通召唤#3,3##[$tagrole:level$][&gt;=]6&amp;[$tagrole:statu_int=magic_talent$][&gt;=]2#Requer personagem no nível 6 e o talento de Arcana Avançada</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4294,102 +4301,102 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4398,31 +4405,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4733,8 +4743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="A1:E138"/>
+    <sheetView tabSelected="1" topLeftCell="D150" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E79" sqref="E79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -4745,7 +4755,7 @@
     <col min="5" max="5" width="129.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" ht="36">
       <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
@@ -4762,7 +4772,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" ht="144">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -4776,10 +4786,10 @@
         <v>306</v>
       </c>
       <c r="E2" s="33" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="96">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -4787,16 +4797,16 @@
         <v>8</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="40" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="96">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
@@ -4804,16 +4814,16 @@
         <v>11</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="40" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="120">
       <c r="A5" s="5" t="s">
         <v>13</v>
       </c>
@@ -4821,16 +4831,16 @@
         <v>14</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="40" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="E5" s="41" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="192">
       <c r="A6" s="5" t="s">
         <v>16</v>
       </c>
@@ -4838,16 +4848,16 @@
         <v>17</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="40" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="E6" s="41" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="75">
       <c r="A7" s="7" t="s">
         <v>19</v>
       </c>
@@ -4855,7 +4865,7 @@
         <v>19</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>20</v>
@@ -4864,7 +4874,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" ht="120">
       <c r="A8" s="7" t="s">
         <v>21</v>
       </c>
@@ -4872,7 +4882,7 @@
         <v>21</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>22</v>
@@ -4881,7 +4891,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" ht="264">
       <c r="A9" s="7" t="s">
         <v>23</v>
       </c>
@@ -4889,13 +4899,13 @@
         <v>23</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>24</v>
       </c>
       <c r="E9" s="40" t="s">
-        <v>319</v>
+        <v>431</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -4906,7 +4916,7 @@
         <v>25</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>26</v>
@@ -4915,7 +4925,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" ht="336">
       <c r="A11" s="7" t="s">
         <v>27</v>
       </c>
@@ -4923,16 +4933,16 @@
         <v>27</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>28</v>
       </c>
       <c r="E11" s="40" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="372">
       <c r="A12" s="7" t="s">
         <v>29</v>
       </c>
@@ -4940,16 +4950,16 @@
         <v>29</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="D12" s="38" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="E12" s="39" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="150">
       <c r="A13" s="1" t="s">
         <v>30</v>
       </c>
@@ -4957,16 +4967,16 @@
         <v>30</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="D13" s="38" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="E13" s="39" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="150">
       <c r="A14" s="1" t="s">
         <v>31</v>
       </c>
@@ -4974,16 +4984,16 @@
         <v>31</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E14" s="40" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="150">
       <c r="A15" s="1" t="s">
         <v>33</v>
       </c>
@@ -4991,16 +5001,16 @@
         <v>33</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E15" s="40" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="165">
       <c r="A16" s="1" t="s">
         <v>35</v>
       </c>
@@ -5008,16 +5018,16 @@
         <v>35</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E16" s="40" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="409.5">
       <c r="A17" s="9" t="s">
         <v>37</v>
       </c>
@@ -5025,16 +5035,16 @@
         <v>38</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>39</v>
       </c>
       <c r="E17" s="40" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="300">
       <c r="A18" s="9" t="s">
         <v>40</v>
       </c>
@@ -5048,10 +5058,10 @@
         <v>42</v>
       </c>
       <c r="E18" s="40" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="75">
       <c r="A19" s="9" t="s">
         <v>43</v>
       </c>
@@ -5059,7 +5069,7 @@
         <v>43</v>
       </c>
       <c r="C19" s="31" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="D19" s="10" t="s">
         <v>44</v>
@@ -5068,7 +5078,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" ht="252">
       <c r="A20" s="9" t="s">
         <v>45</v>
       </c>
@@ -5082,10 +5092,10 @@
         <v>48</v>
       </c>
       <c r="E20" s="40" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="300">
       <c r="A21" s="10" t="s">
         <v>49</v>
       </c>
@@ -5093,16 +5103,16 @@
         <v>50</v>
       </c>
       <c r="C21" s="31" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
       <c r="D21" s="10" t="s">
         <v>51</v>
       </c>
       <c r="E21" s="40" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="210">
       <c r="A22" s="11" t="s">
         <v>52</v>
       </c>
@@ -5110,16 +5120,16 @@
         <v>53</v>
       </c>
       <c r="C22" s="31" t="s">
-        <v>342</v>
+        <v>326</v>
       </c>
       <c r="D22" s="12" t="s">
         <v>54</v>
       </c>
       <c r="E22" s="40" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="330">
       <c r="A23" s="9" t="s">
         <v>55</v>
       </c>
@@ -5127,16 +5137,16 @@
         <v>53</v>
       </c>
       <c r="C23" s="31" t="s">
-        <v>342</v>
+        <v>326</v>
       </c>
       <c r="D23" s="10" t="s">
         <v>56</v>
       </c>
       <c r="E23" s="40" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="150">
       <c r="A24" s="13" t="s">
         <v>57</v>
       </c>
@@ -5144,7 +5154,7 @@
         <v>57</v>
       </c>
       <c r="C24" s="31" t="s">
-        <v>345</v>
+        <v>327</v>
       </c>
       <c r="D24" s="14" t="s">
         <v>58</v>
@@ -5153,7 +5163,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" ht="150">
       <c r="A25" s="1" t="s">
         <v>59</v>
       </c>
@@ -5161,16 +5171,16 @@
         <v>59</v>
       </c>
       <c r="C25" s="31" t="s">
-        <v>346</v>
+        <v>328</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>60</v>
       </c>
       <c r="E25" s="40" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="210">
       <c r="A26" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,16 +5188,16 @@
         <v>61</v>
       </c>
       <c r="C26" s="31" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>62</v>
       </c>
       <c r="E26" s="40" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="255">
       <c r="A27" s="1" t="s">
         <v>63</v>
       </c>
@@ -5195,16 +5205,16 @@
         <v>63</v>
       </c>
       <c r="C27" s="31" t="s">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>64</v>
       </c>
       <c r="E27" s="40" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="195">
       <c r="A28" s="1" t="s">
         <v>65</v>
       </c>
@@ -5212,16 +5222,16 @@
         <v>65</v>
       </c>
       <c r="C28" s="31" t="s">
-        <v>352</v>
+        <v>331</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>66</v>
       </c>
       <c r="E28" s="40" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="60">
       <c r="A29" s="1" t="s">
         <v>67</v>
       </c>
@@ -5229,7 +5239,7 @@
         <v>67</v>
       </c>
       <c r="C29" s="31" t="s">
-        <v>354</v>
+        <v>332</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>68</v>
@@ -5238,7 +5248,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" ht="120">
       <c r="A30" s="1" t="s">
         <v>69</v>
       </c>
@@ -5246,16 +5256,16 @@
         <v>69</v>
       </c>
       <c r="C30" s="31" t="s">
-        <v>355</v>
+        <v>333</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>70</v>
       </c>
       <c r="E30" s="40" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="60">
       <c r="A31" s="1" t="s">
         <v>71</v>
       </c>
@@ -5263,7 +5273,7 @@
         <v>71</v>
       </c>
       <c r="C31" s="31" t="s">
-        <v>357</v>
+        <v>334</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>72</v>
@@ -5272,7 +5282,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" ht="60">
       <c r="A32" s="1" t="s">
         <v>73</v>
       </c>
@@ -5280,7 +5290,7 @@
         <v>73</v>
       </c>
       <c r="C32" s="31" t="s">
-        <v>358</v>
+        <v>335</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>74</v>
@@ -5289,7 +5299,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" ht="270">
       <c r="A33" s="1" t="s">
         <v>75</v>
       </c>
@@ -5297,16 +5307,16 @@
         <v>76</v>
       </c>
       <c r="C33" s="31" t="s">
-        <v>359</v>
+        <v>336</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>77</v>
       </c>
       <c r="E33" s="40" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="165">
       <c r="A34" s="1" t="s">
         <v>78</v>
       </c>
@@ -5314,16 +5324,16 @@
         <v>78</v>
       </c>
       <c r="C34" s="31" t="s">
-        <v>361</v>
+        <v>337</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>79</v>
       </c>
       <c r="E34" s="40" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="288">
       <c r="A35" s="1" t="s">
         <v>80</v>
       </c>
@@ -5331,16 +5341,16 @@
         <v>81</v>
       </c>
       <c r="C35" s="31" t="s">
-        <v>363</v>
+        <v>338</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>82</v>
       </c>
       <c r="E35" s="40" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="288">
       <c r="A36" s="1" t="s">
         <v>83</v>
       </c>
@@ -5348,16 +5358,16 @@
         <v>84</v>
       </c>
       <c r="C36" s="31" t="s">
-        <v>365</v>
+        <v>339</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>85</v>
       </c>
       <c r="E36" s="40" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="288">
       <c r="A37" s="1" t="s">
         <v>86</v>
       </c>
@@ -5365,16 +5375,16 @@
         <v>87</v>
       </c>
       <c r="C37" s="31" t="s">
-        <v>367</v>
+        <v>340</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>88</v>
       </c>
       <c r="E37" s="40" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="90">
       <c r="A38" s="1" t="s">
         <v>89</v>
       </c>
@@ -5382,16 +5392,16 @@
         <v>90</v>
       </c>
       <c r="C38" s="31" t="s">
-        <v>369</v>
+        <v>341</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>91</v>
       </c>
       <c r="E38" s="40" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="90">
       <c r="A39" s="1" t="s">
         <v>92</v>
       </c>
@@ -5399,16 +5409,16 @@
         <v>93</v>
       </c>
       <c r="C39" s="31" t="s">
-        <v>371</v>
+        <v>342</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>94</v>
       </c>
       <c r="E39" s="40" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="90">
       <c r="A40" s="1" t="s">
         <v>95</v>
       </c>
@@ -5416,16 +5426,16 @@
         <v>96</v>
       </c>
       <c r="C40" s="31" t="s">
-        <v>373</v>
+        <v>343</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>97</v>
       </c>
       <c r="E40" s="40" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="90">
       <c r="A41" s="1" t="s">
         <v>98</v>
       </c>
@@ -5433,16 +5443,16 @@
         <v>99</v>
       </c>
       <c r="C41" s="31" t="s">
-        <v>375</v>
+        <v>344</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>100</v>
       </c>
       <c r="E41" s="40" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="90">
       <c r="A42" s="1" t="s">
         <v>101</v>
       </c>
@@ -5450,16 +5460,16 @@
         <v>102</v>
       </c>
       <c r="C42" s="31" t="s">
-        <v>377</v>
+        <v>345</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>103</v>
       </c>
       <c r="E42" s="40" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="360">
       <c r="A43" s="9" t="s">
         <v>104</v>
       </c>
@@ -5467,16 +5477,16 @@
         <v>105</v>
       </c>
       <c r="C43" s="31" t="s">
-        <v>379</v>
+        <v>346</v>
       </c>
       <c r="D43" s="10" t="s">
         <v>106</v>
       </c>
       <c r="E43" s="40" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="156">
       <c r="A44" s="1" t="s">
         <v>107</v>
       </c>
@@ -5484,7 +5494,7 @@
         <v>107</v>
       </c>
       <c r="C44" s="31" t="s">
-        <v>381</v>
+        <v>347</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>108</v>
@@ -5493,7 +5503,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" ht="285">
       <c r="A45" s="7" t="s">
         <v>110</v>
       </c>
@@ -5501,16 +5511,16 @@
         <v>29</v>
       </c>
       <c r="C45" s="31" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="D45" s="38" t="s">
-        <v>382</v>
+        <v>348</v>
       </c>
       <c r="E45" s="33" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="330">
       <c r="A46" s="1" t="s">
         <v>111</v>
       </c>
@@ -5518,16 +5528,16 @@
         <v>112</v>
       </c>
       <c r="C46" s="31" t="s">
-        <v>384</v>
+        <v>349</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>113</v>
       </c>
       <c r="E46" s="40" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="330">
       <c r="A47" s="7" t="s">
         <v>114</v>
       </c>
@@ -5535,7 +5545,7 @@
         <v>114</v>
       </c>
       <c r="C47" s="31" t="s">
-        <v>386</v>
+        <v>350</v>
       </c>
       <c r="D47" s="8" t="s">
         <v>115</v>
@@ -5544,7 +5554,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" ht="330">
       <c r="A48" s="15" t="s">
         <v>116</v>
       </c>
@@ -5552,16 +5562,16 @@
         <v>29</v>
       </c>
       <c r="C48" s="31" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="D48" s="16" t="s">
         <v>117</v>
       </c>
       <c r="E48" s="40" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="255">
       <c r="A49" s="17" t="s">
         <v>118</v>
       </c>
@@ -5569,16 +5579,16 @@
         <v>27</v>
       </c>
       <c r="C49" s="31" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="D49" s="18" t="s">
         <v>119</v>
       </c>
       <c r="E49" s="40" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="240">
       <c r="A50" s="17" t="s">
         <v>120</v>
       </c>
@@ -5586,16 +5596,16 @@
         <v>121</v>
       </c>
       <c r="C50" s="31" t="s">
-        <v>342</v>
+        <v>326</v>
       </c>
       <c r="D50" s="18" t="s">
         <v>122</v>
       </c>
       <c r="E50" s="40" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="409.5">
       <c r="A51" s="17" t="s">
         <v>123</v>
       </c>
@@ -5603,16 +5613,16 @@
         <v>63</v>
       </c>
       <c r="C51" s="31" t="s">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="D51" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="E51" s="40" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+      <c r="E51" s="41" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="270">
       <c r="A52" s="17" t="s">
         <v>125</v>
       </c>
@@ -5620,16 +5630,16 @@
         <v>63</v>
       </c>
       <c r="C52" s="31" t="s">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="D52" s="18" t="s">
         <v>126</v>
       </c>
       <c r="E52" s="40" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="255">
       <c r="A53" s="15" t="s">
         <v>127</v>
       </c>
@@ -5637,16 +5647,16 @@
         <v>29</v>
       </c>
       <c r="C53" s="31" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="D53" s="16" t="s">
         <v>128</v>
       </c>
       <c r="E53" s="40" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="348">
       <c r="A54" s="17" t="s">
         <v>129</v>
       </c>
@@ -5660,10 +5670,10 @@
         <v>130</v>
       </c>
       <c r="E54" s="40" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="409.5">
       <c r="A55" s="17" t="s">
         <v>131</v>
       </c>
@@ -5671,16 +5681,16 @@
         <v>105</v>
       </c>
       <c r="C55" s="31" t="s">
-        <v>379</v>
+        <v>346</v>
       </c>
       <c r="D55" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="E55" s="40" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+      <c r="E55" s="41" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="75">
       <c r="A56" s="19" t="s">
         <v>133</v>
       </c>
@@ -5688,16 +5698,16 @@
         <v>134</v>
       </c>
       <c r="C56" s="31" t="s">
-        <v>395</v>
+        <v>351</v>
       </c>
       <c r="D56" s="20" t="s">
         <v>135</v>
       </c>
       <c r="E56" s="40" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="90">
       <c r="A57" s="19" t="s">
         <v>136</v>
       </c>
@@ -5705,16 +5715,16 @@
         <v>137</v>
       </c>
       <c r="C57" s="31" t="s">
-        <v>397</v>
+        <v>352</v>
       </c>
       <c r="D57" s="20" t="s">
         <v>138</v>
       </c>
       <c r="E57" s="40" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="90">
       <c r="A58" s="19" t="s">
         <v>139</v>
       </c>
@@ -5722,16 +5732,16 @@
         <v>140</v>
       </c>
       <c r="C58" s="31" t="s">
-        <v>399</v>
+        <v>353</v>
       </c>
       <c r="D58" s="20" t="s">
         <v>141</v>
       </c>
       <c r="E58" s="40" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="75">
       <c r="A59" s="21" t="s">
         <v>142</v>
       </c>
@@ -5739,16 +5749,16 @@
         <v>30</v>
       </c>
       <c r="C59" s="31" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="D59" s="22" t="s">
         <v>143</v>
       </c>
       <c r="E59" s="40" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="75">
       <c r="A60" s="21" t="s">
         <v>144</v>
       </c>
@@ -5756,16 +5766,16 @@
         <v>33</v>
       </c>
       <c r="C60" s="31" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="D60" s="22" t="s">
         <v>145</v>
       </c>
       <c r="E60" s="40" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="90">
       <c r="A61" s="23" t="s">
         <v>146</v>
       </c>
@@ -5773,16 +5783,16 @@
         <v>69</v>
       </c>
       <c r="C61" s="31" t="s">
-        <v>355</v>
+        <v>333</v>
       </c>
       <c r="D61" s="24" t="s">
         <v>147</v>
       </c>
       <c r="E61" s="40" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="90">
       <c r="A62" s="23" t="s">
         <v>148</v>
       </c>
@@ -5790,16 +5800,16 @@
         <v>149</v>
       </c>
       <c r="C62" s="31" t="s">
-        <v>404</v>
+        <v>354</v>
       </c>
       <c r="D62" s="24" t="s">
         <v>150</v>
       </c>
       <c r="E62" s="40" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="75">
       <c r="A63" s="21" t="s">
         <v>151</v>
       </c>
@@ -5807,16 +5817,16 @@
         <v>152</v>
       </c>
       <c r="C63" s="31" t="s">
-        <v>406</v>
+        <v>355</v>
       </c>
       <c r="D63" s="22" t="s">
         <v>153</v>
       </c>
       <c r="E63" s="40" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="75">
       <c r="A64" s="21" t="s">
         <v>154</v>
       </c>
@@ -5824,16 +5834,16 @@
         <v>155</v>
       </c>
       <c r="C64" s="31" t="s">
-        <v>408</v>
+        <v>356</v>
       </c>
       <c r="D64" s="22" t="s">
         <v>156</v>
       </c>
       <c r="E64" s="40" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="75">
       <c r="A65" s="19" t="s">
         <v>157</v>
       </c>
@@ -5841,16 +5851,16 @@
         <v>65</v>
       </c>
       <c r="C65" s="31" t="s">
-        <v>352</v>
+        <v>331</v>
       </c>
       <c r="D65" s="20" t="s">
         <v>158</v>
       </c>
       <c r="E65" s="40" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="75">
       <c r="A66" s="19" t="s">
         <v>159</v>
       </c>
@@ -5858,16 +5868,16 @@
         <v>160</v>
       </c>
       <c r="C66" s="31" t="s">
-        <v>411</v>
+        <v>357</v>
       </c>
       <c r="D66" s="20" t="s">
         <v>161</v>
       </c>
       <c r="E66" s="40" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="75">
       <c r="A67" s="15" t="s">
         <v>162</v>
       </c>
@@ -5875,16 +5885,16 @@
         <v>81</v>
       </c>
       <c r="C67" s="31" t="s">
-        <v>363</v>
+        <v>338</v>
       </c>
       <c r="D67" s="16" t="s">
         <v>163</v>
       </c>
       <c r="E67" s="40" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="75">
       <c r="A68" s="15" t="s">
         <v>164</v>
       </c>
@@ -5892,16 +5902,16 @@
         <v>84</v>
       </c>
       <c r="C68" s="31" t="s">
-        <v>365</v>
+        <v>339</v>
       </c>
       <c r="D68" s="16" t="s">
         <v>165</v>
       </c>
       <c r="E68" s="40" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="75">
       <c r="A69" s="15" t="s">
         <v>166</v>
       </c>
@@ -5909,16 +5919,16 @@
         <v>167</v>
       </c>
       <c r="C69" s="31" t="s">
-        <v>415</v>
+        <v>358</v>
       </c>
       <c r="D69" s="16" t="s">
         <v>168</v>
       </c>
       <c r="E69" s="40" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="75">
       <c r="A70" s="15" t="s">
         <v>169</v>
       </c>
@@ -5926,16 +5936,16 @@
         <v>170</v>
       </c>
       <c r="C70" s="31" t="s">
-        <v>417</v>
+        <v>359</v>
       </c>
       <c r="D70" s="16" t="s">
         <v>171</v>
       </c>
       <c r="E70" s="40" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="75">
       <c r="A71" s="15" t="s">
         <v>172</v>
       </c>
@@ -5943,16 +5953,16 @@
         <v>173</v>
       </c>
       <c r="C71" s="31" t="s">
-        <v>419</v>
+        <v>360</v>
       </c>
       <c r="D71" s="16" t="s">
         <v>174</v>
       </c>
       <c r="E71" s="40" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="75">
       <c r="A72" s="19" t="s">
         <v>175</v>
       </c>
@@ -5960,16 +5970,16 @@
         <v>176</v>
       </c>
       <c r="C72" s="31" t="s">
-        <v>421</v>
+        <v>361</v>
       </c>
       <c r="D72" s="20" t="s">
         <v>177</v>
       </c>
       <c r="E72" s="40" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="90">
       <c r="A73" s="19" t="s">
         <v>178</v>
       </c>
@@ -5977,16 +5987,16 @@
         <v>179</v>
       </c>
       <c r="C73" s="31" t="s">
-        <v>423</v>
+        <v>362</v>
       </c>
       <c r="D73" s="20" t="s">
         <v>180</v>
       </c>
       <c r="E73" s="40" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="60">
       <c r="A74" s="15" t="s">
         <v>181</v>
       </c>
@@ -5994,16 +6004,16 @@
         <v>182</v>
       </c>
       <c r="C74" s="31" t="s">
-        <v>425</v>
+        <v>363</v>
       </c>
       <c r="D74" s="16" t="s">
         <v>183</v>
       </c>
       <c r="E74" s="40" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="75">
       <c r="A75" s="15" t="s">
         <v>184</v>
       </c>
@@ -6011,16 +6021,16 @@
         <v>185</v>
       </c>
       <c r="C75" s="31" t="s">
-        <v>427</v>
+        <v>364</v>
       </c>
       <c r="D75" s="16" t="s">
         <v>186</v>
       </c>
       <c r="E75" s="40" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="75">
       <c r="A76" s="17" t="s">
         <v>187</v>
       </c>
@@ -6028,16 +6038,16 @@
         <v>188</v>
       </c>
       <c r="C76" s="31" t="s">
-        <v>429</v>
+        <v>365</v>
       </c>
       <c r="D76" s="18" t="s">
         <v>189</v>
       </c>
       <c r="E76" s="40" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="60">
       <c r="A77" s="17" t="s">
         <v>190</v>
       </c>
@@ -6045,16 +6055,16 @@
         <v>191</v>
       </c>
       <c r="C77" s="31" t="s">
-        <v>431</v>
+        <v>366</v>
       </c>
       <c r="D77" s="18" t="s">
         <v>192</v>
       </c>
       <c r="E77" s="40" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="75">
       <c r="A78" s="17" t="s">
         <v>193</v>
       </c>
@@ -6062,16 +6072,16 @@
         <v>194</v>
       </c>
       <c r="C78" s="31" t="s">
-        <v>433</v>
+        <v>367</v>
       </c>
       <c r="D78" s="18" t="s">
         <v>195</v>
       </c>
       <c r="E78" s="40" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="120">
       <c r="A79" s="15" t="s">
         <v>196</v>
       </c>
@@ -6079,16 +6089,16 @@
         <v>197</v>
       </c>
       <c r="C79" s="31" t="s">
-        <v>435</v>
+        <v>368</v>
       </c>
       <c r="D79" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="E79" s="40" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="E79" s="41" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="120">
       <c r="A80" s="15" t="s">
         <v>199</v>
       </c>
@@ -6096,16 +6106,16 @@
         <v>200</v>
       </c>
       <c r="C80" s="31" t="s">
-        <v>437</v>
+        <v>369</v>
       </c>
       <c r="D80" s="16" t="s">
         <v>201</v>
       </c>
       <c r="E80" s="40" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="120">
       <c r="A81" s="15" t="s">
         <v>202</v>
       </c>
@@ -6113,16 +6123,16 @@
         <v>203</v>
       </c>
       <c r="C81" s="31" t="s">
-        <v>439</v>
+        <v>370</v>
       </c>
       <c r="D81" s="16" t="s">
         <v>204</v>
       </c>
       <c r="E81" s="40" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="120">
       <c r="A82" s="15" t="s">
         <v>205</v>
       </c>
@@ -6130,16 +6140,16 @@
         <v>19</v>
       </c>
       <c r="C82" s="31" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="D82" s="16" t="s">
         <v>206</v>
       </c>
       <c r="E82" s="40" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="120">
       <c r="A83" s="15" t="s">
         <v>207</v>
       </c>
@@ -6147,16 +6157,16 @@
         <v>21</v>
       </c>
       <c r="C83" s="31" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="D83" s="16" t="s">
         <v>208</v>
       </c>
       <c r="E83" s="40" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="120">
       <c r="A84" s="15" t="s">
         <v>209</v>
       </c>
@@ -6164,16 +6174,16 @@
         <v>210</v>
       </c>
       <c r="C84" s="31" t="s">
-        <v>443</v>
+        <v>371</v>
       </c>
       <c r="D84" s="16" t="s">
         <v>211</v>
       </c>
       <c r="E84" s="40" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="135">
       <c r="A85" s="15" t="s">
         <v>212</v>
       </c>
@@ -6181,16 +6191,16 @@
         <v>213</v>
       </c>
       <c r="C85" s="31" t="s">
-        <v>445</v>
+        <v>372</v>
       </c>
       <c r="D85" s="16" t="s">
         <v>214</v>
       </c>
       <c r="E85" s="40" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="75">
       <c r="A86" s="25" t="s">
         <v>215</v>
       </c>
@@ -6198,16 +6208,16 @@
         <v>216</v>
       </c>
       <c r="C86" s="31" t="s">
-        <v>447</v>
+        <v>373</v>
       </c>
       <c r="D86" s="26" t="s">
         <v>217</v>
       </c>
       <c r="E86" s="40" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="60">
       <c r="A87" s="25" t="s">
         <v>218</v>
       </c>
@@ -6215,16 +6225,16 @@
         <v>219</v>
       </c>
       <c r="C87" s="31" t="s">
-        <v>449</v>
+        <v>374</v>
       </c>
       <c r="D87" s="26" t="s">
         <v>220</v>
       </c>
       <c r="E87" s="40" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="75">
       <c r="A88" s="25" t="s">
         <v>221</v>
       </c>
@@ -6232,16 +6242,16 @@
         <v>222</v>
       </c>
       <c r="C88" s="31" t="s">
-        <v>451</v>
+        <v>375</v>
       </c>
       <c r="D88" s="26" t="s">
         <v>223</v>
       </c>
       <c r="E88" s="40" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="60">
       <c r="A89" s="25" t="s">
         <v>224</v>
       </c>
@@ -6249,16 +6259,16 @@
         <v>225</v>
       </c>
       <c r="C89" s="31" t="s">
-        <v>453</v>
+        <v>376</v>
       </c>
       <c r="D89" s="26" t="s">
         <v>226</v>
       </c>
       <c r="E89" s="40" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="75">
       <c r="A90" s="25" t="s">
         <v>227</v>
       </c>
@@ -6266,16 +6276,16 @@
         <v>228</v>
       </c>
       <c r="C90" s="31" t="s">
-        <v>455</v>
+        <v>377</v>
       </c>
       <c r="D90" s="26" t="s">
         <v>229</v>
       </c>
       <c r="E90" s="40" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="75">
       <c r="A91" s="25" t="s">
         <v>230</v>
       </c>
@@ -6283,16 +6293,16 @@
         <v>231</v>
       </c>
       <c r="C91" s="31" t="s">
-        <v>457</v>
+        <v>378</v>
       </c>
       <c r="D91" s="26" t="s">
         <v>232</v>
       </c>
       <c r="E91" s="40" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="225">
       <c r="A92" s="25" t="s">
         <v>233</v>
       </c>
@@ -6300,16 +6310,16 @@
         <v>234</v>
       </c>
       <c r="C92" s="31" t="s">
-        <v>459</v>
+        <v>379</v>
       </c>
       <c r="D92" s="26" t="s">
         <v>235</v>
       </c>
       <c r="E92" s="40" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="204">
       <c r="A93" s="25" t="s">
         <v>236</v>
       </c>
@@ -6317,16 +6327,16 @@
         <v>237</v>
       </c>
       <c r="C93" s="31" t="s">
-        <v>461</v>
+        <v>380</v>
       </c>
       <c r="D93" s="26" t="s">
         <v>238</v>
       </c>
       <c r="E93" s="40" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="210">
       <c r="A94" s="25" t="s">
         <v>239</v>
       </c>
@@ -6340,10 +6350,10 @@
         <v>242</v>
       </c>
       <c r="E94" s="40" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="225">
       <c r="A95" s="1" t="s">
         <v>243</v>
       </c>
@@ -6351,16 +6361,16 @@
         <v>243</v>
       </c>
       <c r="C95" s="31" t="s">
-        <v>464</v>
+        <v>381</v>
       </c>
       <c r="D95" s="35" t="s">
-        <v>465</v>
+        <v>382</v>
       </c>
       <c r="E95" s="36" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="165">
       <c r="A96" s="1" t="s">
         <v>244</v>
       </c>
@@ -6368,7 +6378,7 @@
         <v>243</v>
       </c>
       <c r="C96" s="31" t="s">
-        <v>464</v>
+        <v>381</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>245</v>
@@ -6377,7 +6387,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:5" ht="225">
       <c r="A97" s="1" t="s">
         <v>246</v>
       </c>
@@ -6385,16 +6395,16 @@
         <v>246</v>
       </c>
       <c r="C97" s="31" t="s">
-        <v>467</v>
+        <v>383</v>
       </c>
       <c r="D97" s="35" t="s">
-        <v>468</v>
+        <v>384</v>
       </c>
       <c r="E97" s="36" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="165">
       <c r="A98" s="1" t="s">
         <v>247</v>
       </c>
@@ -6402,7 +6412,7 @@
         <v>246</v>
       </c>
       <c r="C98" s="31" t="s">
-        <v>467</v>
+        <v>383</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>248</v>
@@ -6411,7 +6421,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:5" ht="225">
       <c r="A99" s="1" t="s">
         <v>249</v>
       </c>
@@ -6419,16 +6429,16 @@
         <v>249</v>
       </c>
       <c r="C99" s="31" t="s">
-        <v>470</v>
+        <v>385</v>
       </c>
       <c r="D99" s="35" t="s">
-        <v>471</v>
+        <v>386</v>
       </c>
       <c r="E99" s="36" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="165">
       <c r="A100" s="1" t="s">
         <v>250</v>
       </c>
@@ -6436,7 +6446,7 @@
         <v>249</v>
       </c>
       <c r="C100" s="31" t="s">
-        <v>470</v>
+        <v>385</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>251</v>
@@ -6445,7 +6455,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:5" ht="225">
       <c r="A101" s="1" t="s">
         <v>252</v>
       </c>
@@ -6453,16 +6463,16 @@
         <v>252</v>
       </c>
       <c r="C101" s="31" t="s">
-        <v>473</v>
+        <v>387</v>
       </c>
       <c r="D101" s="35" t="s">
-        <v>474</v>
+        <v>388</v>
       </c>
       <c r="E101" s="36" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="165">
       <c r="A102" s="1" t="s">
         <v>253</v>
       </c>
@@ -6470,7 +6480,7 @@
         <v>252</v>
       </c>
       <c r="C102" s="31" t="s">
-        <v>473</v>
+        <v>387</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>254</v>
@@ -6479,7 +6489,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:5" ht="225">
       <c r="A103" s="1" t="s">
         <v>255</v>
       </c>
@@ -6487,16 +6497,16 @@
         <v>255</v>
       </c>
       <c r="C103" s="31" t="s">
-        <v>476</v>
+        <v>389</v>
       </c>
       <c r="D103" s="35" t="s">
-        <v>477</v>
+        <v>390</v>
       </c>
       <c r="E103" s="36" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="165">
       <c r="A104" s="1" t="s">
         <v>256</v>
       </c>
@@ -6504,7 +6514,7 @@
         <v>255</v>
       </c>
       <c r="C104" s="31" t="s">
-        <v>476</v>
+        <v>389</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>257</v>
@@ -6513,7 +6523,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:5" ht="225">
       <c r="A105" s="1" t="s">
         <v>258</v>
       </c>
@@ -6521,16 +6531,16 @@
         <v>258</v>
       </c>
       <c r="C105" s="31" t="s">
-        <v>479</v>
+        <v>391</v>
       </c>
       <c r="D105" s="35" t="s">
-        <v>480</v>
+        <v>392</v>
       </c>
       <c r="E105" s="36" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="165">
       <c r="A106" s="1" t="s">
         <v>259</v>
       </c>
@@ -6538,7 +6548,7 @@
         <v>258</v>
       </c>
       <c r="C106" s="31" t="s">
-        <v>479</v>
+        <v>391</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>260</v>
@@ -6547,7 +6557,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:5" ht="225">
       <c r="A107" s="1" t="s">
         <v>261</v>
       </c>
@@ -6555,16 +6565,16 @@
         <v>261</v>
       </c>
       <c r="C107" s="31" t="s">
-        <v>482</v>
+        <v>393</v>
       </c>
       <c r="D107" s="37" t="s">
-        <v>483</v>
+        <v>394</v>
       </c>
       <c r="E107" s="36" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="165">
       <c r="A108" s="1" t="s">
         <v>262</v>
       </c>
@@ -6572,7 +6582,7 @@
         <v>261</v>
       </c>
       <c r="C108" s="31" t="s">
-        <v>482</v>
+        <v>393</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>263</v>
@@ -6581,7 +6591,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:5" ht="225">
       <c r="A109" s="1" t="s">
         <v>264</v>
       </c>
@@ -6589,16 +6599,16 @@
         <v>264</v>
       </c>
       <c r="C109" s="31" t="s">
-        <v>485</v>
+        <v>395</v>
       </c>
       <c r="D109" s="35" t="s">
-        <v>486</v>
+        <v>396</v>
       </c>
       <c r="E109" s="36" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="165">
       <c r="A110" s="1" t="s">
         <v>265</v>
       </c>
@@ -6606,7 +6616,7 @@
         <v>264</v>
       </c>
       <c r="C110" s="31" t="s">
-        <v>485</v>
+        <v>395</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>266</v>
@@ -6615,7 +6625,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="111" spans="1:5">
+    <row r="111" spans="1:5" ht="225">
       <c r="A111" s="1" t="s">
         <v>267</v>
       </c>
@@ -6623,16 +6633,16 @@
         <v>267</v>
       </c>
       <c r="C111" s="31" t="s">
-        <v>488</v>
+        <v>397</v>
       </c>
       <c r="D111" s="32" t="s">
-        <v>489</v>
+        <v>398</v>
       </c>
       <c r="E111" s="34" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="165">
       <c r="A112" s="1" t="s">
         <v>268</v>
       </c>
@@ -6640,7 +6650,7 @@
         <v>267</v>
       </c>
       <c r="C112" s="31" t="s">
-        <v>488</v>
+        <v>397</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>269</v>
@@ -6649,7 +6659,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="113" spans="1:5">
+    <row r="113" spans="1:5" ht="225">
       <c r="A113" s="1" t="s">
         <v>270</v>
       </c>
@@ -6657,16 +6667,16 @@
         <v>270</v>
       </c>
       <c r="C113" s="31" t="s">
-        <v>491</v>
+        <v>399</v>
       </c>
       <c r="D113" s="35" t="s">
-        <v>492</v>
+        <v>400</v>
       </c>
       <c r="E113" s="36" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="165">
       <c r="A114" s="1" t="s">
         <v>271</v>
       </c>
@@ -6674,7 +6684,7 @@
         <v>270</v>
       </c>
       <c r="C114" s="31" t="s">
-        <v>491</v>
+        <v>399</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>272</v>
@@ -6683,7 +6693,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" spans="1:5" ht="225">
       <c r="A115" s="1" t="s">
         <v>273</v>
       </c>
@@ -6691,16 +6701,16 @@
         <v>273</v>
       </c>
       <c r="C115" s="31" t="s">
-        <v>494</v>
+        <v>401</v>
       </c>
       <c r="D115" s="35" t="s">
-        <v>495</v>
+        <v>402</v>
       </c>
       <c r="E115" s="36" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="165">
       <c r="A116" s="1" t="s">
         <v>274</v>
       </c>
@@ -6708,7 +6718,7 @@
         <v>273</v>
       </c>
       <c r="C116" s="31" t="s">
-        <v>494</v>
+        <v>401</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>275</v>
@@ -6717,7 +6727,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" spans="1:5" ht="225">
       <c r="A117" s="1" t="s">
         <v>276</v>
       </c>
@@ -6725,16 +6735,16 @@
         <v>276</v>
       </c>
       <c r="C117" s="31" t="s">
-        <v>497</v>
+        <v>403</v>
       </c>
       <c r="D117" s="35" t="s">
-        <v>498</v>
+        <v>404</v>
       </c>
       <c r="E117" s="36" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="165">
       <c r="A118" s="1" t="s">
         <v>277</v>
       </c>
@@ -6742,7 +6752,7 @@
         <v>276</v>
       </c>
       <c r="C118" s="31" t="s">
-        <v>497</v>
+        <v>403</v>
       </c>
       <c r="D118" s="2" t="s">
         <v>278</v>
@@ -6751,7 +6761,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" spans="1:5" ht="225">
       <c r="A119" s="1" t="s">
         <v>279</v>
       </c>
@@ -6759,16 +6769,16 @@
         <v>279</v>
       </c>
       <c r="C119" s="31" t="s">
-        <v>500</v>
+        <v>405</v>
       </c>
       <c r="D119" s="35" t="s">
-        <v>501</v>
+        <v>406</v>
       </c>
       <c r="E119" s="36" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="150">
       <c r="A120" s="1" t="s">
         <v>280</v>
       </c>
@@ -6776,7 +6786,7 @@
         <v>279</v>
       </c>
       <c r="C120" s="31" t="s">
-        <v>500</v>
+        <v>405</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>281</v>
@@ -6785,7 +6795,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="121" spans="1:5">
+    <row r="121" spans="1:5" ht="225">
       <c r="A121" s="1" t="s">
         <v>282</v>
       </c>
@@ -6793,16 +6803,16 @@
         <v>282</v>
       </c>
       <c r="C121" s="31" t="s">
-        <v>503</v>
+        <v>407</v>
       </c>
       <c r="D121" s="35" t="s">
-        <v>504</v>
+        <v>408</v>
       </c>
       <c r="E121" s="36" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="165">
       <c r="A122" s="1" t="s">
         <v>283</v>
       </c>
@@ -6810,7 +6820,7 @@
         <v>282</v>
       </c>
       <c r="C122" s="31" t="s">
-        <v>503</v>
+        <v>407</v>
       </c>
       <c r="D122" s="2" t="s">
         <v>284</v>
@@ -6819,7 +6829,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="123" spans="1:5">
+    <row r="123" spans="1:5" ht="225">
       <c r="A123" s="1" t="s">
         <v>285</v>
       </c>
@@ -6827,16 +6837,16 @@
         <v>285</v>
       </c>
       <c r="C123" s="31" t="s">
-        <v>506</v>
+        <v>409</v>
       </c>
       <c r="D123" s="35" t="s">
-        <v>507</v>
+        <v>410</v>
       </c>
       <c r="E123" s="36" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="165">
       <c r="A124" s="1" t="s">
         <v>286</v>
       </c>
@@ -6844,7 +6854,7 @@
         <v>285</v>
       </c>
       <c r="C124" s="31" t="s">
-        <v>506</v>
+        <v>409</v>
       </c>
       <c r="D124" s="2" t="s">
         <v>287</v>
@@ -6853,7 +6863,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="125" spans="1:5">
+    <row r="125" spans="1:5" ht="225">
       <c r="A125" s="1" t="s">
         <v>288</v>
       </c>
@@ -6861,16 +6871,16 @@
         <v>288</v>
       </c>
       <c r="C125" s="31" t="s">
-        <v>509</v>
+        <v>411</v>
       </c>
       <c r="D125" s="35" t="s">
-        <v>510</v>
+        <v>412</v>
       </c>
       <c r="E125" s="36" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="165">
       <c r="A126" s="1" t="s">
         <v>289</v>
       </c>
@@ -6878,16 +6888,16 @@
         <v>288</v>
       </c>
       <c r="C126" s="31" t="s">
-        <v>509</v>
+        <v>411</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>512</v>
+        <v>413</v>
       </c>
       <c r="E126" s="33" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="240">
       <c r="A127" s="1" t="s">
         <v>290</v>
       </c>
@@ -6895,16 +6905,16 @@
         <v>290</v>
       </c>
       <c r="C127" s="31" t="s">
-        <v>513</v>
+        <v>414</v>
       </c>
       <c r="D127" s="35" t="s">
-        <v>514</v>
+        <v>415</v>
       </c>
       <c r="E127" s="36" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="240">
       <c r="A128" s="1" t="s">
         <v>291</v>
       </c>
@@ -6912,16 +6922,16 @@
         <v>290</v>
       </c>
       <c r="C128" s="31" t="s">
-        <v>513</v>
+        <v>414</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>516</v>
+        <v>416</v>
       </c>
       <c r="E128" s="33" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="285">
       <c r="A129" s="27" t="s">
         <v>292</v>
       </c>
@@ -6929,16 +6939,16 @@
         <v>292</v>
       </c>
       <c r="C129" s="31" t="s">
-        <v>517</v>
+        <v>417</v>
       </c>
       <c r="D129" s="32" t="s">
-        <v>518</v>
+        <v>418</v>
       </c>
       <c r="E129" s="34" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="270">
       <c r="A130" s="1" t="s">
         <v>293</v>
       </c>
@@ -6946,16 +6956,16 @@
         <v>293</v>
       </c>
       <c r="C130" s="31" t="s">
-        <v>520</v>
+        <v>419</v>
       </c>
       <c r="D130" s="32" t="s">
-        <v>521</v>
+        <v>420</v>
       </c>
       <c r="E130" s="34" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" ht="270">
       <c r="A131" s="27" t="s">
         <v>294</v>
       </c>
@@ -6963,16 +6973,16 @@
         <v>294</v>
       </c>
       <c r="C131" s="31" t="s">
-        <v>523</v>
+        <v>421</v>
       </c>
       <c r="D131" s="32" t="s">
-        <v>524</v>
+        <v>422</v>
       </c>
       <c r="E131" s="34" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" ht="330">
       <c r="A132" s="1" t="s">
         <v>295</v>
       </c>
@@ -6980,16 +6990,16 @@
         <v>295</v>
       </c>
       <c r="C132" s="31" t="s">
-        <v>526</v>
+        <v>423</v>
       </c>
       <c r="D132" s="32" t="s">
-        <v>527</v>
+        <v>424</v>
       </c>
       <c r="E132" s="34" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="285">
       <c r="A133" s="1" t="s">
         <v>296</v>
       </c>
@@ -6997,16 +7007,16 @@
         <v>296</v>
       </c>
       <c r="C133" s="31" t="s">
-        <v>529</v>
+        <v>425</v>
       </c>
       <c r="D133" s="32" t="s">
-        <v>530</v>
+        <v>426</v>
       </c>
       <c r="E133" s="34" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" ht="120">
       <c r="A134" s="1" t="s">
         <v>231</v>
       </c>
@@ -7014,7 +7024,7 @@
         <v>231</v>
       </c>
       <c r="C134" s="31" t="s">
-        <v>532</v>
+        <v>427</v>
       </c>
       <c r="D134" s="2" t="s">
         <v>297</v>
@@ -7023,7 +7033,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="135" spans="1:5">
+    <row r="135" spans="1:5" ht="120">
       <c r="A135" s="1" t="s">
         <v>298</v>
       </c>
@@ -7031,7 +7041,7 @@
         <v>298</v>
       </c>
       <c r="C135" s="31" t="s">
-        <v>533</v>
+        <v>428</v>
       </c>
       <c r="D135" s="2" t="s">
         <v>299</v>
@@ -7040,7 +7050,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="136" spans="1:5">
+    <row r="136" spans="1:5" ht="120">
       <c r="A136" s="1" t="s">
         <v>300</v>
       </c>
@@ -7048,7 +7058,7 @@
         <v>300</v>
       </c>
       <c r="C136" s="31" t="s">
-        <v>534</v>
+        <v>429</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>301</v>
@@ -7057,7 +7067,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="137" spans="1:5">
+    <row r="137" spans="1:5" ht="120">
       <c r="A137" s="1" t="s">
         <v>210</v>
       </c>
@@ -7065,7 +7075,7 @@
         <v>210</v>
       </c>
       <c r="C137" s="31" t="s">
-        <v>443</v>
+        <v>371</v>
       </c>
       <c r="D137" s="2" t="s">
         <v>302</v>
@@ -7074,7 +7084,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="138" spans="1:5">
+    <row r="138" spans="1:5" ht="120">
       <c r="A138" s="1" t="s">
         <v>303</v>
       </c>
@@ -7082,7 +7092,7 @@
         <v>303</v>
       </c>
       <c r="C138" s="31" t="s">
-        <v>535</v>
+        <v>430</v>
       </c>
       <c r="D138" s="2" t="s">
         <v>304</v>
@@ -7092,7 +7102,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
